--- a/templates/decir_reg_template.xlsx
+++ b/templates/decir_reg_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F. Martins\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0238819E-79F3-455B-BB0B-77BE1CD65FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41C426C-105B-4084-A45D-EEA209B6445F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C659143B-CA94-4BA0-8D2F-F95ACC134C4E}"/>
   </bookViews>
@@ -1483,132 +1483,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1641,6 +1515,132 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2552,8 +2552,8 @@
   </sheetPr>
   <dimension ref="A1:AP232"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A208" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AL213" sqref="AL213:AL214"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AK9" sqref="AK9:AN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2661,45 +2661,45 @@
       <c r="AI6" s="4"/>
     </row>
     <row r="7" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="82"/>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="82"/>
-      <c r="AC7" s="82"/>
-      <c r="AD7" s="82"/>
-      <c r="AE7" s="82"/>
-      <c r="AF7" s="82"/>
-      <c r="AG7" s="82"/>
-      <c r="AH7" s="82"/>
-      <c r="AI7" s="82"/>
-      <c r="AJ7" s="82"/>
-      <c r="AK7" s="82"/>
-      <c r="AL7" s="82"/>
-      <c r="AM7" s="82"/>
-      <c r="AN7" s="82"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
+      <c r="Y7" s="115"/>
+      <c r="Z7" s="115"/>
+      <c r="AA7" s="115"/>
+      <c r="AB7" s="115"/>
+      <c r="AC7" s="115"/>
+      <c r="AD7" s="115"/>
+      <c r="AE7" s="115"/>
+      <c r="AF7" s="115"/>
+      <c r="AG7" s="115"/>
+      <c r="AH7" s="115"/>
+      <c r="AI7" s="115"/>
+      <c r="AJ7" s="115"/>
+      <c r="AK7" s="115"/>
+      <c r="AL7" s="115"/>
+      <c r="AM7" s="115"/>
+      <c r="AN7" s="115"/>
       <c r="AO7" s="7"/>
     </row>
     <row r="8" spans="2:41" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2736,14 +2736,14 @@
       <c r="AI8" s="4"/>
     </row>
     <row r="9" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="124" t="s">
+      <c r="D9" s="79"/>
+      <c r="E9" s="82" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="70"/>
@@ -2777,18 +2777,18 @@
       <c r="AH9" s="70"/>
       <c r="AI9" s="70"/>
       <c r="AJ9" s="70"/>
-      <c r="AK9" s="126" t="s">
+      <c r="AK9" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="AL9" s="127"/>
-      <c r="AM9" s="127"/>
-      <c r="AN9" s="128"/>
+      <c r="AL9" s="85"/>
+      <c r="AM9" s="85"/>
+      <c r="AN9" s="86"/>
     </row>
     <row r="10" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="119"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="125"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="83"/>
       <c r="F10" s="71"/>
       <c r="G10" s="67"/>
       <c r="H10" s="68"/>
@@ -2834,9 +2834,9 @@
       </c>
     </row>
     <row r="11" spans="2:41" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="102"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="47" t="s">
         <v>8</v>
       </c>
@@ -2875,14 +2875,14 @@
         <f>COUNTIFS(F11:AJ11,"x")</f>
         <v>0</v>
       </c>
-      <c r="AL11" s="107"/>
-      <c r="AM11" s="108"/>
-      <c r="AN11" s="109"/>
+      <c r="AL11" s="93"/>
+      <c r="AM11" s="95"/>
+      <c r="AN11" s="97"/>
     </row>
     <row r="12" spans="2:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="85"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="48" t="s">
         <v>9</v>
       </c>
@@ -2921,14 +2921,14 @@
         <f>COUNTIFS(F12:AJ12,"x")</f>
         <v>0</v>
       </c>
-      <c r="AL12" s="92"/>
-      <c r="AM12" s="95"/>
+      <c r="AL12" s="94"/>
+      <c r="AM12" s="96"/>
       <c r="AN12" s="98"/>
     </row>
     <row r="13" spans="2:41" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="102"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="104"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="90"/>
       <c r="E13" s="47" t="s">
         <v>8</v>
       </c>
@@ -2967,14 +2967,14 @@
         <f>COUNTIFS(F13:AJ13,"x")</f>
         <v>0</v>
       </c>
-      <c r="AL13" s="107"/>
-      <c r="AM13" s="108"/>
-      <c r="AN13" s="109"/>
+      <c r="AL13" s="93"/>
+      <c r="AM13" s="95"/>
+      <c r="AN13" s="97"/>
     </row>
     <row r="14" spans="2:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="85"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="106"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="48" t="s">
         <v>9</v>
       </c>
@@ -3013,14 +3013,14 @@
         <f>COUNTIFS(F14:AJ14,"x")</f>
         <v>0</v>
       </c>
-      <c r="AL14" s="92"/>
-      <c r="AM14" s="95"/>
+      <c r="AL14" s="94"/>
+      <c r="AM14" s="96"/>
       <c r="AN14" s="98"/>
     </row>
     <row r="15" spans="2:41" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="83"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="114"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="102"/>
       <c r="E15" s="49" t="s">
         <v>8</v>
       </c>
@@ -3059,14 +3059,14 @@
         <f t="shared" ref="AK15:AK78" si="0">COUNTIFS(F15:AJ15,"x")</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="90"/>
-      <c r="AM15" s="93"/>
-      <c r="AN15" s="96"/>
+      <c r="AL15" s="103"/>
+      <c r="AM15" s="105"/>
+      <c r="AN15" s="107"/>
     </row>
     <row r="16" spans="2:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="112"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="114"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="50" t="s">
         <v>9</v>
       </c>
@@ -3105,14 +3105,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL16" s="115"/>
-      <c r="AM16" s="116"/>
-      <c r="AN16" s="117"/>
+      <c r="AL16" s="104"/>
+      <c r="AM16" s="106"/>
+      <c r="AN16" s="108"/>
     </row>
     <row r="17" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="102"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="104"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="90"/>
       <c r="E17" s="47" t="s">
         <v>8</v>
       </c>
@@ -3151,14 +3151,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL17" s="107"/>
-      <c r="AM17" s="108"/>
-      <c r="AN17" s="109"/>
+      <c r="AL17" s="93"/>
+      <c r="AM17" s="95"/>
+      <c r="AN17" s="97"/>
     </row>
     <row r="18" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="85"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="106"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="48" t="s">
         <v>9</v>
       </c>
@@ -3197,14 +3197,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL18" s="92"/>
-      <c r="AM18" s="95"/>
+      <c r="AL18" s="94"/>
+      <c r="AM18" s="96"/>
       <c r="AN18" s="98"/>
     </row>
     <row r="19" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="102"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="104"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="90"/>
       <c r="E19" s="47" t="s">
         <v>8</v>
       </c>
@@ -3243,14 +3243,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL19" s="107"/>
-      <c r="AM19" s="108"/>
-      <c r="AN19" s="109"/>
+      <c r="AL19" s="93"/>
+      <c r="AM19" s="95"/>
+      <c r="AN19" s="97"/>
     </row>
     <row r="20" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="85"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="92"/>
       <c r="E20" s="48" t="s">
         <v>9</v>
       </c>
@@ -3289,14 +3289,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL20" s="92"/>
-      <c r="AM20" s="95"/>
+      <c r="AL20" s="94"/>
+      <c r="AM20" s="96"/>
       <c r="AN20" s="98"/>
     </row>
     <row r="21" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="102"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="104"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="47" t="s">
         <v>8</v>
       </c>
@@ -3335,14 +3335,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL21" s="107"/>
-      <c r="AM21" s="108"/>
-      <c r="AN21" s="109"/>
+      <c r="AL21" s="93"/>
+      <c r="AM21" s="95"/>
+      <c r="AN21" s="97"/>
     </row>
     <row r="22" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="85"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="106"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="92"/>
       <c r="E22" s="48" t="s">
         <v>9</v>
       </c>
@@ -3381,14 +3381,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL22" s="92"/>
-      <c r="AM22" s="95"/>
+      <c r="AL22" s="94"/>
+      <c r="AM22" s="96"/>
       <c r="AN22" s="98"/>
     </row>
     <row r="23" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="102"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="104"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="90"/>
       <c r="E23" s="47" t="s">
         <v>8</v>
       </c>
@@ -3427,14 +3427,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL23" s="107"/>
-      <c r="AM23" s="108"/>
-      <c r="AN23" s="109"/>
+      <c r="AL23" s="93"/>
+      <c r="AM23" s="95"/>
+      <c r="AN23" s="97"/>
     </row>
     <row r="24" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="85"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="106"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="92"/>
       <c r="E24" s="48" t="s">
         <v>9</v>
       </c>
@@ -3473,14 +3473,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL24" s="92"/>
-      <c r="AM24" s="95"/>
+      <c r="AL24" s="94"/>
+      <c r="AM24" s="96"/>
       <c r="AN24" s="98"/>
     </row>
     <row r="25" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="102"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="104"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="90"/>
       <c r="E25" s="47" t="s">
         <v>8</v>
       </c>
@@ -3519,14 +3519,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL25" s="107"/>
-      <c r="AM25" s="108"/>
-      <c r="AN25" s="109"/>
+      <c r="AL25" s="93"/>
+      <c r="AM25" s="95"/>
+      <c r="AN25" s="97"/>
     </row>
     <row r="26" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="85"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="106"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
       <c r="E26" s="48" t="s">
         <v>9</v>
       </c>
@@ -3565,14 +3565,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL26" s="92"/>
-      <c r="AM26" s="95"/>
+      <c r="AL26" s="94"/>
+      <c r="AM26" s="96"/>
       <c r="AN26" s="98"/>
     </row>
     <row r="27" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="102"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="104"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="90"/>
       <c r="E27" s="47" t="s">
         <v>8</v>
       </c>
@@ -3611,14 +3611,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL27" s="107"/>
-      <c r="AM27" s="108"/>
-      <c r="AN27" s="109"/>
+      <c r="AL27" s="93"/>
+      <c r="AM27" s="95"/>
+      <c r="AN27" s="97"/>
     </row>
     <row r="28" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="85"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="106"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="92"/>
       <c r="E28" s="48" t="s">
         <v>9</v>
       </c>
@@ -3657,14 +3657,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL28" s="92"/>
-      <c r="AM28" s="95"/>
+      <c r="AL28" s="94"/>
+      <c r="AM28" s="96"/>
       <c r="AN28" s="98"/>
     </row>
     <row r="29" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="102"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="104"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="90"/>
       <c r="E29" s="47" t="s">
         <v>8</v>
       </c>
@@ -3703,14 +3703,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL29" s="107"/>
-      <c r="AM29" s="108"/>
-      <c r="AN29" s="109"/>
+      <c r="AL29" s="93"/>
+      <c r="AM29" s="95"/>
+      <c r="AN29" s="97"/>
     </row>
     <row r="30" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="85"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="106"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="92"/>
       <c r="E30" s="48" t="s">
         <v>9</v>
       </c>
@@ -3749,14 +3749,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL30" s="92"/>
-      <c r="AM30" s="95"/>
+      <c r="AL30" s="94"/>
+      <c r="AM30" s="96"/>
       <c r="AN30" s="98"/>
     </row>
     <row r="31" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="102"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="104"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="90"/>
       <c r="E31" s="47" t="s">
         <v>8</v>
       </c>
@@ -3795,14 +3795,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL31" s="107"/>
-      <c r="AM31" s="108"/>
-      <c r="AN31" s="109"/>
+      <c r="AL31" s="93"/>
+      <c r="AM31" s="95"/>
+      <c r="AN31" s="97"/>
     </row>
     <row r="32" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="85"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="106"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="92"/>
       <c r="E32" s="48" t="s">
         <v>9</v>
       </c>
@@ -3841,14 +3841,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL32" s="92"/>
-      <c r="AM32" s="95"/>
+      <c r="AL32" s="94"/>
+      <c r="AM32" s="96"/>
       <c r="AN32" s="98"/>
     </row>
     <row r="33" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="102"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="104"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="90"/>
       <c r="E33" s="47" t="s">
         <v>8</v>
       </c>
@@ -3887,14 +3887,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL33" s="107"/>
-      <c r="AM33" s="108"/>
-      <c r="AN33" s="109"/>
+      <c r="AL33" s="93"/>
+      <c r="AM33" s="95"/>
+      <c r="AN33" s="97"/>
     </row>
     <row r="34" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="85"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="106"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="92"/>
       <c r="E34" s="48" t="s">
         <v>9</v>
       </c>
@@ -3933,14 +3933,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL34" s="92"/>
-      <c r="AM34" s="95"/>
+      <c r="AL34" s="94"/>
+      <c r="AM34" s="96"/>
       <c r="AN34" s="98"/>
     </row>
     <row r="35" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="102"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="104"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="90"/>
       <c r="E35" s="47" t="s">
         <v>8</v>
       </c>
@@ -3979,14 +3979,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL35" s="107"/>
-      <c r="AM35" s="108"/>
-      <c r="AN35" s="109"/>
+      <c r="AL35" s="93"/>
+      <c r="AM35" s="95"/>
+      <c r="AN35" s="97"/>
     </row>
     <row r="36" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="85"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="106"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="92"/>
       <c r="E36" s="48" t="s">
         <v>9</v>
       </c>
@@ -4025,14 +4025,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL36" s="92"/>
-      <c r="AM36" s="95"/>
+      <c r="AL36" s="94"/>
+      <c r="AM36" s="96"/>
       <c r="AN36" s="98"/>
     </row>
     <row r="37" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="102"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="104"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="90"/>
       <c r="E37" s="47" t="s">
         <v>8</v>
       </c>
@@ -4071,14 +4071,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL37" s="107"/>
-      <c r="AM37" s="108"/>
-      <c r="AN37" s="109"/>
+      <c r="AL37" s="93"/>
+      <c r="AM37" s="95"/>
+      <c r="AN37" s="97"/>
     </row>
     <row r="38" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="85"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="106"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="92"/>
       <c r="E38" s="48" t="s">
         <v>9</v>
       </c>
@@ -4117,14 +4117,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL38" s="92"/>
-      <c r="AM38" s="95"/>
+      <c r="AL38" s="94"/>
+      <c r="AM38" s="96"/>
       <c r="AN38" s="98"/>
     </row>
     <row r="39" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="102"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="104"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="90"/>
       <c r="E39" s="47" t="s">
         <v>8</v>
       </c>
@@ -4163,14 +4163,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL39" s="107"/>
-      <c r="AM39" s="108"/>
-      <c r="AN39" s="109"/>
+      <c r="AL39" s="93"/>
+      <c r="AM39" s="95"/>
+      <c r="AN39" s="97"/>
     </row>
     <row r="40" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="85"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="106"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="92"/>
       <c r="E40" s="48" t="s">
         <v>9</v>
       </c>
@@ -4209,14 +4209,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL40" s="92"/>
-      <c r="AM40" s="95"/>
+      <c r="AL40" s="94"/>
+      <c r="AM40" s="96"/>
       <c r="AN40" s="98"/>
     </row>
     <row r="41" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="102"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="104"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="90"/>
       <c r="E41" s="47" t="s">
         <v>8</v>
       </c>
@@ -4255,14 +4255,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL41" s="107"/>
-      <c r="AM41" s="108"/>
-      <c r="AN41" s="109"/>
+      <c r="AL41" s="93"/>
+      <c r="AM41" s="95"/>
+      <c r="AN41" s="97"/>
     </row>
     <row r="42" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="85"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="106"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="92"/>
       <c r="E42" s="48" t="s">
         <v>9</v>
       </c>
@@ -4301,14 +4301,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL42" s="92"/>
-      <c r="AM42" s="95"/>
+      <c r="AL42" s="94"/>
+      <c r="AM42" s="96"/>
       <c r="AN42" s="98"/>
     </row>
     <row r="43" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="102"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="104"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="90"/>
       <c r="E43" s="47" t="s">
         <v>8</v>
       </c>
@@ -4347,14 +4347,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL43" s="107"/>
-      <c r="AM43" s="108"/>
-      <c r="AN43" s="109"/>
+      <c r="AL43" s="93"/>
+      <c r="AM43" s="95"/>
+      <c r="AN43" s="97"/>
     </row>
     <row r="44" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="85"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="106"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="92"/>
       <c r="E44" s="48" t="s">
         <v>9</v>
       </c>
@@ -4393,14 +4393,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL44" s="92"/>
-      <c r="AM44" s="95"/>
+      <c r="AL44" s="94"/>
+      <c r="AM44" s="96"/>
       <c r="AN44" s="98"/>
     </row>
     <row r="45" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="102"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="104"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="90"/>
       <c r="E45" s="47" t="s">
         <v>8</v>
       </c>
@@ -4439,14 +4439,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL45" s="107"/>
-      <c r="AM45" s="108"/>
-      <c r="AN45" s="109"/>
+      <c r="AL45" s="93"/>
+      <c r="AM45" s="95"/>
+      <c r="AN45" s="97"/>
     </row>
     <row r="46" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="85"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="106"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="92"/>
       <c r="E46" s="48" t="s">
         <v>9</v>
       </c>
@@ -4485,14 +4485,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL46" s="92"/>
-      <c r="AM46" s="95"/>
+      <c r="AL46" s="94"/>
+      <c r="AM46" s="96"/>
       <c r="AN46" s="98"/>
     </row>
     <row r="47" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="102"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="104"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="90"/>
       <c r="E47" s="47" t="s">
         <v>8</v>
       </c>
@@ -4531,14 +4531,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL47" s="107"/>
-      <c r="AM47" s="108"/>
-      <c r="AN47" s="109"/>
+      <c r="AL47" s="93"/>
+      <c r="AM47" s="95"/>
+      <c r="AN47" s="97"/>
     </row>
     <row r="48" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="85"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="106"/>
+      <c r="B48" s="88"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="92"/>
       <c r="E48" s="48" t="s">
         <v>9</v>
       </c>
@@ -4577,14 +4577,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL48" s="92"/>
-      <c r="AM48" s="95"/>
+      <c r="AL48" s="94"/>
+      <c r="AM48" s="96"/>
       <c r="AN48" s="98"/>
     </row>
     <row r="49" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="102"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="104"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="90"/>
       <c r="E49" s="47" t="s">
         <v>8</v>
       </c>
@@ -4623,14 +4623,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL49" s="107"/>
-      <c r="AM49" s="108"/>
-      <c r="AN49" s="109"/>
+      <c r="AL49" s="93"/>
+      <c r="AM49" s="95"/>
+      <c r="AN49" s="97"/>
     </row>
     <row r="50" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="85"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="106"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="92"/>
       <c r="E50" s="48" t="s">
         <v>9</v>
       </c>
@@ -4669,14 +4669,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL50" s="92"/>
-      <c r="AM50" s="95"/>
+      <c r="AL50" s="94"/>
+      <c r="AM50" s="96"/>
       <c r="AN50" s="98"/>
     </row>
     <row r="51" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="102"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="104"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="90"/>
       <c r="E51" s="47" t="s">
         <v>8</v>
       </c>
@@ -4715,14 +4715,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL51" s="107"/>
-      <c r="AM51" s="108"/>
-      <c r="AN51" s="109"/>
+      <c r="AL51" s="93"/>
+      <c r="AM51" s="95"/>
+      <c r="AN51" s="97"/>
     </row>
     <row r="52" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="85"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="106"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="92"/>
       <c r="E52" s="48" t="s">
         <v>9</v>
       </c>
@@ -4761,14 +4761,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL52" s="92"/>
-      <c r="AM52" s="95"/>
+      <c r="AL52" s="94"/>
+      <c r="AM52" s="96"/>
       <c r="AN52" s="98"/>
     </row>
     <row r="53" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="102"/>
-      <c r="C53" s="103"/>
-      <c r="D53" s="104"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="90"/>
       <c r="E53" s="47" t="s">
         <v>8</v>
       </c>
@@ -4807,14 +4807,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL53" s="107"/>
-      <c r="AM53" s="108"/>
-      <c r="AN53" s="109"/>
+      <c r="AL53" s="93"/>
+      <c r="AM53" s="95"/>
+      <c r="AN53" s="97"/>
     </row>
     <row r="54" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="85"/>
-      <c r="C54" s="105"/>
-      <c r="D54" s="106"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="92"/>
       <c r="E54" s="48" t="s">
         <v>9</v>
       </c>
@@ -4853,14 +4853,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL54" s="92"/>
-      <c r="AM54" s="95"/>
+      <c r="AL54" s="94"/>
+      <c r="AM54" s="96"/>
       <c r="AN54" s="98"/>
     </row>
     <row r="55" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="102"/>
-      <c r="C55" s="103"/>
-      <c r="D55" s="104"/>
+      <c r="B55" s="87"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="90"/>
       <c r="E55" s="47" t="s">
         <v>8</v>
       </c>
@@ -4899,14 +4899,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL55" s="107"/>
-      <c r="AM55" s="108"/>
-      <c r="AN55" s="109"/>
+      <c r="AL55" s="93"/>
+      <c r="AM55" s="95"/>
+      <c r="AN55" s="97"/>
     </row>
     <row r="56" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="85"/>
-      <c r="C56" s="105"/>
-      <c r="D56" s="106"/>
+      <c r="B56" s="88"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="92"/>
       <c r="E56" s="48" t="s">
         <v>9</v>
       </c>
@@ -4945,14 +4945,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL56" s="92"/>
-      <c r="AM56" s="95"/>
+      <c r="AL56" s="94"/>
+      <c r="AM56" s="96"/>
       <c r="AN56" s="98"/>
     </row>
     <row r="57" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="83"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="114"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="102"/>
       <c r="E57" s="49" t="s">
         <v>8</v>
       </c>
@@ -4991,14 +4991,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL57" s="90"/>
-      <c r="AM57" s="93"/>
-      <c r="AN57" s="96"/>
+      <c r="AL57" s="103"/>
+      <c r="AM57" s="105"/>
+      <c r="AN57" s="107"/>
     </row>
     <row r="58" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="112"/>
-      <c r="C58" s="113"/>
-      <c r="D58" s="114"/>
+      <c r="B58" s="100"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="102"/>
       <c r="E58" s="50" t="s">
         <v>9</v>
       </c>
@@ -5037,14 +5037,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL58" s="115"/>
-      <c r="AM58" s="116"/>
-      <c r="AN58" s="117"/>
+      <c r="AL58" s="104"/>
+      <c r="AM58" s="106"/>
+      <c r="AN58" s="108"/>
     </row>
     <row r="59" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="102"/>
-      <c r="C59" s="103"/>
-      <c r="D59" s="104"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="90"/>
       <c r="E59" s="47" t="s">
         <v>8</v>
       </c>
@@ -5083,14 +5083,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL59" s="107"/>
-      <c r="AM59" s="108"/>
-      <c r="AN59" s="109"/>
+      <c r="AL59" s="93"/>
+      <c r="AM59" s="95"/>
+      <c r="AN59" s="97"/>
     </row>
     <row r="60" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="85"/>
-      <c r="C60" s="105"/>
-      <c r="D60" s="106"/>
+      <c r="B60" s="88"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="92"/>
       <c r="E60" s="48" t="s">
         <v>9</v>
       </c>
@@ -5129,14 +5129,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL60" s="92"/>
-      <c r="AM60" s="95"/>
+      <c r="AL60" s="94"/>
+      <c r="AM60" s="96"/>
       <c r="AN60" s="98"/>
     </row>
     <row r="61" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="102"/>
-      <c r="C61" s="103"/>
-      <c r="D61" s="104"/>
+      <c r="B61" s="87"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="90"/>
       <c r="E61" s="47" t="s">
         <v>8</v>
       </c>
@@ -5175,14 +5175,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL61" s="107"/>
-      <c r="AM61" s="108"/>
-      <c r="AN61" s="109"/>
+      <c r="AL61" s="93"/>
+      <c r="AM61" s="95"/>
+      <c r="AN61" s="97"/>
     </row>
     <row r="62" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="85"/>
-      <c r="C62" s="105"/>
-      <c r="D62" s="106"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="92"/>
       <c r="E62" s="48" t="s">
         <v>9</v>
       </c>
@@ -5221,14 +5221,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL62" s="92"/>
-      <c r="AM62" s="95"/>
+      <c r="AL62" s="94"/>
+      <c r="AM62" s="96"/>
       <c r="AN62" s="98"/>
     </row>
     <row r="63" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="102"/>
-      <c r="C63" s="103"/>
-      <c r="D63" s="104"/>
+      <c r="B63" s="87"/>
+      <c r="C63" s="89"/>
+      <c r="D63" s="90"/>
       <c r="E63" s="47" t="s">
         <v>8</v>
       </c>
@@ -5267,14 +5267,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL63" s="107"/>
-      <c r="AM63" s="108"/>
-      <c r="AN63" s="109"/>
+      <c r="AL63" s="93"/>
+      <c r="AM63" s="95"/>
+      <c r="AN63" s="97"/>
     </row>
     <row r="64" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="85"/>
-      <c r="C64" s="105"/>
-      <c r="D64" s="106"/>
+      <c r="B64" s="88"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="92"/>
       <c r="E64" s="48" t="s">
         <v>9</v>
       </c>
@@ -5313,14 +5313,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL64" s="92"/>
-      <c r="AM64" s="95"/>
+      <c r="AL64" s="94"/>
+      <c r="AM64" s="96"/>
       <c r="AN64" s="98"/>
     </row>
     <row r="65" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="102"/>
-      <c r="C65" s="103"/>
-      <c r="D65" s="104"/>
+      <c r="B65" s="87"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="90"/>
       <c r="E65" s="47" t="s">
         <v>8</v>
       </c>
@@ -5359,14 +5359,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL65" s="107"/>
-      <c r="AM65" s="108"/>
-      <c r="AN65" s="109"/>
+      <c r="AL65" s="93"/>
+      <c r="AM65" s="95"/>
+      <c r="AN65" s="97"/>
     </row>
     <row r="66" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="85"/>
-      <c r="C66" s="105"/>
-      <c r="D66" s="106"/>
+      <c r="B66" s="88"/>
+      <c r="C66" s="91"/>
+      <c r="D66" s="92"/>
       <c r="E66" s="48" t="s">
         <v>9</v>
       </c>
@@ -5405,14 +5405,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL66" s="92"/>
-      <c r="AM66" s="95"/>
+      <c r="AL66" s="94"/>
+      <c r="AM66" s="96"/>
       <c r="AN66" s="98"/>
     </row>
     <row r="67" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="102"/>
-      <c r="C67" s="103"/>
-      <c r="D67" s="104"/>
+      <c r="B67" s="87"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="90"/>
       <c r="E67" s="47" t="s">
         <v>8</v>
       </c>
@@ -5451,14 +5451,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL67" s="107"/>
-      <c r="AM67" s="108"/>
-      <c r="AN67" s="109"/>
+      <c r="AL67" s="93"/>
+      <c r="AM67" s="95"/>
+      <c r="AN67" s="97"/>
     </row>
     <row r="68" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="85"/>
-      <c r="C68" s="105"/>
-      <c r="D68" s="106"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="92"/>
       <c r="E68" s="48" t="s">
         <v>9</v>
       </c>
@@ -5497,14 +5497,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL68" s="92"/>
-      <c r="AM68" s="95"/>
+      <c r="AL68" s="94"/>
+      <c r="AM68" s="96"/>
       <c r="AN68" s="98"/>
     </row>
     <row r="69" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="102"/>
-      <c r="C69" s="103"/>
-      <c r="D69" s="104"/>
+      <c r="B69" s="87"/>
+      <c r="C69" s="89"/>
+      <c r="D69" s="90"/>
       <c r="E69" s="47" t="s">
         <v>8</v>
       </c>
@@ -5543,14 +5543,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL69" s="107"/>
-      <c r="AM69" s="108"/>
-      <c r="AN69" s="109"/>
+      <c r="AL69" s="93"/>
+      <c r="AM69" s="95"/>
+      <c r="AN69" s="97"/>
     </row>
     <row r="70" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="85"/>
-      <c r="C70" s="105"/>
-      <c r="D70" s="106"/>
+      <c r="B70" s="88"/>
+      <c r="C70" s="91"/>
+      <c r="D70" s="92"/>
       <c r="E70" s="48" t="s">
         <v>9</v>
       </c>
@@ -5589,14 +5589,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL70" s="92"/>
-      <c r="AM70" s="95"/>
+      <c r="AL70" s="94"/>
+      <c r="AM70" s="96"/>
       <c r="AN70" s="98"/>
     </row>
     <row r="71" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="102"/>
-      <c r="C71" s="103"/>
-      <c r="D71" s="104"/>
+      <c r="B71" s="87"/>
+      <c r="C71" s="89"/>
+      <c r="D71" s="90"/>
       <c r="E71" s="47" t="s">
         <v>8</v>
       </c>
@@ -5635,14 +5635,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL71" s="107"/>
-      <c r="AM71" s="108"/>
-      <c r="AN71" s="109"/>
+      <c r="AL71" s="93"/>
+      <c r="AM71" s="95"/>
+      <c r="AN71" s="97"/>
     </row>
     <row r="72" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="85"/>
-      <c r="C72" s="105"/>
-      <c r="D72" s="106"/>
+      <c r="B72" s="88"/>
+      <c r="C72" s="91"/>
+      <c r="D72" s="92"/>
       <c r="E72" s="48" t="s">
         <v>9</v>
       </c>
@@ -5681,14 +5681,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL72" s="92"/>
-      <c r="AM72" s="95"/>
+      <c r="AL72" s="94"/>
+      <c r="AM72" s="96"/>
       <c r="AN72" s="98"/>
     </row>
     <row r="73" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="102"/>
-      <c r="C73" s="103"/>
-      <c r="D73" s="104"/>
+      <c r="B73" s="87"/>
+      <c r="C73" s="89"/>
+      <c r="D73" s="90"/>
       <c r="E73" s="47" t="s">
         <v>8</v>
       </c>
@@ -5727,14 +5727,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL73" s="107"/>
-      <c r="AM73" s="108"/>
-      <c r="AN73" s="109"/>
+      <c r="AL73" s="93"/>
+      <c r="AM73" s="95"/>
+      <c r="AN73" s="97"/>
     </row>
     <row r="74" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="85"/>
-      <c r="C74" s="105"/>
-      <c r="D74" s="106"/>
+      <c r="B74" s="88"/>
+      <c r="C74" s="91"/>
+      <c r="D74" s="92"/>
       <c r="E74" s="48" t="s">
         <v>9</v>
       </c>
@@ -5773,14 +5773,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL74" s="92"/>
-      <c r="AM74" s="95"/>
+      <c r="AL74" s="94"/>
+      <c r="AM74" s="96"/>
       <c r="AN74" s="98"/>
     </row>
     <row r="75" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="102"/>
-      <c r="C75" s="103"/>
-      <c r="D75" s="104"/>
+      <c r="B75" s="87"/>
+      <c r="C75" s="89"/>
+      <c r="D75" s="90"/>
       <c r="E75" s="47" t="s">
         <v>8</v>
       </c>
@@ -5819,14 +5819,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL75" s="107"/>
-      <c r="AM75" s="108"/>
-      <c r="AN75" s="109"/>
+      <c r="AL75" s="93"/>
+      <c r="AM75" s="95"/>
+      <c r="AN75" s="97"/>
     </row>
     <row r="76" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="85"/>
-      <c r="C76" s="105"/>
-      <c r="D76" s="106"/>
+      <c r="B76" s="88"/>
+      <c r="C76" s="91"/>
+      <c r="D76" s="92"/>
       <c r="E76" s="48" t="s">
         <v>9</v>
       </c>
@@ -5865,14 +5865,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL76" s="92"/>
-      <c r="AM76" s="95"/>
+      <c r="AL76" s="94"/>
+      <c r="AM76" s="96"/>
       <c r="AN76" s="98"/>
     </row>
     <row r="77" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="102"/>
-      <c r="C77" s="103"/>
-      <c r="D77" s="104"/>
+      <c r="B77" s="87"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="90"/>
       <c r="E77" s="47" t="s">
         <v>8</v>
       </c>
@@ -5911,14 +5911,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL77" s="107"/>
-      <c r="AM77" s="108"/>
-      <c r="AN77" s="109"/>
+      <c r="AL77" s="93"/>
+      <c r="AM77" s="95"/>
+      <c r="AN77" s="97"/>
     </row>
     <row r="78" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="85"/>
-      <c r="C78" s="105"/>
-      <c r="D78" s="106"/>
+      <c r="B78" s="88"/>
+      <c r="C78" s="91"/>
+      <c r="D78" s="92"/>
       <c r="E78" s="48" t="s">
         <v>9</v>
       </c>
@@ -5957,14 +5957,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL78" s="92"/>
-      <c r="AM78" s="95"/>
+      <c r="AL78" s="94"/>
+      <c r="AM78" s="96"/>
       <c r="AN78" s="98"/>
     </row>
     <row r="79" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="102"/>
-      <c r="C79" s="103"/>
-      <c r="D79" s="104"/>
+      <c r="B79" s="87"/>
+      <c r="C79" s="89"/>
+      <c r="D79" s="90"/>
       <c r="E79" s="47" t="s">
         <v>8</v>
       </c>
@@ -6003,14 +6003,14 @@
         <f t="shared" ref="AK79:AK142" si="1">COUNTIFS(F79:AJ79,"x")</f>
         <v>0</v>
       </c>
-      <c r="AL79" s="107"/>
-      <c r="AM79" s="108"/>
-      <c r="AN79" s="109"/>
+      <c r="AL79" s="93"/>
+      <c r="AM79" s="95"/>
+      <c r="AN79" s="97"/>
     </row>
     <row r="80" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="85"/>
-      <c r="C80" s="105"/>
-      <c r="D80" s="106"/>
+      <c r="B80" s="88"/>
+      <c r="C80" s="91"/>
+      <c r="D80" s="92"/>
       <c r="E80" s="48" t="s">
         <v>9</v>
       </c>
@@ -6049,14 +6049,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL80" s="92"/>
-      <c r="AM80" s="95"/>
+      <c r="AL80" s="94"/>
+      <c r="AM80" s="96"/>
       <c r="AN80" s="98"/>
     </row>
     <row r="81" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="102"/>
-      <c r="C81" s="103"/>
-      <c r="D81" s="104"/>
+      <c r="B81" s="87"/>
+      <c r="C81" s="89"/>
+      <c r="D81" s="90"/>
       <c r="E81" s="47" t="s">
         <v>8</v>
       </c>
@@ -6095,14 +6095,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL81" s="107"/>
-      <c r="AM81" s="108"/>
-      <c r="AN81" s="109"/>
+      <c r="AL81" s="93"/>
+      <c r="AM81" s="95"/>
+      <c r="AN81" s="97"/>
     </row>
     <row r="82" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="85"/>
-      <c r="C82" s="105"/>
-      <c r="D82" s="106"/>
+      <c r="B82" s="88"/>
+      <c r="C82" s="91"/>
+      <c r="D82" s="92"/>
       <c r="E82" s="48" t="s">
         <v>9</v>
       </c>
@@ -6141,14 +6141,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL82" s="92"/>
-      <c r="AM82" s="95"/>
+      <c r="AL82" s="94"/>
+      <c r="AM82" s="96"/>
       <c r="AN82" s="98"/>
     </row>
     <row r="83" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="102"/>
-      <c r="C83" s="103"/>
-      <c r="D83" s="104"/>
+      <c r="B83" s="87"/>
+      <c r="C83" s="89"/>
+      <c r="D83" s="90"/>
       <c r="E83" s="47" t="s">
         <v>8</v>
       </c>
@@ -6187,14 +6187,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL83" s="107"/>
-      <c r="AM83" s="108"/>
-      <c r="AN83" s="109"/>
+      <c r="AL83" s="93"/>
+      <c r="AM83" s="95"/>
+      <c r="AN83" s="97"/>
     </row>
     <row r="84" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="85"/>
-      <c r="C84" s="105"/>
-      <c r="D84" s="106"/>
+      <c r="B84" s="88"/>
+      <c r="C84" s="91"/>
+      <c r="D84" s="92"/>
       <c r="E84" s="48" t="s">
         <v>9</v>
       </c>
@@ -6233,14 +6233,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL84" s="92"/>
-      <c r="AM84" s="95"/>
+      <c r="AL84" s="94"/>
+      <c r="AM84" s="96"/>
       <c r="AN84" s="98"/>
     </row>
     <row r="85" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="102"/>
-      <c r="C85" s="103"/>
-      <c r="D85" s="104"/>
+      <c r="B85" s="87"/>
+      <c r="C85" s="89"/>
+      <c r="D85" s="90"/>
       <c r="E85" s="47" t="s">
         <v>8</v>
       </c>
@@ -6279,14 +6279,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL85" s="107"/>
-      <c r="AM85" s="108"/>
-      <c r="AN85" s="109"/>
+      <c r="AL85" s="93"/>
+      <c r="AM85" s="95"/>
+      <c r="AN85" s="97"/>
     </row>
     <row r="86" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="85"/>
-      <c r="C86" s="105"/>
-      <c r="D86" s="106"/>
+      <c r="B86" s="88"/>
+      <c r="C86" s="91"/>
+      <c r="D86" s="92"/>
       <c r="E86" s="48" t="s">
         <v>9</v>
       </c>
@@ -6325,14 +6325,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL86" s="92"/>
-      <c r="AM86" s="95"/>
+      <c r="AL86" s="94"/>
+      <c r="AM86" s="96"/>
       <c r="AN86" s="98"/>
     </row>
     <row r="87" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="102"/>
-      <c r="C87" s="103"/>
-      <c r="D87" s="104"/>
+      <c r="B87" s="87"/>
+      <c r="C87" s="89"/>
+      <c r="D87" s="90"/>
       <c r="E87" s="47" t="s">
         <v>8</v>
       </c>
@@ -6371,14 +6371,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL87" s="107"/>
-      <c r="AM87" s="108"/>
-      <c r="AN87" s="109"/>
+      <c r="AL87" s="93"/>
+      <c r="AM87" s="95"/>
+      <c r="AN87" s="97"/>
     </row>
     <row r="88" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="85"/>
-      <c r="C88" s="105"/>
-      <c r="D88" s="106"/>
+      <c r="B88" s="88"/>
+      <c r="C88" s="91"/>
+      <c r="D88" s="92"/>
       <c r="E88" s="48" t="s">
         <v>9</v>
       </c>
@@ -6417,14 +6417,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL88" s="92"/>
-      <c r="AM88" s="95"/>
+      <c r="AL88" s="94"/>
+      <c r="AM88" s="96"/>
       <c r="AN88" s="98"/>
     </row>
     <row r="89" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="102"/>
-      <c r="C89" s="103"/>
-      <c r="D89" s="104"/>
+      <c r="B89" s="87"/>
+      <c r="C89" s="89"/>
+      <c r="D89" s="90"/>
       <c r="E89" s="47" t="s">
         <v>8</v>
       </c>
@@ -6463,14 +6463,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL89" s="107"/>
-      <c r="AM89" s="108"/>
-      <c r="AN89" s="109"/>
+      <c r="AL89" s="93"/>
+      <c r="AM89" s="95"/>
+      <c r="AN89" s="97"/>
     </row>
     <row r="90" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="85"/>
-      <c r="C90" s="105"/>
-      <c r="D90" s="106"/>
+      <c r="B90" s="88"/>
+      <c r="C90" s="91"/>
+      <c r="D90" s="92"/>
       <c r="E90" s="48" t="s">
         <v>9</v>
       </c>
@@ -6509,14 +6509,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL90" s="92"/>
-      <c r="AM90" s="95"/>
+      <c r="AL90" s="94"/>
+      <c r="AM90" s="96"/>
       <c r="AN90" s="98"/>
     </row>
     <row r="91" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="102"/>
-      <c r="C91" s="103"/>
-      <c r="D91" s="104"/>
+      <c r="B91" s="87"/>
+      <c r="C91" s="89"/>
+      <c r="D91" s="90"/>
       <c r="E91" s="47" t="s">
         <v>8</v>
       </c>
@@ -6555,14 +6555,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL91" s="107"/>
-      <c r="AM91" s="108"/>
-      <c r="AN91" s="109"/>
+      <c r="AL91" s="93"/>
+      <c r="AM91" s="95"/>
+      <c r="AN91" s="97"/>
     </row>
     <row r="92" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="85"/>
-      <c r="C92" s="105"/>
-      <c r="D92" s="106"/>
+      <c r="B92" s="88"/>
+      <c r="C92" s="91"/>
+      <c r="D92" s="92"/>
       <c r="E92" s="48" t="s">
         <v>9</v>
       </c>
@@ -6601,14 +6601,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL92" s="92"/>
-      <c r="AM92" s="95"/>
+      <c r="AL92" s="94"/>
+      <c r="AM92" s="96"/>
       <c r="AN92" s="98"/>
     </row>
     <row r="93" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="102"/>
-      <c r="C93" s="103"/>
-      <c r="D93" s="104"/>
+      <c r="B93" s="87"/>
+      <c r="C93" s="89"/>
+      <c r="D93" s="90"/>
       <c r="E93" s="47" t="s">
         <v>8</v>
       </c>
@@ -6647,14 +6647,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL93" s="107"/>
-      <c r="AM93" s="108"/>
-      <c r="AN93" s="109"/>
+      <c r="AL93" s="93"/>
+      <c r="AM93" s="95"/>
+      <c r="AN93" s="97"/>
     </row>
     <row r="94" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="85"/>
-      <c r="C94" s="105"/>
-      <c r="D94" s="106"/>
+      <c r="B94" s="88"/>
+      <c r="C94" s="91"/>
+      <c r="D94" s="92"/>
       <c r="E94" s="48" t="s">
         <v>9</v>
       </c>
@@ -6693,14 +6693,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL94" s="92"/>
-      <c r="AM94" s="95"/>
+      <c r="AL94" s="94"/>
+      <c r="AM94" s="96"/>
       <c r="AN94" s="98"/>
     </row>
     <row r="95" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="102"/>
-      <c r="C95" s="103"/>
-      <c r="D95" s="104"/>
+      <c r="B95" s="87"/>
+      <c r="C95" s="89"/>
+      <c r="D95" s="90"/>
       <c r="E95" s="47" t="s">
         <v>8</v>
       </c>
@@ -6739,14 +6739,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL95" s="107"/>
-      <c r="AM95" s="108"/>
-      <c r="AN95" s="109"/>
+      <c r="AL95" s="93"/>
+      <c r="AM95" s="95"/>
+      <c r="AN95" s="97"/>
     </row>
     <row r="96" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="85"/>
-      <c r="C96" s="105"/>
-      <c r="D96" s="106"/>
+      <c r="B96" s="88"/>
+      <c r="C96" s="91"/>
+      <c r="D96" s="92"/>
       <c r="E96" s="48" t="s">
         <v>9</v>
       </c>
@@ -6785,14 +6785,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL96" s="92"/>
-      <c r="AM96" s="95"/>
+      <c r="AL96" s="94"/>
+      <c r="AM96" s="96"/>
       <c r="AN96" s="98"/>
     </row>
     <row r="97" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="102"/>
-      <c r="C97" s="103"/>
-      <c r="D97" s="104"/>
+      <c r="B97" s="87"/>
+      <c r="C97" s="89"/>
+      <c r="D97" s="90"/>
       <c r="E97" s="47" t="s">
         <v>8</v>
       </c>
@@ -6831,14 +6831,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL97" s="107"/>
-      <c r="AM97" s="108"/>
-      <c r="AN97" s="109"/>
+      <c r="AL97" s="93"/>
+      <c r="AM97" s="95"/>
+      <c r="AN97" s="97"/>
     </row>
     <row r="98" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="85"/>
-      <c r="C98" s="105"/>
-      <c r="D98" s="106"/>
+      <c r="B98" s="88"/>
+      <c r="C98" s="91"/>
+      <c r="D98" s="92"/>
       <c r="E98" s="48" t="s">
         <v>9</v>
       </c>
@@ -6877,14 +6877,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL98" s="92"/>
-      <c r="AM98" s="95"/>
+      <c r="AL98" s="94"/>
+      <c r="AM98" s="96"/>
       <c r="AN98" s="98"/>
     </row>
     <row r="99" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="102"/>
-      <c r="C99" s="103"/>
-      <c r="D99" s="104"/>
+      <c r="B99" s="87"/>
+      <c r="C99" s="89"/>
+      <c r="D99" s="90"/>
       <c r="E99" s="47" t="s">
         <v>8</v>
       </c>
@@ -6923,14 +6923,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL99" s="107"/>
-      <c r="AM99" s="108"/>
-      <c r="AN99" s="109"/>
+      <c r="AL99" s="93"/>
+      <c r="AM99" s="95"/>
+      <c r="AN99" s="97"/>
     </row>
     <row r="100" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="85"/>
-      <c r="C100" s="105"/>
-      <c r="D100" s="106"/>
+      <c r="B100" s="88"/>
+      <c r="C100" s="91"/>
+      <c r="D100" s="92"/>
       <c r="E100" s="48" t="s">
         <v>9</v>
       </c>
@@ -6969,14 +6969,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL100" s="92"/>
-      <c r="AM100" s="95"/>
+      <c r="AL100" s="94"/>
+      <c r="AM100" s="96"/>
       <c r="AN100" s="98"/>
     </row>
     <row r="101" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="102"/>
-      <c r="C101" s="103"/>
-      <c r="D101" s="104"/>
+      <c r="B101" s="87"/>
+      <c r="C101" s="89"/>
+      <c r="D101" s="90"/>
       <c r="E101" s="47" t="s">
         <v>8</v>
       </c>
@@ -7015,14 +7015,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL101" s="107"/>
-      <c r="AM101" s="108"/>
-      <c r="AN101" s="109"/>
+      <c r="AL101" s="93"/>
+      <c r="AM101" s="95"/>
+      <c r="AN101" s="97"/>
     </row>
     <row r="102" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="85"/>
-      <c r="C102" s="105"/>
-      <c r="D102" s="106"/>
+      <c r="B102" s="88"/>
+      <c r="C102" s="91"/>
+      <c r="D102" s="92"/>
       <c r="E102" s="48" t="s">
         <v>9</v>
       </c>
@@ -7061,14 +7061,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL102" s="92"/>
-      <c r="AM102" s="95"/>
+      <c r="AL102" s="94"/>
+      <c r="AM102" s="96"/>
       <c r="AN102" s="98"/>
     </row>
     <row r="103" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="102"/>
-      <c r="C103" s="103"/>
-      <c r="D103" s="104"/>
+      <c r="B103" s="87"/>
+      <c r="C103" s="89"/>
+      <c r="D103" s="90"/>
       <c r="E103" s="47" t="s">
         <v>8</v>
       </c>
@@ -7107,14 +7107,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL103" s="107"/>
-      <c r="AM103" s="108"/>
-      <c r="AN103" s="109"/>
+      <c r="AL103" s="93"/>
+      <c r="AM103" s="95"/>
+      <c r="AN103" s="97"/>
     </row>
     <row r="104" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="85"/>
-      <c r="C104" s="105"/>
-      <c r="D104" s="106"/>
+      <c r="B104" s="88"/>
+      <c r="C104" s="91"/>
+      <c r="D104" s="92"/>
       <c r="E104" s="48" t="s">
         <v>9</v>
       </c>
@@ -7153,14 +7153,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL104" s="92"/>
-      <c r="AM104" s="95"/>
+      <c r="AL104" s="94"/>
+      <c r="AM104" s="96"/>
       <c r="AN104" s="98"/>
     </row>
     <row r="105" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="102"/>
-      <c r="C105" s="103"/>
-      <c r="D105" s="104"/>
+      <c r="B105" s="87"/>
+      <c r="C105" s="89"/>
+      <c r="D105" s="90"/>
       <c r="E105" s="47" t="s">
         <v>8</v>
       </c>
@@ -7199,14 +7199,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL105" s="107"/>
-      <c r="AM105" s="108"/>
-      <c r="AN105" s="109"/>
+      <c r="AL105" s="93"/>
+      <c r="AM105" s="95"/>
+      <c r="AN105" s="97"/>
     </row>
     <row r="106" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="85"/>
-      <c r="C106" s="105"/>
-      <c r="D106" s="106"/>
+      <c r="B106" s="88"/>
+      <c r="C106" s="91"/>
+      <c r="D106" s="92"/>
       <c r="E106" s="48" t="s">
         <v>9</v>
       </c>
@@ -7245,14 +7245,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL106" s="92"/>
-      <c r="AM106" s="95"/>
+      <c r="AL106" s="94"/>
+      <c r="AM106" s="96"/>
       <c r="AN106" s="98"/>
     </row>
     <row r="107" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="102"/>
-      <c r="C107" s="103"/>
-      <c r="D107" s="104"/>
+      <c r="B107" s="87"/>
+      <c r="C107" s="89"/>
+      <c r="D107" s="90"/>
       <c r="E107" s="47" t="s">
         <v>8</v>
       </c>
@@ -7291,14 +7291,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL107" s="107"/>
-      <c r="AM107" s="108"/>
-      <c r="AN107" s="109"/>
+      <c r="AL107" s="93"/>
+      <c r="AM107" s="95"/>
+      <c r="AN107" s="97"/>
     </row>
     <row r="108" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="85"/>
-      <c r="C108" s="105"/>
-      <c r="D108" s="106"/>
+      <c r="B108" s="88"/>
+      <c r="C108" s="91"/>
+      <c r="D108" s="92"/>
       <c r="E108" s="48" t="s">
         <v>9</v>
       </c>
@@ -7337,14 +7337,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL108" s="92"/>
-      <c r="AM108" s="95"/>
+      <c r="AL108" s="94"/>
+      <c r="AM108" s="96"/>
       <c r="AN108" s="98"/>
     </row>
     <row r="109" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="102"/>
-      <c r="C109" s="103"/>
-      <c r="D109" s="104"/>
+      <c r="B109" s="87"/>
+      <c r="C109" s="89"/>
+      <c r="D109" s="90"/>
       <c r="E109" s="47" t="s">
         <v>8</v>
       </c>
@@ -7383,14 +7383,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL109" s="107"/>
-      <c r="AM109" s="108"/>
-      <c r="AN109" s="109"/>
+      <c r="AL109" s="93"/>
+      <c r="AM109" s="95"/>
+      <c r="AN109" s="97"/>
     </row>
     <row r="110" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="85"/>
-      <c r="C110" s="105"/>
-      <c r="D110" s="106"/>
+      <c r="B110" s="88"/>
+      <c r="C110" s="91"/>
+      <c r="D110" s="92"/>
       <c r="E110" s="48" t="s">
         <v>9</v>
       </c>
@@ -7429,14 +7429,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL110" s="92"/>
-      <c r="AM110" s="95"/>
+      <c r="AL110" s="94"/>
+      <c r="AM110" s="96"/>
       <c r="AN110" s="98"/>
     </row>
     <row r="111" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="102"/>
-      <c r="C111" s="103"/>
-      <c r="D111" s="104"/>
+      <c r="B111" s="87"/>
+      <c r="C111" s="89"/>
+      <c r="D111" s="90"/>
       <c r="E111" s="47" t="s">
         <v>8</v>
       </c>
@@ -7475,14 +7475,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL111" s="107"/>
-      <c r="AM111" s="108"/>
-      <c r="AN111" s="109"/>
+      <c r="AL111" s="93"/>
+      <c r="AM111" s="95"/>
+      <c r="AN111" s="97"/>
     </row>
     <row r="112" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="85"/>
-      <c r="C112" s="105"/>
-      <c r="D112" s="106"/>
+      <c r="B112" s="88"/>
+      <c r="C112" s="91"/>
+      <c r="D112" s="92"/>
       <c r="E112" s="48" t="s">
         <v>9</v>
       </c>
@@ -7521,14 +7521,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL112" s="92"/>
-      <c r="AM112" s="95"/>
+      <c r="AL112" s="94"/>
+      <c r="AM112" s="96"/>
       <c r="AN112" s="98"/>
     </row>
     <row r="113" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="102"/>
-      <c r="C113" s="103"/>
-      <c r="D113" s="104"/>
+      <c r="B113" s="87"/>
+      <c r="C113" s="89"/>
+      <c r="D113" s="90"/>
       <c r="E113" s="47" t="s">
         <v>8</v>
       </c>
@@ -7567,14 +7567,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL113" s="107"/>
-      <c r="AM113" s="108"/>
-      <c r="AN113" s="109"/>
+      <c r="AL113" s="93"/>
+      <c r="AM113" s="95"/>
+      <c r="AN113" s="97"/>
     </row>
     <row r="114" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="85"/>
-      <c r="C114" s="105"/>
-      <c r="D114" s="106"/>
+      <c r="B114" s="88"/>
+      <c r="C114" s="91"/>
+      <c r="D114" s="92"/>
       <c r="E114" s="48" t="s">
         <v>9</v>
       </c>
@@ -7613,14 +7613,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL114" s="92"/>
-      <c r="AM114" s="95"/>
+      <c r="AL114" s="94"/>
+      <c r="AM114" s="96"/>
       <c r="AN114" s="98"/>
     </row>
     <row r="115" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="102"/>
-      <c r="C115" s="103"/>
-      <c r="D115" s="104"/>
+      <c r="B115" s="87"/>
+      <c r="C115" s="89"/>
+      <c r="D115" s="90"/>
       <c r="E115" s="47" t="s">
         <v>8</v>
       </c>
@@ -7659,14 +7659,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL115" s="107"/>
-      <c r="AM115" s="108"/>
-      <c r="AN115" s="109"/>
+      <c r="AL115" s="93"/>
+      <c r="AM115" s="95"/>
+      <c r="AN115" s="97"/>
     </row>
     <row r="116" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="85"/>
-      <c r="C116" s="105"/>
-      <c r="D116" s="106"/>
+      <c r="B116" s="88"/>
+      <c r="C116" s="91"/>
+      <c r="D116" s="92"/>
       <c r="E116" s="48" t="s">
         <v>9</v>
       </c>
@@ -7705,14 +7705,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL116" s="92"/>
-      <c r="AM116" s="95"/>
+      <c r="AL116" s="94"/>
+      <c r="AM116" s="96"/>
       <c r="AN116" s="98"/>
     </row>
     <row r="117" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="102"/>
-      <c r="C117" s="103"/>
-      <c r="D117" s="104"/>
+      <c r="B117" s="87"/>
+      <c r="C117" s="89"/>
+      <c r="D117" s="90"/>
       <c r="E117" s="47" t="s">
         <v>8</v>
       </c>
@@ -7751,14 +7751,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL117" s="107"/>
-      <c r="AM117" s="108"/>
-      <c r="AN117" s="109"/>
+      <c r="AL117" s="93"/>
+      <c r="AM117" s="95"/>
+      <c r="AN117" s="97"/>
     </row>
     <row r="118" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="85"/>
-      <c r="C118" s="105"/>
-      <c r="D118" s="106"/>
+      <c r="B118" s="88"/>
+      <c r="C118" s="91"/>
+      <c r="D118" s="92"/>
       <c r="E118" s="48" t="s">
         <v>9</v>
       </c>
@@ -7797,14 +7797,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL118" s="92"/>
-      <c r="AM118" s="95"/>
+      <c r="AL118" s="94"/>
+      <c r="AM118" s="96"/>
       <c r="AN118" s="98"/>
     </row>
     <row r="119" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="102"/>
-      <c r="C119" s="103"/>
-      <c r="D119" s="104"/>
+      <c r="B119" s="87"/>
+      <c r="C119" s="89"/>
+      <c r="D119" s="90"/>
       <c r="E119" s="47" t="s">
         <v>8</v>
       </c>
@@ -7843,14 +7843,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL119" s="107"/>
-      <c r="AM119" s="108"/>
-      <c r="AN119" s="109"/>
+      <c r="AL119" s="93"/>
+      <c r="AM119" s="95"/>
+      <c r="AN119" s="97"/>
     </row>
     <row r="120" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="85"/>
-      <c r="C120" s="105"/>
-      <c r="D120" s="106"/>
+      <c r="B120" s="88"/>
+      <c r="C120" s="91"/>
+      <c r="D120" s="92"/>
       <c r="E120" s="48" t="s">
         <v>9</v>
       </c>
@@ -7889,14 +7889,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL120" s="92"/>
-      <c r="AM120" s="95"/>
+      <c r="AL120" s="94"/>
+      <c r="AM120" s="96"/>
       <c r="AN120" s="98"/>
     </row>
     <row r="121" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="102"/>
-      <c r="C121" s="103"/>
-      <c r="D121" s="104"/>
+      <c r="B121" s="87"/>
+      <c r="C121" s="89"/>
+      <c r="D121" s="90"/>
       <c r="E121" s="47" t="s">
         <v>8</v>
       </c>
@@ -7935,14 +7935,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL121" s="107"/>
-      <c r="AM121" s="108"/>
-      <c r="AN121" s="109"/>
+      <c r="AL121" s="93"/>
+      <c r="AM121" s="95"/>
+      <c r="AN121" s="97"/>
     </row>
     <row r="122" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="85"/>
-      <c r="C122" s="105"/>
-      <c r="D122" s="106"/>
+      <c r="B122" s="88"/>
+      <c r="C122" s="91"/>
+      <c r="D122" s="92"/>
       <c r="E122" s="48" t="s">
         <v>9</v>
       </c>
@@ -7981,14 +7981,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL122" s="92"/>
-      <c r="AM122" s="95"/>
+      <c r="AL122" s="94"/>
+      <c r="AM122" s="96"/>
       <c r="AN122" s="98"/>
     </row>
     <row r="123" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="102"/>
-      <c r="C123" s="103"/>
-      <c r="D123" s="104"/>
+      <c r="B123" s="87"/>
+      <c r="C123" s="89"/>
+      <c r="D123" s="90"/>
       <c r="E123" s="47" t="s">
         <v>8</v>
       </c>
@@ -8027,14 +8027,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL123" s="107"/>
-      <c r="AM123" s="108"/>
-      <c r="AN123" s="109"/>
+      <c r="AL123" s="93"/>
+      <c r="AM123" s="95"/>
+      <c r="AN123" s="97"/>
     </row>
     <row r="124" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="85"/>
-      <c r="C124" s="105"/>
-      <c r="D124" s="106"/>
+      <c r="B124" s="88"/>
+      <c r="C124" s="91"/>
+      <c r="D124" s="92"/>
       <c r="E124" s="48" t="s">
         <v>9</v>
       </c>
@@ -8073,14 +8073,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL124" s="92"/>
-      <c r="AM124" s="95"/>
+      <c r="AL124" s="94"/>
+      <c r="AM124" s="96"/>
       <c r="AN124" s="98"/>
     </row>
     <row r="125" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="102"/>
-      <c r="C125" s="103"/>
-      <c r="D125" s="104"/>
+      <c r="B125" s="87"/>
+      <c r="C125" s="89"/>
+      <c r="D125" s="90"/>
       <c r="E125" s="47" t="s">
         <v>8</v>
       </c>
@@ -8119,14 +8119,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL125" s="107"/>
-      <c r="AM125" s="108"/>
-      <c r="AN125" s="109"/>
+      <c r="AL125" s="93"/>
+      <c r="AM125" s="95"/>
+      <c r="AN125" s="97"/>
     </row>
     <row r="126" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="85"/>
-      <c r="C126" s="105"/>
-      <c r="D126" s="106"/>
+      <c r="B126" s="88"/>
+      <c r="C126" s="91"/>
+      <c r="D126" s="92"/>
       <c r="E126" s="48" t="s">
         <v>9</v>
       </c>
@@ -8165,14 +8165,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL126" s="92"/>
-      <c r="AM126" s="95"/>
+      <c r="AL126" s="94"/>
+      <c r="AM126" s="96"/>
       <c r="AN126" s="98"/>
     </row>
     <row r="127" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="102"/>
-      <c r="C127" s="103"/>
-      <c r="D127" s="104"/>
+      <c r="B127" s="87"/>
+      <c r="C127" s="89"/>
+      <c r="D127" s="90"/>
       <c r="E127" s="47" t="s">
         <v>8</v>
       </c>
@@ -8211,14 +8211,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL127" s="107"/>
-      <c r="AM127" s="108"/>
-      <c r="AN127" s="109"/>
+      <c r="AL127" s="93"/>
+      <c r="AM127" s="95"/>
+      <c r="AN127" s="97"/>
     </row>
     <row r="128" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="85"/>
-      <c r="C128" s="105"/>
-      <c r="D128" s="106"/>
+      <c r="B128" s="88"/>
+      <c r="C128" s="91"/>
+      <c r="D128" s="92"/>
       <c r="E128" s="48" t="s">
         <v>9</v>
       </c>
@@ -8257,14 +8257,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL128" s="92"/>
-      <c r="AM128" s="95"/>
+      <c r="AL128" s="94"/>
+      <c r="AM128" s="96"/>
       <c r="AN128" s="98"/>
     </row>
     <row r="129" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="102"/>
-      <c r="C129" s="103"/>
-      <c r="D129" s="104"/>
+      <c r="B129" s="87"/>
+      <c r="C129" s="89"/>
+      <c r="D129" s="90"/>
       <c r="E129" s="47" t="s">
         <v>8</v>
       </c>
@@ -8303,14 +8303,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL129" s="107"/>
-      <c r="AM129" s="108"/>
-      <c r="AN129" s="109"/>
+      <c r="AL129" s="93"/>
+      <c r="AM129" s="95"/>
+      <c r="AN129" s="97"/>
     </row>
     <row r="130" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="85"/>
-      <c r="C130" s="105"/>
-      <c r="D130" s="106"/>
+      <c r="B130" s="88"/>
+      <c r="C130" s="91"/>
+      <c r="D130" s="92"/>
       <c r="E130" s="48" t="s">
         <v>9</v>
       </c>
@@ -8349,14 +8349,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL130" s="92"/>
-      <c r="AM130" s="95"/>
+      <c r="AL130" s="94"/>
+      <c r="AM130" s="96"/>
       <c r="AN130" s="98"/>
     </row>
     <row r="131" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="102"/>
-      <c r="C131" s="103"/>
-      <c r="D131" s="104"/>
+      <c r="B131" s="87"/>
+      <c r="C131" s="89"/>
+      <c r="D131" s="90"/>
       <c r="E131" s="47" t="s">
         <v>8</v>
       </c>
@@ -8395,14 +8395,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL131" s="107"/>
-      <c r="AM131" s="108"/>
-      <c r="AN131" s="109"/>
+      <c r="AL131" s="93"/>
+      <c r="AM131" s="95"/>
+      <c r="AN131" s="97"/>
     </row>
     <row r="132" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="85"/>
-      <c r="C132" s="105"/>
-      <c r="D132" s="106"/>
+      <c r="B132" s="88"/>
+      <c r="C132" s="91"/>
+      <c r="D132" s="92"/>
       <c r="E132" s="48" t="s">
         <v>9</v>
       </c>
@@ -8441,14 +8441,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL132" s="92"/>
-      <c r="AM132" s="95"/>
+      <c r="AL132" s="94"/>
+      <c r="AM132" s="96"/>
       <c r="AN132" s="98"/>
     </row>
     <row r="133" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="102"/>
-      <c r="C133" s="103"/>
-      <c r="D133" s="104"/>
+      <c r="B133" s="87"/>
+      <c r="C133" s="89"/>
+      <c r="D133" s="90"/>
       <c r="E133" s="47" t="s">
         <v>8</v>
       </c>
@@ -8487,14 +8487,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL133" s="107"/>
-      <c r="AM133" s="108"/>
-      <c r="AN133" s="109"/>
+      <c r="AL133" s="93"/>
+      <c r="AM133" s="95"/>
+      <c r="AN133" s="97"/>
     </row>
     <row r="134" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="85"/>
-      <c r="C134" s="105"/>
-      <c r="D134" s="106"/>
+      <c r="B134" s="88"/>
+      <c r="C134" s="91"/>
+      <c r="D134" s="92"/>
       <c r="E134" s="48" t="s">
         <v>9</v>
       </c>
@@ -8533,14 +8533,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL134" s="92"/>
-      <c r="AM134" s="95"/>
+      <c r="AL134" s="94"/>
+      <c r="AM134" s="96"/>
       <c r="AN134" s="98"/>
     </row>
     <row r="135" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="102"/>
-      <c r="C135" s="103"/>
-      <c r="D135" s="104"/>
+      <c r="B135" s="87"/>
+      <c r="C135" s="89"/>
+      <c r="D135" s="90"/>
       <c r="E135" s="47" t="s">
         <v>8</v>
       </c>
@@ -8579,14 +8579,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL135" s="107"/>
-      <c r="AM135" s="108"/>
-      <c r="AN135" s="109"/>
+      <c r="AL135" s="93"/>
+      <c r="AM135" s="95"/>
+      <c r="AN135" s="97"/>
     </row>
     <row r="136" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="85"/>
-      <c r="C136" s="105"/>
-      <c r="D136" s="106"/>
+      <c r="B136" s="88"/>
+      <c r="C136" s="91"/>
+      <c r="D136" s="92"/>
       <c r="E136" s="48" t="s">
         <v>9</v>
       </c>
@@ -8625,14 +8625,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL136" s="92"/>
-      <c r="AM136" s="95"/>
+      <c r="AL136" s="94"/>
+      <c r="AM136" s="96"/>
       <c r="AN136" s="98"/>
     </row>
     <row r="137" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="102"/>
-      <c r="C137" s="103"/>
-      <c r="D137" s="104"/>
+      <c r="B137" s="87"/>
+      <c r="C137" s="89"/>
+      <c r="D137" s="90"/>
       <c r="E137" s="47" t="s">
         <v>8</v>
       </c>
@@ -8671,14 +8671,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL137" s="107"/>
-      <c r="AM137" s="108"/>
-      <c r="AN137" s="109"/>
+      <c r="AL137" s="93"/>
+      <c r="AM137" s="95"/>
+      <c r="AN137" s="97"/>
     </row>
     <row r="138" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="85"/>
-      <c r="C138" s="105"/>
-      <c r="D138" s="106"/>
+      <c r="B138" s="88"/>
+      <c r="C138" s="91"/>
+      <c r="D138" s="92"/>
       <c r="E138" s="48" t="s">
         <v>9</v>
       </c>
@@ -8717,14 +8717,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL138" s="92"/>
-      <c r="AM138" s="95"/>
+      <c r="AL138" s="94"/>
+      <c r="AM138" s="96"/>
       <c r="AN138" s="98"/>
     </row>
     <row r="139" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="83"/>
-      <c r="C139" s="113"/>
-      <c r="D139" s="114"/>
+      <c r="B139" s="99"/>
+      <c r="C139" s="101"/>
+      <c r="D139" s="102"/>
       <c r="E139" s="49" t="s">
         <v>8</v>
       </c>
@@ -8763,14 +8763,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL139" s="90"/>
-      <c r="AM139" s="93"/>
-      <c r="AN139" s="96"/>
+      <c r="AL139" s="103"/>
+      <c r="AM139" s="105"/>
+      <c r="AN139" s="107"/>
     </row>
     <row r="140" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="112"/>
-      <c r="C140" s="113"/>
-      <c r="D140" s="114"/>
+      <c r="B140" s="100"/>
+      <c r="C140" s="101"/>
+      <c r="D140" s="102"/>
       <c r="E140" s="50" t="s">
         <v>9</v>
       </c>
@@ -8809,14 +8809,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL140" s="115"/>
-      <c r="AM140" s="116"/>
-      <c r="AN140" s="117"/>
+      <c r="AL140" s="104"/>
+      <c r="AM140" s="106"/>
+      <c r="AN140" s="108"/>
     </row>
     <row r="141" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="102"/>
-      <c r="C141" s="103"/>
-      <c r="D141" s="104"/>
+      <c r="B141" s="87"/>
+      <c r="C141" s="89"/>
+      <c r="D141" s="90"/>
       <c r="E141" s="47" t="s">
         <v>8</v>
       </c>
@@ -8855,14 +8855,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL141" s="107"/>
-      <c r="AM141" s="108"/>
-      <c r="AN141" s="109"/>
+      <c r="AL141" s="93"/>
+      <c r="AM141" s="95"/>
+      <c r="AN141" s="97"/>
     </row>
     <row r="142" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="85"/>
-      <c r="C142" s="105"/>
-      <c r="D142" s="106"/>
+      <c r="B142" s="88"/>
+      <c r="C142" s="91"/>
+      <c r="D142" s="92"/>
       <c r="E142" s="48" t="s">
         <v>9</v>
       </c>
@@ -8901,14 +8901,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL142" s="92"/>
-      <c r="AM142" s="95"/>
+      <c r="AL142" s="94"/>
+      <c r="AM142" s="96"/>
       <c r="AN142" s="98"/>
     </row>
     <row r="143" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="102"/>
-      <c r="C143" s="103"/>
-      <c r="D143" s="104"/>
+      <c r="B143" s="87"/>
+      <c r="C143" s="89"/>
+      <c r="D143" s="90"/>
       <c r="E143" s="47" t="s">
         <v>8</v>
       </c>
@@ -8947,14 +8947,14 @@
         <f t="shared" ref="AK143:AK206" si="2">COUNTIFS(F143:AJ143,"x")</f>
         <v>0</v>
       </c>
-      <c r="AL143" s="107"/>
-      <c r="AM143" s="108"/>
-      <c r="AN143" s="109"/>
+      <c r="AL143" s="93"/>
+      <c r="AM143" s="95"/>
+      <c r="AN143" s="97"/>
     </row>
     <row r="144" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="85"/>
-      <c r="C144" s="105"/>
-      <c r="D144" s="106"/>
+      <c r="B144" s="88"/>
+      <c r="C144" s="91"/>
+      <c r="D144" s="92"/>
       <c r="E144" s="48" t="s">
         <v>9</v>
       </c>
@@ -8993,14 +8993,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL144" s="92"/>
-      <c r="AM144" s="95"/>
+      <c r="AL144" s="94"/>
+      <c r="AM144" s="96"/>
       <c r="AN144" s="98"/>
     </row>
     <row r="145" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="102"/>
-      <c r="C145" s="103"/>
-      <c r="D145" s="104"/>
+      <c r="B145" s="87"/>
+      <c r="C145" s="89"/>
+      <c r="D145" s="90"/>
       <c r="E145" s="47" t="s">
         <v>8</v>
       </c>
@@ -9039,14 +9039,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL145" s="107"/>
-      <c r="AM145" s="108"/>
-      <c r="AN145" s="109"/>
+      <c r="AL145" s="93"/>
+      <c r="AM145" s="95"/>
+      <c r="AN145" s="97"/>
     </row>
     <row r="146" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="85"/>
-      <c r="C146" s="105"/>
-      <c r="D146" s="106"/>
+      <c r="B146" s="88"/>
+      <c r="C146" s="91"/>
+      <c r="D146" s="92"/>
       <c r="E146" s="48" t="s">
         <v>9</v>
       </c>
@@ -9085,14 +9085,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL146" s="92"/>
-      <c r="AM146" s="95"/>
+      <c r="AL146" s="94"/>
+      <c r="AM146" s="96"/>
       <c r="AN146" s="98"/>
     </row>
     <row r="147" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="102"/>
-      <c r="C147" s="103"/>
-      <c r="D147" s="104"/>
+      <c r="B147" s="87"/>
+      <c r="C147" s="89"/>
+      <c r="D147" s="90"/>
       <c r="E147" s="47" t="s">
         <v>8</v>
       </c>
@@ -9131,14 +9131,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL147" s="107"/>
-      <c r="AM147" s="108"/>
-      <c r="AN147" s="109"/>
+      <c r="AL147" s="93"/>
+      <c r="AM147" s="95"/>
+      <c r="AN147" s="97"/>
     </row>
     <row r="148" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="85"/>
-      <c r="C148" s="105"/>
-      <c r="D148" s="106"/>
+      <c r="B148" s="88"/>
+      <c r="C148" s="91"/>
+      <c r="D148" s="92"/>
       <c r="E148" s="48" t="s">
         <v>9</v>
       </c>
@@ -9177,14 +9177,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL148" s="92"/>
-      <c r="AM148" s="95"/>
+      <c r="AL148" s="94"/>
+      <c r="AM148" s="96"/>
       <c r="AN148" s="98"/>
     </row>
     <row r="149" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="102"/>
-      <c r="C149" s="103"/>
-      <c r="D149" s="104"/>
+      <c r="B149" s="87"/>
+      <c r="C149" s="89"/>
+      <c r="D149" s="90"/>
       <c r="E149" s="47" t="s">
         <v>8</v>
       </c>
@@ -9223,14 +9223,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL149" s="107"/>
-      <c r="AM149" s="108"/>
-      <c r="AN149" s="109"/>
+      <c r="AL149" s="93"/>
+      <c r="AM149" s="95"/>
+      <c r="AN149" s="97"/>
     </row>
     <row r="150" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="85"/>
-      <c r="C150" s="105"/>
-      <c r="D150" s="106"/>
+      <c r="B150" s="88"/>
+      <c r="C150" s="91"/>
+      <c r="D150" s="92"/>
       <c r="E150" s="48" t="s">
         <v>9</v>
       </c>
@@ -9269,14 +9269,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL150" s="92"/>
-      <c r="AM150" s="95"/>
+      <c r="AL150" s="94"/>
+      <c r="AM150" s="96"/>
       <c r="AN150" s="98"/>
     </row>
     <row r="151" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="102"/>
-      <c r="C151" s="103"/>
-      <c r="D151" s="104"/>
+      <c r="B151" s="87"/>
+      <c r="C151" s="89"/>
+      <c r="D151" s="90"/>
       <c r="E151" s="47" t="s">
         <v>8</v>
       </c>
@@ -9315,14 +9315,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL151" s="107"/>
-      <c r="AM151" s="108"/>
-      <c r="AN151" s="109"/>
+      <c r="AL151" s="93"/>
+      <c r="AM151" s="95"/>
+      <c r="AN151" s="97"/>
     </row>
     <row r="152" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="85"/>
-      <c r="C152" s="105"/>
-      <c r="D152" s="106"/>
+      <c r="B152" s="88"/>
+      <c r="C152" s="91"/>
+      <c r="D152" s="92"/>
       <c r="E152" s="48" t="s">
         <v>9</v>
       </c>
@@ -9361,14 +9361,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL152" s="92"/>
-      <c r="AM152" s="95"/>
+      <c r="AL152" s="94"/>
+      <c r="AM152" s="96"/>
       <c r="AN152" s="98"/>
     </row>
     <row r="153" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="102"/>
-      <c r="C153" s="103"/>
-      <c r="D153" s="104"/>
+      <c r="B153" s="87"/>
+      <c r="C153" s="89"/>
+      <c r="D153" s="90"/>
       <c r="E153" s="47" t="s">
         <v>8</v>
       </c>
@@ -9407,14 +9407,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL153" s="107"/>
-      <c r="AM153" s="108"/>
-      <c r="AN153" s="109"/>
+      <c r="AL153" s="93"/>
+      <c r="AM153" s="95"/>
+      <c r="AN153" s="97"/>
     </row>
     <row r="154" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="85"/>
-      <c r="C154" s="105"/>
-      <c r="D154" s="106"/>
+      <c r="B154" s="88"/>
+      <c r="C154" s="91"/>
+      <c r="D154" s="92"/>
       <c r="E154" s="48" t="s">
         <v>9</v>
       </c>
@@ -9453,14 +9453,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL154" s="92"/>
-      <c r="AM154" s="95"/>
+      <c r="AL154" s="94"/>
+      <c r="AM154" s="96"/>
       <c r="AN154" s="98"/>
     </row>
     <row r="155" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="102"/>
-      <c r="C155" s="103"/>
-      <c r="D155" s="104"/>
+      <c r="B155" s="87"/>
+      <c r="C155" s="89"/>
+      <c r="D155" s="90"/>
       <c r="E155" s="47" t="s">
         <v>8</v>
       </c>
@@ -9499,14 +9499,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL155" s="107"/>
-      <c r="AM155" s="108"/>
-      <c r="AN155" s="109"/>
+      <c r="AL155" s="93"/>
+      <c r="AM155" s="95"/>
+      <c r="AN155" s="97"/>
     </row>
     <row r="156" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="85"/>
-      <c r="C156" s="105"/>
-      <c r="D156" s="106"/>
+      <c r="B156" s="88"/>
+      <c r="C156" s="91"/>
+      <c r="D156" s="92"/>
       <c r="E156" s="48" t="s">
         <v>9</v>
       </c>
@@ -9545,14 +9545,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL156" s="92"/>
-      <c r="AM156" s="95"/>
+      <c r="AL156" s="94"/>
+      <c r="AM156" s="96"/>
       <c r="AN156" s="98"/>
     </row>
     <row r="157" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="102"/>
-      <c r="C157" s="103"/>
-      <c r="D157" s="104"/>
+      <c r="B157" s="87"/>
+      <c r="C157" s="89"/>
+      <c r="D157" s="90"/>
       <c r="E157" s="47" t="s">
         <v>8</v>
       </c>
@@ -9591,14 +9591,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL157" s="107"/>
-      <c r="AM157" s="108"/>
-      <c r="AN157" s="109"/>
+      <c r="AL157" s="93"/>
+      <c r="AM157" s="95"/>
+      <c r="AN157" s="97"/>
     </row>
     <row r="158" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="85"/>
-      <c r="C158" s="105"/>
-      <c r="D158" s="106"/>
+      <c r="B158" s="88"/>
+      <c r="C158" s="91"/>
+      <c r="D158" s="92"/>
       <c r="E158" s="48" t="s">
         <v>9</v>
       </c>
@@ -9637,14 +9637,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL158" s="92"/>
-      <c r="AM158" s="95"/>
+      <c r="AL158" s="94"/>
+      <c r="AM158" s="96"/>
       <c r="AN158" s="98"/>
     </row>
     <row r="159" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="102"/>
-      <c r="C159" s="103"/>
-      <c r="D159" s="104"/>
+      <c r="B159" s="87"/>
+      <c r="C159" s="89"/>
+      <c r="D159" s="90"/>
       <c r="E159" s="47" t="s">
         <v>8</v>
       </c>
@@ -9683,14 +9683,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL159" s="107"/>
-      <c r="AM159" s="108"/>
-      <c r="AN159" s="109"/>
+      <c r="AL159" s="93"/>
+      <c r="AM159" s="95"/>
+      <c r="AN159" s="97"/>
     </row>
     <row r="160" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="85"/>
-      <c r="C160" s="105"/>
-      <c r="D160" s="106"/>
+      <c r="B160" s="88"/>
+      <c r="C160" s="91"/>
+      <c r="D160" s="92"/>
       <c r="E160" s="48" t="s">
         <v>9</v>
       </c>
@@ -9729,14 +9729,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL160" s="92"/>
-      <c r="AM160" s="95"/>
+      <c r="AL160" s="94"/>
+      <c r="AM160" s="96"/>
       <c r="AN160" s="98"/>
     </row>
     <row r="161" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="102"/>
-      <c r="C161" s="103"/>
-      <c r="D161" s="104"/>
+      <c r="B161" s="87"/>
+      <c r="C161" s="89"/>
+      <c r="D161" s="90"/>
       <c r="E161" s="47" t="s">
         <v>8</v>
       </c>
@@ -9775,14 +9775,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL161" s="107"/>
-      <c r="AM161" s="108"/>
-      <c r="AN161" s="109"/>
+      <c r="AL161" s="93"/>
+      <c r="AM161" s="95"/>
+      <c r="AN161" s="97"/>
     </row>
     <row r="162" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="85"/>
-      <c r="C162" s="105"/>
-      <c r="D162" s="106"/>
+      <c r="B162" s="88"/>
+      <c r="C162" s="91"/>
+      <c r="D162" s="92"/>
       <c r="E162" s="48" t="s">
         <v>9</v>
       </c>
@@ -9821,14 +9821,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL162" s="92"/>
-      <c r="AM162" s="95"/>
+      <c r="AL162" s="94"/>
+      <c r="AM162" s="96"/>
       <c r="AN162" s="98"/>
     </row>
     <row r="163" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="102"/>
-      <c r="C163" s="103"/>
-      <c r="D163" s="104"/>
+      <c r="B163" s="87"/>
+      <c r="C163" s="89"/>
+      <c r="D163" s="90"/>
       <c r="E163" s="47" t="s">
         <v>8</v>
       </c>
@@ -9867,14 +9867,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL163" s="107"/>
-      <c r="AM163" s="108"/>
-      <c r="AN163" s="109"/>
+      <c r="AL163" s="93"/>
+      <c r="AM163" s="95"/>
+      <c r="AN163" s="97"/>
     </row>
     <row r="164" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="85"/>
-      <c r="C164" s="105"/>
-      <c r="D164" s="106"/>
+      <c r="B164" s="88"/>
+      <c r="C164" s="91"/>
+      <c r="D164" s="92"/>
       <c r="E164" s="48" t="s">
         <v>9</v>
       </c>
@@ -9913,14 +9913,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL164" s="92"/>
-      <c r="AM164" s="95"/>
+      <c r="AL164" s="94"/>
+      <c r="AM164" s="96"/>
       <c r="AN164" s="98"/>
     </row>
     <row r="165" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="102"/>
-      <c r="C165" s="103"/>
-      <c r="D165" s="104"/>
+      <c r="B165" s="87"/>
+      <c r="C165" s="89"/>
+      <c r="D165" s="90"/>
       <c r="E165" s="47" t="s">
         <v>8</v>
       </c>
@@ -9959,14 +9959,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL165" s="107"/>
-      <c r="AM165" s="108"/>
-      <c r="AN165" s="109"/>
+      <c r="AL165" s="93"/>
+      <c r="AM165" s="95"/>
+      <c r="AN165" s="97"/>
     </row>
     <row r="166" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="85"/>
-      <c r="C166" s="105"/>
-      <c r="D166" s="106"/>
+      <c r="B166" s="88"/>
+      <c r="C166" s="91"/>
+      <c r="D166" s="92"/>
       <c r="E166" s="48" t="s">
         <v>9</v>
       </c>
@@ -10005,14 +10005,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL166" s="92"/>
-      <c r="AM166" s="95"/>
+      <c r="AL166" s="94"/>
+      <c r="AM166" s="96"/>
       <c r="AN166" s="98"/>
     </row>
     <row r="167" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="102"/>
-      <c r="C167" s="103"/>
-      <c r="D167" s="104"/>
+      <c r="B167" s="87"/>
+      <c r="C167" s="89"/>
+      <c r="D167" s="90"/>
       <c r="E167" s="47" t="s">
         <v>8</v>
       </c>
@@ -10051,14 +10051,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL167" s="107"/>
-      <c r="AM167" s="108"/>
-      <c r="AN167" s="109"/>
+      <c r="AL167" s="93"/>
+      <c r="AM167" s="95"/>
+      <c r="AN167" s="97"/>
     </row>
     <row r="168" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="85"/>
-      <c r="C168" s="105"/>
-      <c r="D168" s="106"/>
+      <c r="B168" s="88"/>
+      <c r="C168" s="91"/>
+      <c r="D168" s="92"/>
       <c r="E168" s="48" t="s">
         <v>9</v>
       </c>
@@ -10097,14 +10097,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL168" s="92"/>
-      <c r="AM168" s="95"/>
+      <c r="AL168" s="94"/>
+      <c r="AM168" s="96"/>
       <c r="AN168" s="98"/>
     </row>
     <row r="169" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="102"/>
-      <c r="C169" s="103"/>
-      <c r="D169" s="104"/>
+      <c r="B169" s="87"/>
+      <c r="C169" s="89"/>
+      <c r="D169" s="90"/>
       <c r="E169" s="47" t="s">
         <v>8</v>
       </c>
@@ -10143,14 +10143,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL169" s="107"/>
-      <c r="AM169" s="108"/>
-      <c r="AN169" s="109"/>
+      <c r="AL169" s="93"/>
+      <c r="AM169" s="95"/>
+      <c r="AN169" s="97"/>
     </row>
     <row r="170" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="85"/>
-      <c r="C170" s="105"/>
-      <c r="D170" s="106"/>
+      <c r="B170" s="88"/>
+      <c r="C170" s="91"/>
+      <c r="D170" s="92"/>
       <c r="E170" s="48" t="s">
         <v>9</v>
       </c>
@@ -10189,14 +10189,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL170" s="92"/>
-      <c r="AM170" s="95"/>
+      <c r="AL170" s="94"/>
+      <c r="AM170" s="96"/>
       <c r="AN170" s="98"/>
     </row>
     <row r="171" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="102"/>
-      <c r="C171" s="103"/>
-      <c r="D171" s="104"/>
+      <c r="B171" s="87"/>
+      <c r="C171" s="89"/>
+      <c r="D171" s="90"/>
       <c r="E171" s="47" t="s">
         <v>8</v>
       </c>
@@ -10235,14 +10235,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL171" s="107"/>
-      <c r="AM171" s="108"/>
-      <c r="AN171" s="109"/>
+      <c r="AL171" s="93"/>
+      <c r="AM171" s="95"/>
+      <c r="AN171" s="97"/>
     </row>
     <row r="172" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="85"/>
-      <c r="C172" s="105"/>
-      <c r="D172" s="106"/>
+      <c r="B172" s="88"/>
+      <c r="C172" s="91"/>
+      <c r="D172" s="92"/>
       <c r="E172" s="48" t="s">
         <v>9</v>
       </c>
@@ -10281,14 +10281,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL172" s="92"/>
-      <c r="AM172" s="95"/>
+      <c r="AL172" s="94"/>
+      <c r="AM172" s="96"/>
       <c r="AN172" s="98"/>
     </row>
     <row r="173" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="102"/>
-      <c r="C173" s="103"/>
-      <c r="D173" s="104"/>
+      <c r="B173" s="87"/>
+      <c r="C173" s="89"/>
+      <c r="D173" s="90"/>
       <c r="E173" s="47" t="s">
         <v>8</v>
       </c>
@@ -10327,14 +10327,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL173" s="107"/>
-      <c r="AM173" s="108"/>
-      <c r="AN173" s="109"/>
+      <c r="AL173" s="93"/>
+      <c r="AM173" s="95"/>
+      <c r="AN173" s="97"/>
     </row>
     <row r="174" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="85"/>
-      <c r="C174" s="105"/>
-      <c r="D174" s="106"/>
+      <c r="B174" s="88"/>
+      <c r="C174" s="91"/>
+      <c r="D174" s="92"/>
       <c r="E174" s="48" t="s">
         <v>9</v>
       </c>
@@ -10373,14 +10373,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL174" s="92"/>
-      <c r="AM174" s="95"/>
+      <c r="AL174" s="94"/>
+      <c r="AM174" s="96"/>
       <c r="AN174" s="98"/>
     </row>
     <row r="175" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="102"/>
-      <c r="C175" s="103"/>
-      <c r="D175" s="104"/>
+      <c r="B175" s="87"/>
+      <c r="C175" s="89"/>
+      <c r="D175" s="90"/>
       <c r="E175" s="47" t="s">
         <v>8</v>
       </c>
@@ -10419,14 +10419,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL175" s="107"/>
-      <c r="AM175" s="108"/>
-      <c r="AN175" s="109"/>
+      <c r="AL175" s="93"/>
+      <c r="AM175" s="95"/>
+      <c r="AN175" s="97"/>
     </row>
     <row r="176" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="85"/>
-      <c r="C176" s="105"/>
-      <c r="D176" s="106"/>
+      <c r="B176" s="88"/>
+      <c r="C176" s="91"/>
+      <c r="D176" s="92"/>
       <c r="E176" s="48" t="s">
         <v>9</v>
       </c>
@@ -10465,14 +10465,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL176" s="92"/>
-      <c r="AM176" s="95"/>
+      <c r="AL176" s="94"/>
+      <c r="AM176" s="96"/>
       <c r="AN176" s="98"/>
     </row>
     <row r="177" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="102"/>
-      <c r="C177" s="103"/>
-      <c r="D177" s="104"/>
+      <c r="B177" s="87"/>
+      <c r="C177" s="89"/>
+      <c r="D177" s="90"/>
       <c r="E177" s="47" t="s">
         <v>8</v>
       </c>
@@ -10511,14 +10511,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL177" s="107"/>
-      <c r="AM177" s="108"/>
-      <c r="AN177" s="109"/>
+      <c r="AL177" s="93"/>
+      <c r="AM177" s="95"/>
+      <c r="AN177" s="97"/>
     </row>
     <row r="178" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="85"/>
-      <c r="C178" s="105"/>
-      <c r="D178" s="106"/>
+      <c r="B178" s="88"/>
+      <c r="C178" s="91"/>
+      <c r="D178" s="92"/>
       <c r="E178" s="48" t="s">
         <v>9</v>
       </c>
@@ -10557,14 +10557,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL178" s="92"/>
-      <c r="AM178" s="95"/>
+      <c r="AL178" s="94"/>
+      <c r="AM178" s="96"/>
       <c r="AN178" s="98"/>
     </row>
     <row r="179" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="102"/>
-      <c r="C179" s="103"/>
-      <c r="D179" s="104"/>
+      <c r="B179" s="87"/>
+      <c r="C179" s="89"/>
+      <c r="D179" s="90"/>
       <c r="E179" s="47" t="s">
         <v>8</v>
       </c>
@@ -10603,14 +10603,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL179" s="107"/>
-      <c r="AM179" s="108"/>
-      <c r="AN179" s="109"/>
+      <c r="AL179" s="93"/>
+      <c r="AM179" s="95"/>
+      <c r="AN179" s="97"/>
     </row>
     <row r="180" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="85"/>
-      <c r="C180" s="105"/>
-      <c r="D180" s="106"/>
+      <c r="B180" s="88"/>
+      <c r="C180" s="91"/>
+      <c r="D180" s="92"/>
       <c r="E180" s="48" t="s">
         <v>9</v>
       </c>
@@ -10649,14 +10649,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL180" s="92"/>
-      <c r="AM180" s="95"/>
+      <c r="AL180" s="94"/>
+      <c r="AM180" s="96"/>
       <c r="AN180" s="98"/>
     </row>
     <row r="181" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="102"/>
-      <c r="C181" s="103"/>
-      <c r="D181" s="104"/>
+      <c r="B181" s="87"/>
+      <c r="C181" s="89"/>
+      <c r="D181" s="90"/>
       <c r="E181" s="47" t="s">
         <v>8</v>
       </c>
@@ -10695,14 +10695,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL181" s="107"/>
-      <c r="AM181" s="108"/>
-      <c r="AN181" s="109"/>
+      <c r="AL181" s="93"/>
+      <c r="AM181" s="95"/>
+      <c r="AN181" s="97"/>
     </row>
     <row r="182" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="85"/>
-      <c r="C182" s="105"/>
-      <c r="D182" s="106"/>
+      <c r="B182" s="88"/>
+      <c r="C182" s="91"/>
+      <c r="D182" s="92"/>
       <c r="E182" s="48" t="s">
         <v>9</v>
       </c>
@@ -10741,14 +10741,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL182" s="92"/>
-      <c r="AM182" s="95"/>
+      <c r="AL182" s="94"/>
+      <c r="AM182" s="96"/>
       <c r="AN182" s="98"/>
     </row>
     <row r="183" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="102"/>
-      <c r="C183" s="103"/>
-      <c r="D183" s="104"/>
+      <c r="B183" s="87"/>
+      <c r="C183" s="89"/>
+      <c r="D183" s="90"/>
       <c r="E183" s="47" t="s">
         <v>8</v>
       </c>
@@ -10787,14 +10787,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL183" s="107"/>
-      <c r="AM183" s="108"/>
-      <c r="AN183" s="109"/>
+      <c r="AL183" s="93"/>
+      <c r="AM183" s="95"/>
+      <c r="AN183" s="97"/>
     </row>
     <row r="184" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="85"/>
-      <c r="C184" s="105"/>
-      <c r="D184" s="106"/>
+      <c r="B184" s="88"/>
+      <c r="C184" s="91"/>
+      <c r="D184" s="92"/>
       <c r="E184" s="48" t="s">
         <v>9</v>
       </c>
@@ -10833,14 +10833,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL184" s="92"/>
-      <c r="AM184" s="95"/>
+      <c r="AL184" s="94"/>
+      <c r="AM184" s="96"/>
       <c r="AN184" s="98"/>
     </row>
     <row r="185" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="102"/>
-      <c r="C185" s="103"/>
-      <c r="D185" s="104"/>
+      <c r="B185" s="87"/>
+      <c r="C185" s="89"/>
+      <c r="D185" s="90"/>
       <c r="E185" s="47" t="s">
         <v>8</v>
       </c>
@@ -10879,14 +10879,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL185" s="107"/>
-      <c r="AM185" s="108"/>
-      <c r="AN185" s="109"/>
+      <c r="AL185" s="93"/>
+      <c r="AM185" s="95"/>
+      <c r="AN185" s="97"/>
     </row>
     <row r="186" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="85"/>
-      <c r="C186" s="105"/>
-      <c r="D186" s="106"/>
+      <c r="B186" s="88"/>
+      <c r="C186" s="91"/>
+      <c r="D186" s="92"/>
       <c r="E186" s="48" t="s">
         <v>9</v>
       </c>
@@ -10925,14 +10925,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL186" s="92"/>
-      <c r="AM186" s="95"/>
+      <c r="AL186" s="94"/>
+      <c r="AM186" s="96"/>
       <c r="AN186" s="98"/>
     </row>
     <row r="187" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="102"/>
-      <c r="C187" s="103"/>
-      <c r="D187" s="104"/>
+      <c r="B187" s="87"/>
+      <c r="C187" s="89"/>
+      <c r="D187" s="90"/>
       <c r="E187" s="47" t="s">
         <v>8</v>
       </c>
@@ -10971,14 +10971,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL187" s="107"/>
-      <c r="AM187" s="108"/>
-      <c r="AN187" s="109"/>
+      <c r="AL187" s="93"/>
+      <c r="AM187" s="95"/>
+      <c r="AN187" s="97"/>
     </row>
     <row r="188" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="85"/>
-      <c r="C188" s="105"/>
-      <c r="D188" s="106"/>
+      <c r="B188" s="88"/>
+      <c r="C188" s="91"/>
+      <c r="D188" s="92"/>
       <c r="E188" s="48" t="s">
         <v>9</v>
       </c>
@@ -11017,14 +11017,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL188" s="92"/>
-      <c r="AM188" s="95"/>
+      <c r="AL188" s="94"/>
+      <c r="AM188" s="96"/>
       <c r="AN188" s="98"/>
     </row>
     <row r="189" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="102"/>
-      <c r="C189" s="103"/>
-      <c r="D189" s="104"/>
+      <c r="B189" s="87"/>
+      <c r="C189" s="89"/>
+      <c r="D189" s="90"/>
       <c r="E189" s="47" t="s">
         <v>8</v>
       </c>
@@ -11063,14 +11063,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL189" s="107"/>
-      <c r="AM189" s="108"/>
-      <c r="AN189" s="109"/>
+      <c r="AL189" s="93"/>
+      <c r="AM189" s="95"/>
+      <c r="AN189" s="97"/>
     </row>
     <row r="190" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="85"/>
-      <c r="C190" s="105"/>
-      <c r="D190" s="106"/>
+      <c r="B190" s="88"/>
+      <c r="C190" s="91"/>
+      <c r="D190" s="92"/>
       <c r="E190" s="48" t="s">
         <v>9</v>
       </c>
@@ -11109,14 +11109,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL190" s="92"/>
-      <c r="AM190" s="95"/>
+      <c r="AL190" s="94"/>
+      <c r="AM190" s="96"/>
       <c r="AN190" s="98"/>
     </row>
     <row r="191" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="102"/>
-      <c r="C191" s="103"/>
-      <c r="D191" s="104"/>
+      <c r="B191" s="87"/>
+      <c r="C191" s="89"/>
+      <c r="D191" s="90"/>
       <c r="E191" s="47" t="s">
         <v>8</v>
       </c>
@@ -11155,14 +11155,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL191" s="107"/>
-      <c r="AM191" s="108"/>
-      <c r="AN191" s="109"/>
+      <c r="AL191" s="93"/>
+      <c r="AM191" s="95"/>
+      <c r="AN191" s="97"/>
     </row>
     <row r="192" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="85"/>
-      <c r="C192" s="105"/>
-      <c r="D192" s="106"/>
+      <c r="B192" s="88"/>
+      <c r="C192" s="91"/>
+      <c r="D192" s="92"/>
       <c r="E192" s="48" t="s">
         <v>9</v>
       </c>
@@ -11201,14 +11201,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL192" s="92"/>
-      <c r="AM192" s="95"/>
+      <c r="AL192" s="94"/>
+      <c r="AM192" s="96"/>
       <c r="AN192" s="98"/>
     </row>
     <row r="193" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="102"/>
-      <c r="C193" s="103"/>
-      <c r="D193" s="104"/>
+      <c r="B193" s="87"/>
+      <c r="C193" s="89"/>
+      <c r="D193" s="90"/>
       <c r="E193" s="47" t="s">
         <v>8</v>
       </c>
@@ -11247,14 +11247,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL193" s="107"/>
-      <c r="AM193" s="108"/>
-      <c r="AN193" s="109"/>
+      <c r="AL193" s="93"/>
+      <c r="AM193" s="95"/>
+      <c r="AN193" s="97"/>
     </row>
     <row r="194" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="85"/>
-      <c r="C194" s="105"/>
-      <c r="D194" s="106"/>
+      <c r="B194" s="88"/>
+      <c r="C194" s="91"/>
+      <c r="D194" s="92"/>
       <c r="E194" s="48" t="s">
         <v>9</v>
       </c>
@@ -11293,14 +11293,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL194" s="92"/>
-      <c r="AM194" s="95"/>
+      <c r="AL194" s="94"/>
+      <c r="AM194" s="96"/>
       <c r="AN194" s="98"/>
     </row>
     <row r="195" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="102"/>
-      <c r="C195" s="103"/>
-      <c r="D195" s="104"/>
+      <c r="B195" s="87"/>
+      <c r="C195" s="89"/>
+      <c r="D195" s="90"/>
       <c r="E195" s="47" t="s">
         <v>8</v>
       </c>
@@ -11339,14 +11339,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL195" s="107"/>
-      <c r="AM195" s="108"/>
-      <c r="AN195" s="109"/>
+      <c r="AL195" s="93"/>
+      <c r="AM195" s="95"/>
+      <c r="AN195" s="97"/>
     </row>
     <row r="196" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="85"/>
-      <c r="C196" s="105"/>
-      <c r="D196" s="106"/>
+      <c r="B196" s="88"/>
+      <c r="C196" s="91"/>
+      <c r="D196" s="92"/>
       <c r="E196" s="48" t="s">
         <v>9</v>
       </c>
@@ -11385,14 +11385,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL196" s="92"/>
-      <c r="AM196" s="95"/>
+      <c r="AL196" s="94"/>
+      <c r="AM196" s="96"/>
       <c r="AN196" s="98"/>
     </row>
     <row r="197" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="102"/>
-      <c r="C197" s="103"/>
-      <c r="D197" s="104"/>
+      <c r="B197" s="87"/>
+      <c r="C197" s="89"/>
+      <c r="D197" s="90"/>
       <c r="E197" s="47" t="s">
         <v>8</v>
       </c>
@@ -11431,14 +11431,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL197" s="107"/>
-      <c r="AM197" s="108"/>
-      <c r="AN197" s="109"/>
+      <c r="AL197" s="93"/>
+      <c r="AM197" s="95"/>
+      <c r="AN197" s="97"/>
     </row>
     <row r="198" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="85"/>
-      <c r="C198" s="105"/>
-      <c r="D198" s="106"/>
+      <c r="B198" s="88"/>
+      <c r="C198" s="91"/>
+      <c r="D198" s="92"/>
       <c r="E198" s="48" t="s">
         <v>9</v>
       </c>
@@ -11477,14 +11477,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL198" s="92"/>
-      <c r="AM198" s="95"/>
+      <c r="AL198" s="94"/>
+      <c r="AM198" s="96"/>
       <c r="AN198" s="98"/>
     </row>
     <row r="199" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="102"/>
-      <c r="C199" s="103"/>
-      <c r="D199" s="104"/>
+      <c r="B199" s="87"/>
+      <c r="C199" s="89"/>
+      <c r="D199" s="90"/>
       <c r="E199" s="47" t="s">
         <v>8</v>
       </c>
@@ -11523,14 +11523,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL199" s="107"/>
-      <c r="AM199" s="108"/>
-      <c r="AN199" s="109"/>
+      <c r="AL199" s="93"/>
+      <c r="AM199" s="95"/>
+      <c r="AN199" s="97"/>
     </row>
     <row r="200" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="85"/>
-      <c r="C200" s="105"/>
-      <c r="D200" s="106"/>
+      <c r="B200" s="88"/>
+      <c r="C200" s="91"/>
+      <c r="D200" s="92"/>
       <c r="E200" s="48" t="s">
         <v>9</v>
       </c>
@@ -11569,14 +11569,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL200" s="92"/>
-      <c r="AM200" s="95"/>
+      <c r="AL200" s="94"/>
+      <c r="AM200" s="96"/>
       <c r="AN200" s="98"/>
     </row>
     <row r="201" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="83"/>
-      <c r="C201" s="113"/>
-      <c r="D201" s="114"/>
+      <c r="B201" s="99"/>
+      <c r="C201" s="101"/>
+      <c r="D201" s="102"/>
       <c r="E201" s="49" t="s">
         <v>8</v>
       </c>
@@ -11615,14 +11615,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL201" s="90"/>
-      <c r="AM201" s="93"/>
-      <c r="AN201" s="96"/>
+      <c r="AL201" s="103"/>
+      <c r="AM201" s="105"/>
+      <c r="AN201" s="107"/>
     </row>
     <row r="202" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="112"/>
-      <c r="C202" s="113"/>
-      <c r="D202" s="114"/>
+      <c r="B202" s="100"/>
+      <c r="C202" s="101"/>
+      <c r="D202" s="102"/>
       <c r="E202" s="50" t="s">
         <v>9</v>
       </c>
@@ -11661,14 +11661,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL202" s="115"/>
-      <c r="AM202" s="116"/>
-      <c r="AN202" s="117"/>
+      <c r="AL202" s="104"/>
+      <c r="AM202" s="106"/>
+      <c r="AN202" s="108"/>
     </row>
     <row r="203" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="102"/>
-      <c r="C203" s="103"/>
-      <c r="D203" s="104"/>
+      <c r="B203" s="87"/>
+      <c r="C203" s="89"/>
+      <c r="D203" s="90"/>
       <c r="E203" s="47" t="s">
         <v>8</v>
       </c>
@@ -11707,14 +11707,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL203" s="107"/>
-      <c r="AM203" s="108"/>
-      <c r="AN203" s="109"/>
+      <c r="AL203" s="93"/>
+      <c r="AM203" s="95"/>
+      <c r="AN203" s="97"/>
     </row>
     <row r="204" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="85"/>
-      <c r="C204" s="105"/>
-      <c r="D204" s="106"/>
+      <c r="B204" s="88"/>
+      <c r="C204" s="91"/>
+      <c r="D204" s="92"/>
       <c r="E204" s="48" t="s">
         <v>9</v>
       </c>
@@ -11753,14 +11753,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL204" s="92"/>
-      <c r="AM204" s="95"/>
+      <c r="AL204" s="94"/>
+      <c r="AM204" s="96"/>
       <c r="AN204" s="98"/>
     </row>
     <row r="205" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="102"/>
-      <c r="C205" s="103"/>
-      <c r="D205" s="104"/>
+      <c r="B205" s="87"/>
+      <c r="C205" s="89"/>
+      <c r="D205" s="90"/>
       <c r="E205" s="47" t="s">
         <v>8</v>
       </c>
@@ -11799,14 +11799,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL205" s="107"/>
-      <c r="AM205" s="108"/>
-      <c r="AN205" s="109"/>
+      <c r="AL205" s="93"/>
+      <c r="AM205" s="95"/>
+      <c r="AN205" s="97"/>
     </row>
     <row r="206" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="85"/>
-      <c r="C206" s="105"/>
-      <c r="D206" s="106"/>
+      <c r="B206" s="88"/>
+      <c r="C206" s="91"/>
+      <c r="D206" s="92"/>
       <c r="E206" s="48" t="s">
         <v>9</v>
       </c>
@@ -11845,14 +11845,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL206" s="92"/>
-      <c r="AM206" s="95"/>
+      <c r="AL206" s="94"/>
+      <c r="AM206" s="96"/>
       <c r="AN206" s="98"/>
     </row>
     <row r="207" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B207" s="102"/>
-      <c r="C207" s="103"/>
-      <c r="D207" s="104"/>
+      <c r="B207" s="87"/>
+      <c r="C207" s="89"/>
+      <c r="D207" s="90"/>
       <c r="E207" s="47" t="s">
         <v>8</v>
       </c>
@@ -11891,14 +11891,14 @@
         <f>COUNTIFS(F207:AJ207,"x")</f>
         <v>0</v>
       </c>
-      <c r="AL207" s="107"/>
-      <c r="AM207" s="108"/>
-      <c r="AN207" s="109"/>
+      <c r="AL207" s="93"/>
+      <c r="AM207" s="95"/>
+      <c r="AN207" s="97"/>
     </row>
     <row r="208" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="85"/>
-      <c r="C208" s="105"/>
-      <c r="D208" s="106"/>
+      <c r="B208" s="88"/>
+      <c r="C208" s="91"/>
+      <c r="D208" s="92"/>
       <c r="E208" s="48" t="s">
         <v>9</v>
       </c>
@@ -11937,14 +11937,14 @@
         <f>COUNTIFS(F208:AJ208,"x")</f>
         <v>0</v>
       </c>
-      <c r="AL208" s="92"/>
-      <c r="AM208" s="95"/>
+      <c r="AL208" s="94"/>
+      <c r="AM208" s="96"/>
       <c r="AN208" s="98"/>
     </row>
     <row r="209" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="102"/>
-      <c r="C209" s="103"/>
-      <c r="D209" s="104"/>
+      <c r="B209" s="87"/>
+      <c r="C209" s="89"/>
+      <c r="D209" s="90"/>
       <c r="E209" s="47" t="s">
         <v>8</v>
       </c>
@@ -11983,14 +11983,14 @@
         <f>COUNTIFS(F209:AJ209,"x")</f>
         <v>0</v>
       </c>
-      <c r="AL209" s="107"/>
-      <c r="AM209" s="108"/>
-      <c r="AN209" s="109"/>
+      <c r="AL209" s="93"/>
+      <c r="AM209" s="95"/>
+      <c r="AN209" s="97"/>
     </row>
     <row r="210" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="85"/>
-      <c r="C210" s="105"/>
-      <c r="D210" s="106"/>
+      <c r="B210" s="88"/>
+      <c r="C210" s="91"/>
+      <c r="D210" s="92"/>
       <c r="E210" s="48" t="s">
         <v>9</v>
       </c>
@@ -12029,14 +12029,14 @@
         <f>COUNTIFS(F210:AJ210,"x")</f>
         <v>0</v>
       </c>
-      <c r="AL210" s="92"/>
-      <c r="AM210" s="95"/>
+      <c r="AL210" s="94"/>
+      <c r="AM210" s="96"/>
       <c r="AN210" s="98"/>
     </row>
     <row r="211" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="102"/>
-      <c r="C211" s="103"/>
-      <c r="D211" s="104"/>
+      <c r="B211" s="87"/>
+      <c r="C211" s="89"/>
+      <c r="D211" s="90"/>
       <c r="E211" s="47" t="s">
         <v>8</v>
       </c>
@@ -12075,14 +12075,14 @@
         <f t="shared" ref="AK211:AK222" si="3">COUNTIFS(F211:AJ211,"x")</f>
         <v>0</v>
       </c>
-      <c r="AL211" s="107"/>
-      <c r="AM211" s="108"/>
-      <c r="AN211" s="109"/>
+      <c r="AL211" s="93"/>
+      <c r="AM211" s="95"/>
+      <c r="AN211" s="97"/>
     </row>
     <row r="212" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="85"/>
-      <c r="C212" s="105"/>
-      <c r="D212" s="106"/>
+      <c r="B212" s="88"/>
+      <c r="C212" s="91"/>
+      <c r="D212" s="92"/>
       <c r="E212" s="48" t="s">
         <v>9</v>
       </c>
@@ -12121,14 +12121,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL212" s="92"/>
-      <c r="AM212" s="95"/>
+      <c r="AL212" s="94"/>
+      <c r="AM212" s="96"/>
       <c r="AN212" s="98"/>
     </row>
     <row r="213" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="102"/>
-      <c r="C213" s="103"/>
-      <c r="D213" s="104"/>
+      <c r="B213" s="87"/>
+      <c r="C213" s="89"/>
+      <c r="D213" s="90"/>
       <c r="E213" s="47" t="s">
         <v>8</v>
       </c>
@@ -12167,14 +12167,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL213" s="107"/>
-      <c r="AM213" s="108"/>
-      <c r="AN213" s="109"/>
+      <c r="AL213" s="93"/>
+      <c r="AM213" s="95"/>
+      <c r="AN213" s="97"/>
     </row>
     <row r="214" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="85"/>
-      <c r="C214" s="105"/>
-      <c r="D214" s="106"/>
+      <c r="B214" s="88"/>
+      <c r="C214" s="91"/>
+      <c r="D214" s="92"/>
       <c r="E214" s="48" t="s">
         <v>9</v>
       </c>
@@ -12213,14 +12213,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL214" s="92"/>
-      <c r="AM214" s="95"/>
+      <c r="AL214" s="94"/>
+      <c r="AM214" s="96"/>
       <c r="AN214" s="98"/>
     </row>
     <row r="215" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="102"/>
-      <c r="C215" s="110"/>
-      <c r="D215" s="111"/>
+      <c r="B215" s="87"/>
+      <c r="C215" s="127"/>
+      <c r="D215" s="128"/>
       <c r="E215" s="47" t="s">
         <v>8</v>
       </c>
@@ -12259,14 +12259,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL215" s="107"/>
-      <c r="AM215" s="108"/>
-      <c r="AN215" s="109"/>
+      <c r="AL215" s="93"/>
+      <c r="AM215" s="95"/>
+      <c r="AN215" s="97"/>
     </row>
     <row r="216" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="84"/>
-      <c r="C216" s="86"/>
-      <c r="D216" s="87"/>
+      <c r="B216" s="116"/>
+      <c r="C216" s="117"/>
+      <c r="D216" s="118"/>
       <c r="E216" s="51" t="s">
         <v>8</v>
       </c>
@@ -12305,14 +12305,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL216" s="91"/>
-      <c r="AM216" s="94"/>
-      <c r="AN216" s="97"/>
+      <c r="AL216" s="121"/>
+      <c r="AM216" s="122"/>
+      <c r="AN216" s="123"/>
     </row>
     <row r="217" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="84"/>
-      <c r="C217" s="86"/>
-      <c r="D217" s="87"/>
+      <c r="B217" s="116"/>
+      <c r="C217" s="117"/>
+      <c r="D217" s="118"/>
       <c r="E217" s="51" t="s">
         <v>8</v>
       </c>
@@ -12351,14 +12351,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL217" s="91"/>
-      <c r="AM217" s="94"/>
-      <c r="AN217" s="97"/>
+      <c r="AL217" s="121"/>
+      <c r="AM217" s="122"/>
+      <c r="AN217" s="123"/>
     </row>
     <row r="218" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="85"/>
-      <c r="C218" s="88"/>
-      <c r="D218" s="89"/>
+      <c r="B218" s="88"/>
+      <c r="C218" s="119"/>
+      <c r="D218" s="120"/>
       <c r="E218" s="48" t="s">
         <v>8</v>
       </c>
@@ -12397,14 +12397,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL218" s="92"/>
-      <c r="AM218" s="95"/>
+      <c r="AL218" s="94"/>
+      <c r="AM218" s="96"/>
       <c r="AN218" s="98"/>
     </row>
     <row r="219" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B219" s="83"/>
-      <c r="C219" s="86"/>
-      <c r="D219" s="87"/>
+      <c r="B219" s="99"/>
+      <c r="C219" s="117"/>
+      <c r="D219" s="118"/>
       <c r="E219" s="49" t="s">
         <v>9</v>
       </c>
@@ -12443,14 +12443,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL219" s="90"/>
-      <c r="AM219" s="93"/>
-      <c r="AN219" s="96"/>
+      <c r="AL219" s="103"/>
+      <c r="AM219" s="105"/>
+      <c r="AN219" s="107"/>
     </row>
     <row r="220" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="84"/>
-      <c r="C220" s="86"/>
-      <c r="D220" s="87"/>
+      <c r="B220" s="116"/>
+      <c r="C220" s="117"/>
+      <c r="D220" s="118"/>
       <c r="E220" s="51" t="s">
         <v>9</v>
       </c>
@@ -12489,14 +12489,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL220" s="91"/>
-      <c r="AM220" s="94"/>
-      <c r="AN220" s="97"/>
+      <c r="AL220" s="121"/>
+      <c r="AM220" s="122"/>
+      <c r="AN220" s="123"/>
     </row>
     <row r="221" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="84"/>
-      <c r="C221" s="86"/>
-      <c r="D221" s="87"/>
+      <c r="B221" s="116"/>
+      <c r="C221" s="117"/>
+      <c r="D221" s="118"/>
       <c r="E221" s="51" t="s">
         <v>9</v>
       </c>
@@ -12535,14 +12535,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL221" s="91"/>
-      <c r="AM221" s="94"/>
-      <c r="AN221" s="97"/>
+      <c r="AL221" s="121"/>
+      <c r="AM221" s="122"/>
+      <c r="AN221" s="123"/>
     </row>
     <row r="222" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="85"/>
-      <c r="C222" s="88"/>
-      <c r="D222" s="89"/>
+      <c r="B222" s="88"/>
+      <c r="C222" s="119"/>
+      <c r="D222" s="120"/>
       <c r="E222" s="48" t="s">
         <v>9</v>
       </c>
@@ -12581,8 +12581,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL222" s="92"/>
-      <c r="AM222" s="95"/>
+      <c r="AL222" s="94"/>
+      <c r="AM222" s="96"/>
       <c r="AN222" s="98"/>
     </row>
     <row r="223" spans="2:40" ht="17.25" x14ac:dyDescent="0.35">
@@ -12790,14 +12790,14 @@
       <c r="AB225" s="18"/>
       <c r="AC225" s="18"/>
       <c r="AD225" s="18"/>
-      <c r="AE225" s="99" t="s">
+      <c r="AE225" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="AF225" s="100"/>
-      <c r="AG225" s="100"/>
-      <c r="AH225" s="100"/>
-      <c r="AI225" s="100"/>
-      <c r="AJ225" s="101"/>
+      <c r="AF225" s="125"/>
+      <c r="AG225" s="125"/>
+      <c r="AH225" s="125"/>
+      <c r="AI225" s="125"/>
+      <c r="AJ225" s="126"/>
       <c r="AK225" s="20">
         <f>SUM(AK11:AK212)</f>
         <v>0</v>
@@ -12886,14 +12886,14 @@
       <c r="AB227" s="17"/>
       <c r="AC227" s="17"/>
       <c r="AD227" s="17"/>
-      <c r="AE227" s="76" t="s">
+      <c r="AE227" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="AF227" s="77"/>
-      <c r="AG227" s="77"/>
-      <c r="AH227" s="77"/>
-      <c r="AI227" s="77"/>
-      <c r="AJ227" s="78"/>
+      <c r="AF227" s="110"/>
+      <c r="AG227" s="110"/>
+      <c r="AH227" s="110"/>
+      <c r="AI227" s="110"/>
+      <c r="AJ227" s="111"/>
       <c r="AK227" s="20">
         <f>SUM(AK215:AK222)</f>
         <v>0</v>
@@ -12917,14 +12917,14 @@
       <c r="AN228" s="24"/>
     </row>
     <row r="229" spans="2:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE229" s="79" t="s">
+      <c r="AE229" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="AF229" s="80"/>
-      <c r="AG229" s="80"/>
-      <c r="AH229" s="80"/>
-      <c r="AI229" s="80"/>
-      <c r="AJ229" s="81"/>
+      <c r="AF229" s="113"/>
+      <c r="AG229" s="113"/>
+      <c r="AH229" s="113"/>
+      <c r="AI229" s="113"/>
+      <c r="AJ229" s="114"/>
       <c r="AK229" s="20">
         <f>SUM(AK225,AK227)</f>
         <v>0</v>
@@ -12959,510 +12959,6 @@
     </row>
   </sheetData>
   <mergeCells count="528">
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="AK9:AN9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="AL11:AL12"/>
-    <mergeCell ref="AM11:AM12"/>
-    <mergeCell ref="AN11:AN12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="AL13:AL14"/>
-    <mergeCell ref="AM13:AM14"/>
-    <mergeCell ref="AN13:AN14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="AL15:AL16"/>
-    <mergeCell ref="AM15:AM16"/>
-    <mergeCell ref="AN15:AN16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="AL17:AL18"/>
-    <mergeCell ref="AM17:AM18"/>
-    <mergeCell ref="AN17:AN18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="AL19:AL20"/>
-    <mergeCell ref="AM19:AM20"/>
-    <mergeCell ref="AN19:AN20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="AL21:AL22"/>
-    <mergeCell ref="AM21:AM22"/>
-    <mergeCell ref="AN21:AN22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="AL23:AL24"/>
-    <mergeCell ref="AM23:AM24"/>
-    <mergeCell ref="AN23:AN24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="AL25:AL26"/>
-    <mergeCell ref="AM25:AM26"/>
-    <mergeCell ref="AN25:AN26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="AL27:AL28"/>
-    <mergeCell ref="AM27:AM28"/>
-    <mergeCell ref="AN27:AN28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="AL29:AL30"/>
-    <mergeCell ref="AM29:AM30"/>
-    <mergeCell ref="AN29:AN30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="AL31:AL32"/>
-    <mergeCell ref="AM31:AM32"/>
-    <mergeCell ref="AN31:AN32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="AL33:AL34"/>
-    <mergeCell ref="AM33:AM34"/>
-    <mergeCell ref="AN33:AN34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="AL35:AL36"/>
-    <mergeCell ref="AM35:AM36"/>
-    <mergeCell ref="AN35:AN36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="AL37:AL38"/>
-    <mergeCell ref="AM37:AM38"/>
-    <mergeCell ref="AN37:AN38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="AL39:AL40"/>
-    <mergeCell ref="AM39:AM40"/>
-    <mergeCell ref="AN39:AN40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="AL41:AL42"/>
-    <mergeCell ref="AM41:AM42"/>
-    <mergeCell ref="AN41:AN42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="AL43:AL44"/>
-    <mergeCell ref="AM43:AM44"/>
-    <mergeCell ref="AN43:AN44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="AL45:AL46"/>
-    <mergeCell ref="AM45:AM46"/>
-    <mergeCell ref="AN45:AN46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="AL47:AL48"/>
-    <mergeCell ref="AM47:AM48"/>
-    <mergeCell ref="AN47:AN48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="AL49:AL50"/>
-    <mergeCell ref="AM49:AM50"/>
-    <mergeCell ref="AN49:AN50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="AL51:AL52"/>
-    <mergeCell ref="AM51:AM52"/>
-    <mergeCell ref="AN51:AN52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="AL53:AL54"/>
-    <mergeCell ref="AM53:AM54"/>
-    <mergeCell ref="AN53:AN54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="AL55:AL56"/>
-    <mergeCell ref="AM55:AM56"/>
-    <mergeCell ref="AN55:AN56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="AL57:AL58"/>
-    <mergeCell ref="AM57:AM58"/>
-    <mergeCell ref="AN57:AN58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="AL59:AL60"/>
-    <mergeCell ref="AM59:AM60"/>
-    <mergeCell ref="AN59:AN60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="AL61:AL62"/>
-    <mergeCell ref="AM61:AM62"/>
-    <mergeCell ref="AN61:AN62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="AL63:AL64"/>
-    <mergeCell ref="AM63:AM64"/>
-    <mergeCell ref="AN63:AN64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="AL65:AL66"/>
-    <mergeCell ref="AM65:AM66"/>
-    <mergeCell ref="AN65:AN66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="AL67:AL68"/>
-    <mergeCell ref="AM67:AM68"/>
-    <mergeCell ref="AN67:AN68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="AL69:AL70"/>
-    <mergeCell ref="AM69:AM70"/>
-    <mergeCell ref="AN69:AN70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="AL71:AL72"/>
-    <mergeCell ref="AM71:AM72"/>
-    <mergeCell ref="AN71:AN72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="AL73:AL74"/>
-    <mergeCell ref="AM73:AM74"/>
-    <mergeCell ref="AN73:AN74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="AL75:AL76"/>
-    <mergeCell ref="AM75:AM76"/>
-    <mergeCell ref="AN75:AN76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="AL77:AL78"/>
-    <mergeCell ref="AM77:AM78"/>
-    <mergeCell ref="AN77:AN78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="AL79:AL80"/>
-    <mergeCell ref="AM79:AM80"/>
-    <mergeCell ref="AN79:AN80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="AL81:AL82"/>
-    <mergeCell ref="AM81:AM82"/>
-    <mergeCell ref="AN81:AN82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="AL83:AL84"/>
-    <mergeCell ref="AM83:AM84"/>
-    <mergeCell ref="AN83:AN84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="AL85:AL86"/>
-    <mergeCell ref="AM85:AM86"/>
-    <mergeCell ref="AN85:AN86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:D88"/>
-    <mergeCell ref="AL87:AL88"/>
-    <mergeCell ref="AM87:AM88"/>
-    <mergeCell ref="AN87:AN88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="AL89:AL90"/>
-    <mergeCell ref="AM89:AM90"/>
-    <mergeCell ref="AN89:AN90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="AL91:AL92"/>
-    <mergeCell ref="AM91:AM92"/>
-    <mergeCell ref="AN91:AN92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="AL93:AL94"/>
-    <mergeCell ref="AM93:AM94"/>
-    <mergeCell ref="AN93:AN94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="AL95:AL96"/>
-    <mergeCell ref="AM95:AM96"/>
-    <mergeCell ref="AN95:AN96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="AL97:AL98"/>
-    <mergeCell ref="AM97:AM98"/>
-    <mergeCell ref="AN97:AN98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="AL99:AL100"/>
-    <mergeCell ref="AM99:AM100"/>
-    <mergeCell ref="AN99:AN100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:D102"/>
-    <mergeCell ref="AL101:AL102"/>
-    <mergeCell ref="AM101:AM102"/>
-    <mergeCell ref="AN101:AN102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="AL103:AL104"/>
-    <mergeCell ref="AM103:AM104"/>
-    <mergeCell ref="AN103:AN104"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="AL105:AL106"/>
-    <mergeCell ref="AM105:AM106"/>
-    <mergeCell ref="AN105:AN106"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="AL107:AL108"/>
-    <mergeCell ref="AM107:AM108"/>
-    <mergeCell ref="AN107:AN108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="AL109:AL110"/>
-    <mergeCell ref="AM109:AM110"/>
-    <mergeCell ref="AN109:AN110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="AL111:AL112"/>
-    <mergeCell ref="AM111:AM112"/>
-    <mergeCell ref="AN111:AN112"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="AL113:AL114"/>
-    <mergeCell ref="AM113:AM114"/>
-    <mergeCell ref="AN113:AN114"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:D116"/>
-    <mergeCell ref="AL115:AL116"/>
-    <mergeCell ref="AM115:AM116"/>
-    <mergeCell ref="AN115:AN116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:D118"/>
-    <mergeCell ref="AL117:AL118"/>
-    <mergeCell ref="AM117:AM118"/>
-    <mergeCell ref="AN117:AN118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:D120"/>
-    <mergeCell ref="AL119:AL120"/>
-    <mergeCell ref="AM119:AM120"/>
-    <mergeCell ref="AN119:AN120"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:D122"/>
-    <mergeCell ref="AL121:AL122"/>
-    <mergeCell ref="AM121:AM122"/>
-    <mergeCell ref="AN121:AN122"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:D124"/>
-    <mergeCell ref="AL123:AL124"/>
-    <mergeCell ref="AM123:AM124"/>
-    <mergeCell ref="AN123:AN124"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:D126"/>
-    <mergeCell ref="AL125:AL126"/>
-    <mergeCell ref="AM125:AM126"/>
-    <mergeCell ref="AN125:AN126"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:D128"/>
-    <mergeCell ref="AL127:AL128"/>
-    <mergeCell ref="AM127:AM128"/>
-    <mergeCell ref="AN127:AN128"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:D130"/>
-    <mergeCell ref="AL129:AL130"/>
-    <mergeCell ref="AM129:AM130"/>
-    <mergeCell ref="AN129:AN130"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:D132"/>
-    <mergeCell ref="AL131:AL132"/>
-    <mergeCell ref="AM131:AM132"/>
-    <mergeCell ref="AN131:AN132"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:D134"/>
-    <mergeCell ref="AL133:AL134"/>
-    <mergeCell ref="AM133:AM134"/>
-    <mergeCell ref="AN133:AN134"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:D136"/>
-    <mergeCell ref="AL135:AL136"/>
-    <mergeCell ref="AM135:AM136"/>
-    <mergeCell ref="AN135:AN136"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:D138"/>
-    <mergeCell ref="AL137:AL138"/>
-    <mergeCell ref="AM137:AM138"/>
-    <mergeCell ref="AN137:AN138"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:D140"/>
-    <mergeCell ref="AL139:AL140"/>
-    <mergeCell ref="AM139:AM140"/>
-    <mergeCell ref="AN139:AN140"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:D142"/>
-    <mergeCell ref="AL141:AL142"/>
-    <mergeCell ref="AM141:AM142"/>
-    <mergeCell ref="AN141:AN142"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:D144"/>
-    <mergeCell ref="AL143:AL144"/>
-    <mergeCell ref="AM143:AM144"/>
-    <mergeCell ref="AN143:AN144"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:D146"/>
-    <mergeCell ref="AL145:AL146"/>
-    <mergeCell ref="AM145:AM146"/>
-    <mergeCell ref="AN145:AN146"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:D148"/>
-    <mergeCell ref="AL147:AL148"/>
-    <mergeCell ref="AM147:AM148"/>
-    <mergeCell ref="AN147:AN148"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:D150"/>
-    <mergeCell ref="AL149:AL150"/>
-    <mergeCell ref="AM149:AM150"/>
-    <mergeCell ref="AN149:AN150"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:D152"/>
-    <mergeCell ref="AL151:AL152"/>
-    <mergeCell ref="AM151:AM152"/>
-    <mergeCell ref="AN151:AN152"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="C153:D154"/>
-    <mergeCell ref="AL153:AL154"/>
-    <mergeCell ref="AM153:AM154"/>
-    <mergeCell ref="AN153:AN154"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="C155:D156"/>
-    <mergeCell ref="AL155:AL156"/>
-    <mergeCell ref="AM155:AM156"/>
-    <mergeCell ref="AN155:AN156"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:D158"/>
-    <mergeCell ref="AL157:AL158"/>
-    <mergeCell ref="AM157:AM158"/>
-    <mergeCell ref="AN157:AN158"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="C159:D160"/>
-    <mergeCell ref="AL159:AL160"/>
-    <mergeCell ref="AM159:AM160"/>
-    <mergeCell ref="AN159:AN160"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="C161:D162"/>
-    <mergeCell ref="AL161:AL162"/>
-    <mergeCell ref="AM161:AM162"/>
-    <mergeCell ref="AN161:AN162"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:D164"/>
-    <mergeCell ref="AL163:AL164"/>
-    <mergeCell ref="AM163:AM164"/>
-    <mergeCell ref="AN163:AN164"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="C165:D166"/>
-    <mergeCell ref="AL165:AL166"/>
-    <mergeCell ref="AM165:AM166"/>
-    <mergeCell ref="AN165:AN166"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="C167:D168"/>
-    <mergeCell ref="AL167:AL168"/>
-    <mergeCell ref="AM167:AM168"/>
-    <mergeCell ref="AN167:AN168"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="C169:D170"/>
-    <mergeCell ref="AL169:AL170"/>
-    <mergeCell ref="AM169:AM170"/>
-    <mergeCell ref="AN169:AN170"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="C171:D172"/>
-    <mergeCell ref="AL171:AL172"/>
-    <mergeCell ref="AM171:AM172"/>
-    <mergeCell ref="AN171:AN172"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="C173:D174"/>
-    <mergeCell ref="AL173:AL174"/>
-    <mergeCell ref="AM173:AM174"/>
-    <mergeCell ref="AN173:AN174"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="C175:D176"/>
-    <mergeCell ref="AL175:AL176"/>
-    <mergeCell ref="AM175:AM176"/>
-    <mergeCell ref="AN175:AN176"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="C177:D178"/>
-    <mergeCell ref="AL177:AL178"/>
-    <mergeCell ref="AM177:AM178"/>
-    <mergeCell ref="AN177:AN178"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="C179:D180"/>
-    <mergeCell ref="AL179:AL180"/>
-    <mergeCell ref="AM179:AM180"/>
-    <mergeCell ref="AN179:AN180"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="C181:D182"/>
-    <mergeCell ref="AL181:AL182"/>
-    <mergeCell ref="AM181:AM182"/>
-    <mergeCell ref="AN181:AN182"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:D184"/>
-    <mergeCell ref="AL183:AL184"/>
-    <mergeCell ref="AM183:AM184"/>
-    <mergeCell ref="AN183:AN184"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="C185:D186"/>
-    <mergeCell ref="AL185:AL186"/>
-    <mergeCell ref="AM185:AM186"/>
-    <mergeCell ref="AN185:AN186"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:D188"/>
-    <mergeCell ref="AL187:AL188"/>
-    <mergeCell ref="AM187:AM188"/>
-    <mergeCell ref="AN187:AN188"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="C189:D190"/>
-    <mergeCell ref="AL189:AL190"/>
-    <mergeCell ref="AM189:AM190"/>
-    <mergeCell ref="AN189:AN190"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="C191:D192"/>
-    <mergeCell ref="AL191:AL192"/>
-    <mergeCell ref="AM191:AM192"/>
-    <mergeCell ref="AN191:AN192"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="C193:D194"/>
-    <mergeCell ref="AL193:AL194"/>
-    <mergeCell ref="AM193:AM194"/>
-    <mergeCell ref="AN193:AN194"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="C195:D196"/>
-    <mergeCell ref="AL195:AL196"/>
-    <mergeCell ref="AM195:AM196"/>
-    <mergeCell ref="AN195:AN196"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="C197:D198"/>
-    <mergeCell ref="AL197:AL198"/>
-    <mergeCell ref="AM197:AM198"/>
-    <mergeCell ref="AN197:AN198"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="C199:D200"/>
-    <mergeCell ref="AL199:AL200"/>
-    <mergeCell ref="AM199:AM200"/>
-    <mergeCell ref="AN199:AN200"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="C201:D202"/>
-    <mergeCell ref="AL201:AL202"/>
-    <mergeCell ref="AM201:AM202"/>
-    <mergeCell ref="AN201:AN202"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="C203:D204"/>
-    <mergeCell ref="AL203:AL204"/>
-    <mergeCell ref="AM203:AM204"/>
-    <mergeCell ref="AN203:AN204"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="C211:D212"/>
-    <mergeCell ref="AL211:AL212"/>
-    <mergeCell ref="AM211:AM212"/>
-    <mergeCell ref="AN211:AN212"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="C205:D206"/>
-    <mergeCell ref="AL205:AL206"/>
-    <mergeCell ref="AM205:AM206"/>
-    <mergeCell ref="AN205:AN206"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="C207:D208"/>
-    <mergeCell ref="AL207:AL208"/>
-    <mergeCell ref="AM207:AM208"/>
-    <mergeCell ref="AN207:AN208"/>
     <mergeCell ref="AE227:AJ227"/>
     <mergeCell ref="AE229:AJ229"/>
     <mergeCell ref="B7:AN7"/>
@@ -13487,6 +12983,510 @@
     <mergeCell ref="AL209:AL210"/>
     <mergeCell ref="AM209:AM210"/>
     <mergeCell ref="AN209:AN210"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="C211:D212"/>
+    <mergeCell ref="AL211:AL212"/>
+    <mergeCell ref="AM211:AM212"/>
+    <mergeCell ref="AN211:AN212"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="C205:D206"/>
+    <mergeCell ref="AL205:AL206"/>
+    <mergeCell ref="AM205:AM206"/>
+    <mergeCell ref="AN205:AN206"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="C207:D208"/>
+    <mergeCell ref="AL207:AL208"/>
+    <mergeCell ref="AM207:AM208"/>
+    <mergeCell ref="AN207:AN208"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="C201:D202"/>
+    <mergeCell ref="AL201:AL202"/>
+    <mergeCell ref="AM201:AM202"/>
+    <mergeCell ref="AN201:AN202"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="C203:D204"/>
+    <mergeCell ref="AL203:AL204"/>
+    <mergeCell ref="AM203:AM204"/>
+    <mergeCell ref="AN203:AN204"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="C197:D198"/>
+    <mergeCell ref="AL197:AL198"/>
+    <mergeCell ref="AM197:AM198"/>
+    <mergeCell ref="AN197:AN198"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="C199:D200"/>
+    <mergeCell ref="AL199:AL200"/>
+    <mergeCell ref="AM199:AM200"/>
+    <mergeCell ref="AN199:AN200"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="C193:D194"/>
+    <mergeCell ref="AL193:AL194"/>
+    <mergeCell ref="AM193:AM194"/>
+    <mergeCell ref="AN193:AN194"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="C195:D196"/>
+    <mergeCell ref="AL195:AL196"/>
+    <mergeCell ref="AM195:AM196"/>
+    <mergeCell ref="AN195:AN196"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="C189:D190"/>
+    <mergeCell ref="AL189:AL190"/>
+    <mergeCell ref="AM189:AM190"/>
+    <mergeCell ref="AN189:AN190"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="C191:D192"/>
+    <mergeCell ref="AL191:AL192"/>
+    <mergeCell ref="AM191:AM192"/>
+    <mergeCell ref="AN191:AN192"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="C185:D186"/>
+    <mergeCell ref="AL185:AL186"/>
+    <mergeCell ref="AM185:AM186"/>
+    <mergeCell ref="AN185:AN186"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:D188"/>
+    <mergeCell ref="AL187:AL188"/>
+    <mergeCell ref="AM187:AM188"/>
+    <mergeCell ref="AN187:AN188"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="C181:D182"/>
+    <mergeCell ref="AL181:AL182"/>
+    <mergeCell ref="AM181:AM182"/>
+    <mergeCell ref="AN181:AN182"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:D184"/>
+    <mergeCell ref="AL183:AL184"/>
+    <mergeCell ref="AM183:AM184"/>
+    <mergeCell ref="AN183:AN184"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="C177:D178"/>
+    <mergeCell ref="AL177:AL178"/>
+    <mergeCell ref="AM177:AM178"/>
+    <mergeCell ref="AN177:AN178"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="C179:D180"/>
+    <mergeCell ref="AL179:AL180"/>
+    <mergeCell ref="AM179:AM180"/>
+    <mergeCell ref="AN179:AN180"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:D174"/>
+    <mergeCell ref="AL173:AL174"/>
+    <mergeCell ref="AM173:AM174"/>
+    <mergeCell ref="AN173:AN174"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="C175:D176"/>
+    <mergeCell ref="AL175:AL176"/>
+    <mergeCell ref="AM175:AM176"/>
+    <mergeCell ref="AN175:AN176"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:D170"/>
+    <mergeCell ref="AL169:AL170"/>
+    <mergeCell ref="AM169:AM170"/>
+    <mergeCell ref="AN169:AN170"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:D172"/>
+    <mergeCell ref="AL171:AL172"/>
+    <mergeCell ref="AM171:AM172"/>
+    <mergeCell ref="AN171:AN172"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="C165:D166"/>
+    <mergeCell ref="AL165:AL166"/>
+    <mergeCell ref="AM165:AM166"/>
+    <mergeCell ref="AN165:AN166"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:D168"/>
+    <mergeCell ref="AL167:AL168"/>
+    <mergeCell ref="AM167:AM168"/>
+    <mergeCell ref="AN167:AN168"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="C161:D162"/>
+    <mergeCell ref="AL161:AL162"/>
+    <mergeCell ref="AM161:AM162"/>
+    <mergeCell ref="AN161:AN162"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:D164"/>
+    <mergeCell ref="AL163:AL164"/>
+    <mergeCell ref="AM163:AM164"/>
+    <mergeCell ref="AN163:AN164"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:D158"/>
+    <mergeCell ref="AL157:AL158"/>
+    <mergeCell ref="AM157:AM158"/>
+    <mergeCell ref="AN157:AN158"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="C159:D160"/>
+    <mergeCell ref="AL159:AL160"/>
+    <mergeCell ref="AM159:AM160"/>
+    <mergeCell ref="AN159:AN160"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="C153:D154"/>
+    <mergeCell ref="AL153:AL154"/>
+    <mergeCell ref="AM153:AM154"/>
+    <mergeCell ref="AN153:AN154"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="C155:D156"/>
+    <mergeCell ref="AL155:AL156"/>
+    <mergeCell ref="AM155:AM156"/>
+    <mergeCell ref="AN155:AN156"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:D150"/>
+    <mergeCell ref="AL149:AL150"/>
+    <mergeCell ref="AM149:AM150"/>
+    <mergeCell ref="AN149:AN150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:D152"/>
+    <mergeCell ref="AL151:AL152"/>
+    <mergeCell ref="AM151:AM152"/>
+    <mergeCell ref="AN151:AN152"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:D146"/>
+    <mergeCell ref="AL145:AL146"/>
+    <mergeCell ref="AM145:AM146"/>
+    <mergeCell ref="AN145:AN146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:D148"/>
+    <mergeCell ref="AL147:AL148"/>
+    <mergeCell ref="AM147:AM148"/>
+    <mergeCell ref="AN147:AN148"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:D142"/>
+    <mergeCell ref="AL141:AL142"/>
+    <mergeCell ref="AM141:AM142"/>
+    <mergeCell ref="AN141:AN142"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:D144"/>
+    <mergeCell ref="AL143:AL144"/>
+    <mergeCell ref="AM143:AM144"/>
+    <mergeCell ref="AN143:AN144"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:D138"/>
+    <mergeCell ref="AL137:AL138"/>
+    <mergeCell ref="AM137:AM138"/>
+    <mergeCell ref="AN137:AN138"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:D140"/>
+    <mergeCell ref="AL139:AL140"/>
+    <mergeCell ref="AM139:AM140"/>
+    <mergeCell ref="AN139:AN140"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:D134"/>
+    <mergeCell ref="AL133:AL134"/>
+    <mergeCell ref="AM133:AM134"/>
+    <mergeCell ref="AN133:AN134"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:D136"/>
+    <mergeCell ref="AL135:AL136"/>
+    <mergeCell ref="AM135:AM136"/>
+    <mergeCell ref="AN135:AN136"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:D130"/>
+    <mergeCell ref="AL129:AL130"/>
+    <mergeCell ref="AM129:AM130"/>
+    <mergeCell ref="AN129:AN130"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:D132"/>
+    <mergeCell ref="AL131:AL132"/>
+    <mergeCell ref="AM131:AM132"/>
+    <mergeCell ref="AN131:AN132"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:D126"/>
+    <mergeCell ref="AL125:AL126"/>
+    <mergeCell ref="AM125:AM126"/>
+    <mergeCell ref="AN125:AN126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:D128"/>
+    <mergeCell ref="AL127:AL128"/>
+    <mergeCell ref="AM127:AM128"/>
+    <mergeCell ref="AN127:AN128"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:D122"/>
+    <mergeCell ref="AL121:AL122"/>
+    <mergeCell ref="AM121:AM122"/>
+    <mergeCell ref="AN121:AN122"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:D124"/>
+    <mergeCell ref="AL123:AL124"/>
+    <mergeCell ref="AM123:AM124"/>
+    <mergeCell ref="AN123:AN124"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:D118"/>
+    <mergeCell ref="AL117:AL118"/>
+    <mergeCell ref="AM117:AM118"/>
+    <mergeCell ref="AN117:AN118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:D120"/>
+    <mergeCell ref="AL119:AL120"/>
+    <mergeCell ref="AM119:AM120"/>
+    <mergeCell ref="AN119:AN120"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="AL113:AL114"/>
+    <mergeCell ref="AM113:AM114"/>
+    <mergeCell ref="AN113:AN114"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:D116"/>
+    <mergeCell ref="AL115:AL116"/>
+    <mergeCell ref="AM115:AM116"/>
+    <mergeCell ref="AN115:AN116"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="AL109:AL110"/>
+    <mergeCell ref="AM109:AM110"/>
+    <mergeCell ref="AN109:AN110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="AL111:AL112"/>
+    <mergeCell ref="AM111:AM112"/>
+    <mergeCell ref="AN111:AN112"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="AL105:AL106"/>
+    <mergeCell ref="AM105:AM106"/>
+    <mergeCell ref="AN105:AN106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="AL107:AL108"/>
+    <mergeCell ref="AM107:AM108"/>
+    <mergeCell ref="AN107:AN108"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:D102"/>
+    <mergeCell ref="AL101:AL102"/>
+    <mergeCell ref="AM101:AM102"/>
+    <mergeCell ref="AN101:AN102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="AL103:AL104"/>
+    <mergeCell ref="AM103:AM104"/>
+    <mergeCell ref="AN103:AN104"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="AL97:AL98"/>
+    <mergeCell ref="AM97:AM98"/>
+    <mergeCell ref="AN97:AN98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="AL99:AL100"/>
+    <mergeCell ref="AM99:AM100"/>
+    <mergeCell ref="AN99:AN100"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="AL93:AL94"/>
+    <mergeCell ref="AM93:AM94"/>
+    <mergeCell ref="AN93:AN94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="AL95:AL96"/>
+    <mergeCell ref="AM95:AM96"/>
+    <mergeCell ref="AN95:AN96"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="AL89:AL90"/>
+    <mergeCell ref="AM89:AM90"/>
+    <mergeCell ref="AN89:AN90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="AL91:AL92"/>
+    <mergeCell ref="AM91:AM92"/>
+    <mergeCell ref="AN91:AN92"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="AL85:AL86"/>
+    <mergeCell ref="AM85:AM86"/>
+    <mergeCell ref="AN85:AN86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="AL87:AL88"/>
+    <mergeCell ref="AM87:AM88"/>
+    <mergeCell ref="AN87:AN88"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="AL81:AL82"/>
+    <mergeCell ref="AM81:AM82"/>
+    <mergeCell ref="AN81:AN82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="AL83:AL84"/>
+    <mergeCell ref="AM83:AM84"/>
+    <mergeCell ref="AN83:AN84"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="AL77:AL78"/>
+    <mergeCell ref="AM77:AM78"/>
+    <mergeCell ref="AN77:AN78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="AL79:AL80"/>
+    <mergeCell ref="AM79:AM80"/>
+    <mergeCell ref="AN79:AN80"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="AL73:AL74"/>
+    <mergeCell ref="AM73:AM74"/>
+    <mergeCell ref="AN73:AN74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="AL75:AL76"/>
+    <mergeCell ref="AM75:AM76"/>
+    <mergeCell ref="AN75:AN76"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="AL69:AL70"/>
+    <mergeCell ref="AM69:AM70"/>
+    <mergeCell ref="AN69:AN70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="AL71:AL72"/>
+    <mergeCell ref="AM71:AM72"/>
+    <mergeCell ref="AN71:AN72"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="AL65:AL66"/>
+    <mergeCell ref="AM65:AM66"/>
+    <mergeCell ref="AN65:AN66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="AL67:AL68"/>
+    <mergeCell ref="AM67:AM68"/>
+    <mergeCell ref="AN67:AN68"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="AL61:AL62"/>
+    <mergeCell ref="AM61:AM62"/>
+    <mergeCell ref="AN61:AN62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="AL63:AL64"/>
+    <mergeCell ref="AM63:AM64"/>
+    <mergeCell ref="AN63:AN64"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="AL57:AL58"/>
+    <mergeCell ref="AM57:AM58"/>
+    <mergeCell ref="AN57:AN58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="AL59:AL60"/>
+    <mergeCell ref="AM59:AM60"/>
+    <mergeCell ref="AN59:AN60"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="AL53:AL54"/>
+    <mergeCell ref="AM53:AM54"/>
+    <mergeCell ref="AN53:AN54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="AL55:AL56"/>
+    <mergeCell ref="AM55:AM56"/>
+    <mergeCell ref="AN55:AN56"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="AL49:AL50"/>
+    <mergeCell ref="AM49:AM50"/>
+    <mergeCell ref="AN49:AN50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="AL51:AL52"/>
+    <mergeCell ref="AM51:AM52"/>
+    <mergeCell ref="AN51:AN52"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="AL45:AL46"/>
+    <mergeCell ref="AM45:AM46"/>
+    <mergeCell ref="AN45:AN46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="AL47:AL48"/>
+    <mergeCell ref="AM47:AM48"/>
+    <mergeCell ref="AN47:AN48"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="AL41:AL42"/>
+    <mergeCell ref="AM41:AM42"/>
+    <mergeCell ref="AN41:AN42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="AL43:AL44"/>
+    <mergeCell ref="AM43:AM44"/>
+    <mergeCell ref="AN43:AN44"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="AL37:AL38"/>
+    <mergeCell ref="AM37:AM38"/>
+    <mergeCell ref="AN37:AN38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="AL39:AL40"/>
+    <mergeCell ref="AM39:AM40"/>
+    <mergeCell ref="AN39:AN40"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="AL33:AL34"/>
+    <mergeCell ref="AM33:AM34"/>
+    <mergeCell ref="AN33:AN34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="AL35:AL36"/>
+    <mergeCell ref="AM35:AM36"/>
+    <mergeCell ref="AN35:AN36"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="AL29:AL30"/>
+    <mergeCell ref="AM29:AM30"/>
+    <mergeCell ref="AN29:AN30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="AL31:AL32"/>
+    <mergeCell ref="AM31:AM32"/>
+    <mergeCell ref="AN31:AN32"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="AL25:AL26"/>
+    <mergeCell ref="AM25:AM26"/>
+    <mergeCell ref="AN25:AN26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="AL27:AL28"/>
+    <mergeCell ref="AM27:AM28"/>
+    <mergeCell ref="AN27:AN28"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="AL21:AL22"/>
+    <mergeCell ref="AM21:AM22"/>
+    <mergeCell ref="AN21:AN22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="AL23:AL24"/>
+    <mergeCell ref="AM23:AM24"/>
+    <mergeCell ref="AN23:AN24"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="AL17:AL18"/>
+    <mergeCell ref="AM17:AM18"/>
+    <mergeCell ref="AN17:AN18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="AL19:AL20"/>
+    <mergeCell ref="AM19:AM20"/>
+    <mergeCell ref="AN19:AN20"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="AL13:AL14"/>
+    <mergeCell ref="AM13:AM14"/>
+    <mergeCell ref="AN13:AN14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="AL15:AL16"/>
+    <mergeCell ref="AM15:AM16"/>
+    <mergeCell ref="AN15:AN16"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="AK9:AN9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="AL11:AL12"/>
+    <mergeCell ref="AM11:AM12"/>
+    <mergeCell ref="AN11:AN12"/>
   </mergeCells>
   <conditionalFormatting sqref="F9:F214">
     <cfRule type="expression" dxfId="61" priority="62">

--- a/templates/decir_reg_template.xlsx
+++ b/templates/decir_reg_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F. Martins\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41C426C-105B-4084-A45D-EEA209B6445F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146C6208-97B1-4BBE-9018-C80920E59826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C659143B-CA94-4BA0-8D2F-F95ACC134C4E}"/>
   </bookViews>
@@ -1483,6 +1483,132 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1515,132 +1641,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2206,13 +2206,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>297082</xdr:colOff>
+      <xdr:colOff>729375</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
+      <xdr:colOff>914893</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
@@ -2237,7 +2237,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10272932" y="0"/>
+          <a:off x="10950433" y="0"/>
           <a:ext cx="1138018" cy="1206500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2552,8 +2552,8 @@
   </sheetPr>
   <dimension ref="A1:AP232"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AK9" sqref="AK9:AN9"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A208" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:AN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2661,45 +2661,45 @@
       <c r="AI6" s="4"/>
     </row>
     <row r="7" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
-      <c r="Y7" s="115"/>
-      <c r="Z7" s="115"/>
-      <c r="AA7" s="115"/>
-      <c r="AB7" s="115"/>
-      <c r="AC7" s="115"/>
-      <c r="AD7" s="115"/>
-      <c r="AE7" s="115"/>
-      <c r="AF7" s="115"/>
-      <c r="AG7" s="115"/>
-      <c r="AH7" s="115"/>
-      <c r="AI7" s="115"/>
-      <c r="AJ7" s="115"/>
-      <c r="AK7" s="115"/>
-      <c r="AL7" s="115"/>
-      <c r="AM7" s="115"/>
-      <c r="AN7" s="115"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="82"/>
+      <c r="AF7" s="82"/>
+      <c r="AG7" s="82"/>
+      <c r="AH7" s="82"/>
+      <c r="AI7" s="82"/>
+      <c r="AJ7" s="82"/>
+      <c r="AK7" s="82"/>
+      <c r="AL7" s="82"/>
+      <c r="AM7" s="82"/>
+      <c r="AN7" s="82"/>
       <c r="AO7" s="7"/>
     </row>
     <row r="8" spans="2:41" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2736,14 +2736,14 @@
       <c r="AI8" s="4"/>
     </row>
     <row r="9" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="82" t="s">
+      <c r="D9" s="121"/>
+      <c r="E9" s="124" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="70"/>
@@ -2777,18 +2777,18 @@
       <c r="AH9" s="70"/>
       <c r="AI9" s="70"/>
       <c r="AJ9" s="70"/>
-      <c r="AK9" s="84" t="s">
+      <c r="AK9" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="AL9" s="85"/>
-      <c r="AM9" s="85"/>
-      <c r="AN9" s="86"/>
+      <c r="AL9" s="127"/>
+      <c r="AM9" s="127"/>
+      <c r="AN9" s="128"/>
     </row>
     <row r="10" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="77"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="83"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="71"/>
       <c r="G10" s="67"/>
       <c r="H10" s="68"/>
@@ -2834,9 +2834,9 @@
       </c>
     </row>
     <row r="11" spans="2:41" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="87"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="90"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="47" t="s">
         <v>8</v>
       </c>
@@ -2875,14 +2875,14 @@
         <f>COUNTIFS(F11:AJ11,"x")</f>
         <v>0</v>
       </c>
-      <c r="AL11" s="93"/>
-      <c r="AM11" s="95"/>
-      <c r="AN11" s="97"/>
+      <c r="AL11" s="107"/>
+      <c r="AM11" s="108"/>
+      <c r="AN11" s="109"/>
     </row>
     <row r="12" spans="2:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="88"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="48" t="s">
         <v>9</v>
       </c>
@@ -2921,14 +2921,14 @@
         <f>COUNTIFS(F12:AJ12,"x")</f>
         <v>0</v>
       </c>
-      <c r="AL12" s="94"/>
-      <c r="AM12" s="96"/>
+      <c r="AL12" s="92"/>
+      <c r="AM12" s="95"/>
       <c r="AN12" s="98"/>
     </row>
     <row r="13" spans="2:41" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="87"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="90"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="104"/>
       <c r="E13" s="47" t="s">
         <v>8</v>
       </c>
@@ -2967,14 +2967,14 @@
         <f>COUNTIFS(F13:AJ13,"x")</f>
         <v>0</v>
       </c>
-      <c r="AL13" s="93"/>
-      <c r="AM13" s="95"/>
-      <c r="AN13" s="97"/>
+      <c r="AL13" s="107"/>
+      <c r="AM13" s="108"/>
+      <c r="AN13" s="109"/>
     </row>
     <row r="14" spans="2:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="88"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="92"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="106"/>
       <c r="E14" s="48" t="s">
         <v>9</v>
       </c>
@@ -3013,14 +3013,14 @@
         <f>COUNTIFS(F14:AJ14,"x")</f>
         <v>0</v>
       </c>
-      <c r="AL14" s="94"/>
-      <c r="AM14" s="96"/>
+      <c r="AL14" s="92"/>
+      <c r="AM14" s="95"/>
       <c r="AN14" s="98"/>
     </row>
     <row r="15" spans="2:41" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="99"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="102"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="114"/>
       <c r="E15" s="49" t="s">
         <v>8</v>
       </c>
@@ -3059,14 +3059,14 @@
         <f t="shared" ref="AK15:AK78" si="0">COUNTIFS(F15:AJ15,"x")</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="103"/>
-      <c r="AM15" s="105"/>
-      <c r="AN15" s="107"/>
+      <c r="AL15" s="90"/>
+      <c r="AM15" s="93"/>
+      <c r="AN15" s="96"/>
     </row>
     <row r="16" spans="2:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="100"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="114"/>
       <c r="E16" s="50" t="s">
         <v>9</v>
       </c>
@@ -3105,14 +3105,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL16" s="104"/>
-      <c r="AM16" s="106"/>
-      <c r="AN16" s="108"/>
+      <c r="AL16" s="115"/>
+      <c r="AM16" s="116"/>
+      <c r="AN16" s="117"/>
     </row>
     <row r="17" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="87"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="90"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="104"/>
       <c r="E17" s="47" t="s">
         <v>8</v>
       </c>
@@ -3151,14 +3151,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL17" s="93"/>
-      <c r="AM17" s="95"/>
-      <c r="AN17" s="97"/>
+      <c r="AL17" s="107"/>
+      <c r="AM17" s="108"/>
+      <c r="AN17" s="109"/>
     </row>
     <row r="18" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="88"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="92"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
       <c r="E18" s="48" t="s">
         <v>9</v>
       </c>
@@ -3197,14 +3197,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL18" s="94"/>
-      <c r="AM18" s="96"/>
+      <c r="AL18" s="92"/>
+      <c r="AM18" s="95"/>
       <c r="AN18" s="98"/>
     </row>
     <row r="19" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="87"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="90"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="104"/>
       <c r="E19" s="47" t="s">
         <v>8</v>
       </c>
@@ -3243,14 +3243,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL19" s="93"/>
-      <c r="AM19" s="95"/>
-      <c r="AN19" s="97"/>
+      <c r="AL19" s="107"/>
+      <c r="AM19" s="108"/>
+      <c r="AN19" s="109"/>
     </row>
     <row r="20" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="88"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="92"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="106"/>
       <c r="E20" s="48" t="s">
         <v>9</v>
       </c>
@@ -3289,14 +3289,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL20" s="94"/>
-      <c r="AM20" s="96"/>
+      <c r="AL20" s="92"/>
+      <c r="AM20" s="95"/>
       <c r="AN20" s="98"/>
     </row>
     <row r="21" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="87"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="90"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="104"/>
       <c r="E21" s="47" t="s">
         <v>8</v>
       </c>
@@ -3335,14 +3335,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL21" s="93"/>
-      <c r="AM21" s="95"/>
-      <c r="AN21" s="97"/>
+      <c r="AL21" s="107"/>
+      <c r="AM21" s="108"/>
+      <c r="AN21" s="109"/>
     </row>
     <row r="22" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="88"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="92"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="106"/>
       <c r="E22" s="48" t="s">
         <v>9</v>
       </c>
@@ -3381,14 +3381,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL22" s="94"/>
-      <c r="AM22" s="96"/>
+      <c r="AL22" s="92"/>
+      <c r="AM22" s="95"/>
       <c r="AN22" s="98"/>
     </row>
     <row r="23" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="87"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="90"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="104"/>
       <c r="E23" s="47" t="s">
         <v>8</v>
       </c>
@@ -3427,14 +3427,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL23" s="93"/>
-      <c r="AM23" s="95"/>
-      <c r="AN23" s="97"/>
+      <c r="AL23" s="107"/>
+      <c r="AM23" s="108"/>
+      <c r="AN23" s="109"/>
     </row>
     <row r="24" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="88"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="92"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106"/>
       <c r="E24" s="48" t="s">
         <v>9</v>
       </c>
@@ -3473,14 +3473,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL24" s="94"/>
-      <c r="AM24" s="96"/>
+      <c r="AL24" s="92"/>
+      <c r="AM24" s="95"/>
       <c r="AN24" s="98"/>
     </row>
     <row r="25" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="87"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="90"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="104"/>
       <c r="E25" s="47" t="s">
         <v>8</v>
       </c>
@@ -3519,14 +3519,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL25" s="93"/>
-      <c r="AM25" s="95"/>
-      <c r="AN25" s="97"/>
+      <c r="AL25" s="107"/>
+      <c r="AM25" s="108"/>
+      <c r="AN25" s="109"/>
     </row>
     <row r="26" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="88"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="92"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="106"/>
       <c r="E26" s="48" t="s">
         <v>9</v>
       </c>
@@ -3565,14 +3565,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL26" s="94"/>
-      <c r="AM26" s="96"/>
+      <c r="AL26" s="92"/>
+      <c r="AM26" s="95"/>
       <c r="AN26" s="98"/>
     </row>
     <row r="27" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="87"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="104"/>
       <c r="E27" s="47" t="s">
         <v>8</v>
       </c>
@@ -3611,14 +3611,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL27" s="93"/>
-      <c r="AM27" s="95"/>
-      <c r="AN27" s="97"/>
+      <c r="AL27" s="107"/>
+      <c r="AM27" s="108"/>
+      <c r="AN27" s="109"/>
     </row>
     <row r="28" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="88"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="106"/>
       <c r="E28" s="48" t="s">
         <v>9</v>
       </c>
@@ -3657,14 +3657,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL28" s="94"/>
-      <c r="AM28" s="96"/>
+      <c r="AL28" s="92"/>
+      <c r="AM28" s="95"/>
       <c r="AN28" s="98"/>
     </row>
     <row r="29" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="87"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="90"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="104"/>
       <c r="E29" s="47" t="s">
         <v>8</v>
       </c>
@@ -3703,14 +3703,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL29" s="93"/>
-      <c r="AM29" s="95"/>
-      <c r="AN29" s="97"/>
+      <c r="AL29" s="107"/>
+      <c r="AM29" s="108"/>
+      <c r="AN29" s="109"/>
     </row>
     <row r="30" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="88"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="92"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="106"/>
       <c r="E30" s="48" t="s">
         <v>9</v>
       </c>
@@ -3749,14 +3749,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL30" s="94"/>
-      <c r="AM30" s="96"/>
+      <c r="AL30" s="92"/>
+      <c r="AM30" s="95"/>
       <c r="AN30" s="98"/>
     </row>
     <row r="31" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="87"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="90"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="104"/>
       <c r="E31" s="47" t="s">
         <v>8</v>
       </c>
@@ -3795,14 +3795,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL31" s="93"/>
-      <c r="AM31" s="95"/>
-      <c r="AN31" s="97"/>
+      <c r="AL31" s="107"/>
+      <c r="AM31" s="108"/>
+      <c r="AN31" s="109"/>
     </row>
     <row r="32" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="88"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="92"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="106"/>
       <c r="E32" s="48" t="s">
         <v>9</v>
       </c>
@@ -3841,14 +3841,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL32" s="94"/>
-      <c r="AM32" s="96"/>
+      <c r="AL32" s="92"/>
+      <c r="AM32" s="95"/>
       <c r="AN32" s="98"/>
     </row>
     <row r="33" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="87"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="90"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="104"/>
       <c r="E33" s="47" t="s">
         <v>8</v>
       </c>
@@ -3887,14 +3887,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL33" s="93"/>
-      <c r="AM33" s="95"/>
-      <c r="AN33" s="97"/>
+      <c r="AL33" s="107"/>
+      <c r="AM33" s="108"/>
+      <c r="AN33" s="109"/>
     </row>
     <row r="34" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="88"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="92"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="106"/>
       <c r="E34" s="48" t="s">
         <v>9</v>
       </c>
@@ -3933,14 +3933,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL34" s="94"/>
-      <c r="AM34" s="96"/>
+      <c r="AL34" s="92"/>
+      <c r="AM34" s="95"/>
       <c r="AN34" s="98"/>
     </row>
     <row r="35" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="87"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="90"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="104"/>
       <c r="E35" s="47" t="s">
         <v>8</v>
       </c>
@@ -3979,14 +3979,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL35" s="93"/>
-      <c r="AM35" s="95"/>
-      <c r="AN35" s="97"/>
+      <c r="AL35" s="107"/>
+      <c r="AM35" s="108"/>
+      <c r="AN35" s="109"/>
     </row>
     <row r="36" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="88"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="92"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="106"/>
       <c r="E36" s="48" t="s">
         <v>9</v>
       </c>
@@ -4025,14 +4025,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL36" s="94"/>
-      <c r="AM36" s="96"/>
+      <c r="AL36" s="92"/>
+      <c r="AM36" s="95"/>
       <c r="AN36" s="98"/>
     </row>
     <row r="37" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="87"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="90"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="104"/>
       <c r="E37" s="47" t="s">
         <v>8</v>
       </c>
@@ -4071,14 +4071,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL37" s="93"/>
-      <c r="AM37" s="95"/>
-      <c r="AN37" s="97"/>
+      <c r="AL37" s="107"/>
+      <c r="AM37" s="108"/>
+      <c r="AN37" s="109"/>
     </row>
     <row r="38" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="88"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="92"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="106"/>
       <c r="E38" s="48" t="s">
         <v>9</v>
       </c>
@@ -4117,14 +4117,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL38" s="94"/>
-      <c r="AM38" s="96"/>
+      <c r="AL38" s="92"/>
+      <c r="AM38" s="95"/>
       <c r="AN38" s="98"/>
     </row>
     <row r="39" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="87"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="90"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="104"/>
       <c r="E39" s="47" t="s">
         <v>8</v>
       </c>
@@ -4163,14 +4163,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL39" s="93"/>
-      <c r="AM39" s="95"/>
-      <c r="AN39" s="97"/>
+      <c r="AL39" s="107"/>
+      <c r="AM39" s="108"/>
+      <c r="AN39" s="109"/>
     </row>
     <row r="40" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="88"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="92"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="106"/>
       <c r="E40" s="48" t="s">
         <v>9</v>
       </c>
@@ -4209,14 +4209,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL40" s="94"/>
-      <c r="AM40" s="96"/>
+      <c r="AL40" s="92"/>
+      <c r="AM40" s="95"/>
       <c r="AN40" s="98"/>
     </row>
     <row r="41" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="87"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="90"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="104"/>
       <c r="E41" s="47" t="s">
         <v>8</v>
       </c>
@@ -4255,14 +4255,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL41" s="93"/>
-      <c r="AM41" s="95"/>
-      <c r="AN41" s="97"/>
+      <c r="AL41" s="107"/>
+      <c r="AM41" s="108"/>
+      <c r="AN41" s="109"/>
     </row>
     <row r="42" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="88"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="92"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="106"/>
       <c r="E42" s="48" t="s">
         <v>9</v>
       </c>
@@ -4301,14 +4301,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL42" s="94"/>
-      <c r="AM42" s="96"/>
+      <c r="AL42" s="92"/>
+      <c r="AM42" s="95"/>
       <c r="AN42" s="98"/>
     </row>
     <row r="43" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="87"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="90"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="104"/>
       <c r="E43" s="47" t="s">
         <v>8</v>
       </c>
@@ -4347,14 +4347,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL43" s="93"/>
-      <c r="AM43" s="95"/>
-      <c r="AN43" s="97"/>
+      <c r="AL43" s="107"/>
+      <c r="AM43" s="108"/>
+      <c r="AN43" s="109"/>
     </row>
     <row r="44" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="88"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="92"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="106"/>
       <c r="E44" s="48" t="s">
         <v>9</v>
       </c>
@@ -4393,14 +4393,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL44" s="94"/>
-      <c r="AM44" s="96"/>
+      <c r="AL44" s="92"/>
+      <c r="AM44" s="95"/>
       <c r="AN44" s="98"/>
     </row>
     <row r="45" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="87"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="90"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="104"/>
       <c r="E45" s="47" t="s">
         <v>8</v>
       </c>
@@ -4439,14 +4439,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL45" s="93"/>
-      <c r="AM45" s="95"/>
-      <c r="AN45" s="97"/>
+      <c r="AL45" s="107"/>
+      <c r="AM45" s="108"/>
+      <c r="AN45" s="109"/>
     </row>
     <row r="46" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="88"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="92"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="106"/>
       <c r="E46" s="48" t="s">
         <v>9</v>
       </c>
@@ -4485,14 +4485,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL46" s="94"/>
-      <c r="AM46" s="96"/>
+      <c r="AL46" s="92"/>
+      <c r="AM46" s="95"/>
       <c r="AN46" s="98"/>
     </row>
     <row r="47" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="87"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="90"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="104"/>
       <c r="E47" s="47" t="s">
         <v>8</v>
       </c>
@@ -4531,14 +4531,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL47" s="93"/>
-      <c r="AM47" s="95"/>
-      <c r="AN47" s="97"/>
+      <c r="AL47" s="107"/>
+      <c r="AM47" s="108"/>
+      <c r="AN47" s="109"/>
     </row>
     <row r="48" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="88"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="92"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="106"/>
       <c r="E48" s="48" t="s">
         <v>9</v>
       </c>
@@ -4577,14 +4577,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL48" s="94"/>
-      <c r="AM48" s="96"/>
+      <c r="AL48" s="92"/>
+      <c r="AM48" s="95"/>
       <c r="AN48" s="98"/>
     </row>
     <row r="49" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="87"/>
-      <c r="C49" s="89"/>
-      <c r="D49" s="90"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="104"/>
       <c r="E49" s="47" t="s">
         <v>8</v>
       </c>
@@ -4623,14 +4623,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL49" s="93"/>
-      <c r="AM49" s="95"/>
-      <c r="AN49" s="97"/>
+      <c r="AL49" s="107"/>
+      <c r="AM49" s="108"/>
+      <c r="AN49" s="109"/>
     </row>
     <row r="50" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="88"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="92"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="106"/>
       <c r="E50" s="48" t="s">
         <v>9</v>
       </c>
@@ -4669,14 +4669,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL50" s="94"/>
-      <c r="AM50" s="96"/>
+      <c r="AL50" s="92"/>
+      <c r="AM50" s="95"/>
       <c r="AN50" s="98"/>
     </row>
     <row r="51" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="87"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="90"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="104"/>
       <c r="E51" s="47" t="s">
         <v>8</v>
       </c>
@@ -4715,14 +4715,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL51" s="93"/>
-      <c r="AM51" s="95"/>
-      <c r="AN51" s="97"/>
+      <c r="AL51" s="107"/>
+      <c r="AM51" s="108"/>
+      <c r="AN51" s="109"/>
     </row>
     <row r="52" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="88"/>
-      <c r="C52" s="91"/>
-      <c r="D52" s="92"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="106"/>
       <c r="E52" s="48" t="s">
         <v>9</v>
       </c>
@@ -4761,14 +4761,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL52" s="94"/>
-      <c r="AM52" s="96"/>
+      <c r="AL52" s="92"/>
+      <c r="AM52" s="95"/>
       <c r="AN52" s="98"/>
     </row>
     <row r="53" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="87"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="90"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="103"/>
+      <c r="D53" s="104"/>
       <c r="E53" s="47" t="s">
         <v>8</v>
       </c>
@@ -4807,14 +4807,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL53" s="93"/>
-      <c r="AM53" s="95"/>
-      <c r="AN53" s="97"/>
+      <c r="AL53" s="107"/>
+      <c r="AM53" s="108"/>
+      <c r="AN53" s="109"/>
     </row>
     <row r="54" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="88"/>
-      <c r="C54" s="91"/>
-      <c r="D54" s="92"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="106"/>
       <c r="E54" s="48" t="s">
         <v>9</v>
       </c>
@@ -4853,14 +4853,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL54" s="94"/>
-      <c r="AM54" s="96"/>
+      <c r="AL54" s="92"/>
+      <c r="AM54" s="95"/>
       <c r="AN54" s="98"/>
     </row>
     <row r="55" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="87"/>
-      <c r="C55" s="89"/>
-      <c r="D55" s="90"/>
+      <c r="B55" s="102"/>
+      <c r="C55" s="103"/>
+      <c r="D55" s="104"/>
       <c r="E55" s="47" t="s">
         <v>8</v>
       </c>
@@ -4899,14 +4899,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL55" s="93"/>
-      <c r="AM55" s="95"/>
-      <c r="AN55" s="97"/>
+      <c r="AL55" s="107"/>
+      <c r="AM55" s="108"/>
+      <c r="AN55" s="109"/>
     </row>
     <row r="56" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="88"/>
-      <c r="C56" s="91"/>
-      <c r="D56" s="92"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="106"/>
       <c r="E56" s="48" t="s">
         <v>9</v>
       </c>
@@ -4945,14 +4945,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL56" s="94"/>
-      <c r="AM56" s="96"/>
+      <c r="AL56" s="92"/>
+      <c r="AM56" s="95"/>
       <c r="AN56" s="98"/>
     </row>
     <row r="57" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="99"/>
-      <c r="C57" s="101"/>
-      <c r="D57" s="102"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="113"/>
+      <c r="D57" s="114"/>
       <c r="E57" s="49" t="s">
         <v>8</v>
       </c>
@@ -4991,14 +4991,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL57" s="103"/>
-      <c r="AM57" s="105"/>
-      <c r="AN57" s="107"/>
+      <c r="AL57" s="90"/>
+      <c r="AM57" s="93"/>
+      <c r="AN57" s="96"/>
     </row>
     <row r="58" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="100"/>
-      <c r="C58" s="101"/>
-      <c r="D58" s="102"/>
+      <c r="B58" s="112"/>
+      <c r="C58" s="113"/>
+      <c r="D58" s="114"/>
       <c r="E58" s="50" t="s">
         <v>9</v>
       </c>
@@ -5037,14 +5037,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL58" s="104"/>
-      <c r="AM58" s="106"/>
-      <c r="AN58" s="108"/>
+      <c r="AL58" s="115"/>
+      <c r="AM58" s="116"/>
+      <c r="AN58" s="117"/>
     </row>
     <row r="59" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="87"/>
-      <c r="C59" s="89"/>
-      <c r="D59" s="90"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="103"/>
+      <c r="D59" s="104"/>
       <c r="E59" s="47" t="s">
         <v>8</v>
       </c>
@@ -5083,14 +5083,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL59" s="93"/>
-      <c r="AM59" s="95"/>
-      <c r="AN59" s="97"/>
+      <c r="AL59" s="107"/>
+      <c r="AM59" s="108"/>
+      <c r="AN59" s="109"/>
     </row>
     <row r="60" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="88"/>
-      <c r="C60" s="91"/>
-      <c r="D60" s="92"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="105"/>
+      <c r="D60" s="106"/>
       <c r="E60" s="48" t="s">
         <v>9</v>
       </c>
@@ -5129,14 +5129,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL60" s="94"/>
-      <c r="AM60" s="96"/>
+      <c r="AL60" s="92"/>
+      <c r="AM60" s="95"/>
       <c r="AN60" s="98"/>
     </row>
     <row r="61" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="87"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="90"/>
+      <c r="B61" s="102"/>
+      <c r="C61" s="103"/>
+      <c r="D61" s="104"/>
       <c r="E61" s="47" t="s">
         <v>8</v>
       </c>
@@ -5175,14 +5175,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL61" s="93"/>
-      <c r="AM61" s="95"/>
-      <c r="AN61" s="97"/>
+      <c r="AL61" s="107"/>
+      <c r="AM61" s="108"/>
+      <c r="AN61" s="109"/>
     </row>
     <row r="62" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="88"/>
-      <c r="C62" s="91"/>
-      <c r="D62" s="92"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="105"/>
+      <c r="D62" s="106"/>
       <c r="E62" s="48" t="s">
         <v>9</v>
       </c>
@@ -5221,14 +5221,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL62" s="94"/>
-      <c r="AM62" s="96"/>
+      <c r="AL62" s="92"/>
+      <c r="AM62" s="95"/>
       <c r="AN62" s="98"/>
     </row>
     <row r="63" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="87"/>
-      <c r="C63" s="89"/>
-      <c r="D63" s="90"/>
+      <c r="B63" s="102"/>
+      <c r="C63" s="103"/>
+      <c r="D63" s="104"/>
       <c r="E63" s="47" t="s">
         <v>8</v>
       </c>
@@ -5267,14 +5267,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL63" s="93"/>
-      <c r="AM63" s="95"/>
-      <c r="AN63" s="97"/>
+      <c r="AL63" s="107"/>
+      <c r="AM63" s="108"/>
+      <c r="AN63" s="109"/>
     </row>
     <row r="64" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="88"/>
-      <c r="C64" s="91"/>
-      <c r="D64" s="92"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="105"/>
+      <c r="D64" s="106"/>
       <c r="E64" s="48" t="s">
         <v>9</v>
       </c>
@@ -5313,14 +5313,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL64" s="94"/>
-      <c r="AM64" s="96"/>
+      <c r="AL64" s="92"/>
+      <c r="AM64" s="95"/>
       <c r="AN64" s="98"/>
     </row>
     <row r="65" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="87"/>
-      <c r="C65" s="89"/>
-      <c r="D65" s="90"/>
+      <c r="B65" s="102"/>
+      <c r="C65" s="103"/>
+      <c r="D65" s="104"/>
       <c r="E65" s="47" t="s">
         <v>8</v>
       </c>
@@ -5359,14 +5359,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL65" s="93"/>
-      <c r="AM65" s="95"/>
-      <c r="AN65" s="97"/>
+      <c r="AL65" s="107"/>
+      <c r="AM65" s="108"/>
+      <c r="AN65" s="109"/>
     </row>
     <row r="66" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="88"/>
-      <c r="C66" s="91"/>
-      <c r="D66" s="92"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="105"/>
+      <c r="D66" s="106"/>
       <c r="E66" s="48" t="s">
         <v>9</v>
       </c>
@@ -5405,14 +5405,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL66" s="94"/>
-      <c r="AM66" s="96"/>
+      <c r="AL66" s="92"/>
+      <c r="AM66" s="95"/>
       <c r="AN66" s="98"/>
     </row>
     <row r="67" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="87"/>
-      <c r="C67" s="89"/>
-      <c r="D67" s="90"/>
+      <c r="B67" s="102"/>
+      <c r="C67" s="103"/>
+      <c r="D67" s="104"/>
       <c r="E67" s="47" t="s">
         <v>8</v>
       </c>
@@ -5451,14 +5451,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL67" s="93"/>
-      <c r="AM67" s="95"/>
-      <c r="AN67" s="97"/>
+      <c r="AL67" s="107"/>
+      <c r="AM67" s="108"/>
+      <c r="AN67" s="109"/>
     </row>
     <row r="68" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="88"/>
-      <c r="C68" s="91"/>
-      <c r="D68" s="92"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="105"/>
+      <c r="D68" s="106"/>
       <c r="E68" s="48" t="s">
         <v>9</v>
       </c>
@@ -5497,14 +5497,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL68" s="94"/>
-      <c r="AM68" s="96"/>
+      <c r="AL68" s="92"/>
+      <c r="AM68" s="95"/>
       <c r="AN68" s="98"/>
     </row>
     <row r="69" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="87"/>
-      <c r="C69" s="89"/>
-      <c r="D69" s="90"/>
+      <c r="B69" s="102"/>
+      <c r="C69" s="103"/>
+      <c r="D69" s="104"/>
       <c r="E69" s="47" t="s">
         <v>8</v>
       </c>
@@ -5543,14 +5543,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL69" s="93"/>
-      <c r="AM69" s="95"/>
-      <c r="AN69" s="97"/>
+      <c r="AL69" s="107"/>
+      <c r="AM69" s="108"/>
+      <c r="AN69" s="109"/>
     </row>
     <row r="70" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="88"/>
-      <c r="C70" s="91"/>
-      <c r="D70" s="92"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="105"/>
+      <c r="D70" s="106"/>
       <c r="E70" s="48" t="s">
         <v>9</v>
       </c>
@@ -5589,14 +5589,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL70" s="94"/>
-      <c r="AM70" s="96"/>
+      <c r="AL70" s="92"/>
+      <c r="AM70" s="95"/>
       <c r="AN70" s="98"/>
     </row>
     <row r="71" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="87"/>
-      <c r="C71" s="89"/>
-      <c r="D71" s="90"/>
+      <c r="B71" s="102"/>
+      <c r="C71" s="103"/>
+      <c r="D71" s="104"/>
       <c r="E71" s="47" t="s">
         <v>8</v>
       </c>
@@ -5635,14 +5635,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL71" s="93"/>
-      <c r="AM71" s="95"/>
-      <c r="AN71" s="97"/>
+      <c r="AL71" s="107"/>
+      <c r="AM71" s="108"/>
+      <c r="AN71" s="109"/>
     </row>
     <row r="72" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="88"/>
-      <c r="C72" s="91"/>
-      <c r="D72" s="92"/>
+      <c r="B72" s="85"/>
+      <c r="C72" s="105"/>
+      <c r="D72" s="106"/>
       <c r="E72" s="48" t="s">
         <v>9</v>
       </c>
@@ -5681,14 +5681,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL72" s="94"/>
-      <c r="AM72" s="96"/>
+      <c r="AL72" s="92"/>
+      <c r="AM72" s="95"/>
       <c r="AN72" s="98"/>
     </row>
     <row r="73" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="87"/>
-      <c r="C73" s="89"/>
-      <c r="D73" s="90"/>
+      <c r="B73" s="102"/>
+      <c r="C73" s="103"/>
+      <c r="D73" s="104"/>
       <c r="E73" s="47" t="s">
         <v>8</v>
       </c>
@@ -5727,14 +5727,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL73" s="93"/>
-      <c r="AM73" s="95"/>
-      <c r="AN73" s="97"/>
+      <c r="AL73" s="107"/>
+      <c r="AM73" s="108"/>
+      <c r="AN73" s="109"/>
     </row>
     <row r="74" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="88"/>
-      <c r="C74" s="91"/>
-      <c r="D74" s="92"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="105"/>
+      <c r="D74" s="106"/>
       <c r="E74" s="48" t="s">
         <v>9</v>
       </c>
@@ -5773,14 +5773,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL74" s="94"/>
-      <c r="AM74" s="96"/>
+      <c r="AL74" s="92"/>
+      <c r="AM74" s="95"/>
       <c r="AN74" s="98"/>
     </row>
     <row r="75" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="87"/>
-      <c r="C75" s="89"/>
-      <c r="D75" s="90"/>
+      <c r="B75" s="102"/>
+      <c r="C75" s="103"/>
+      <c r="D75" s="104"/>
       <c r="E75" s="47" t="s">
         <v>8</v>
       </c>
@@ -5819,14 +5819,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL75" s="93"/>
-      <c r="AM75" s="95"/>
-      <c r="AN75" s="97"/>
+      <c r="AL75" s="107"/>
+      <c r="AM75" s="108"/>
+      <c r="AN75" s="109"/>
     </row>
     <row r="76" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="88"/>
-      <c r="C76" s="91"/>
-      <c r="D76" s="92"/>
+      <c r="B76" s="85"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="106"/>
       <c r="E76" s="48" t="s">
         <v>9</v>
       </c>
@@ -5865,14 +5865,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL76" s="94"/>
-      <c r="AM76" s="96"/>
+      <c r="AL76" s="92"/>
+      <c r="AM76" s="95"/>
       <c r="AN76" s="98"/>
     </row>
     <row r="77" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="87"/>
-      <c r="C77" s="89"/>
-      <c r="D77" s="90"/>
+      <c r="B77" s="102"/>
+      <c r="C77" s="103"/>
+      <c r="D77" s="104"/>
       <c r="E77" s="47" t="s">
         <v>8</v>
       </c>
@@ -5911,14 +5911,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL77" s="93"/>
-      <c r="AM77" s="95"/>
-      <c r="AN77" s="97"/>
+      <c r="AL77" s="107"/>
+      <c r="AM77" s="108"/>
+      <c r="AN77" s="109"/>
     </row>
     <row r="78" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="88"/>
-      <c r="C78" s="91"/>
-      <c r="D78" s="92"/>
+      <c r="B78" s="85"/>
+      <c r="C78" s="105"/>
+      <c r="D78" s="106"/>
       <c r="E78" s="48" t="s">
         <v>9</v>
       </c>
@@ -5957,14 +5957,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL78" s="94"/>
-      <c r="AM78" s="96"/>
+      <c r="AL78" s="92"/>
+      <c r="AM78" s="95"/>
       <c r="AN78" s="98"/>
     </row>
     <row r="79" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="87"/>
-      <c r="C79" s="89"/>
-      <c r="D79" s="90"/>
+      <c r="B79" s="102"/>
+      <c r="C79" s="103"/>
+      <c r="D79" s="104"/>
       <c r="E79" s="47" t="s">
         <v>8</v>
       </c>
@@ -6003,14 +6003,14 @@
         <f t="shared" ref="AK79:AK142" si="1">COUNTIFS(F79:AJ79,"x")</f>
         <v>0</v>
       </c>
-      <c r="AL79" s="93"/>
-      <c r="AM79" s="95"/>
-      <c r="AN79" s="97"/>
+      <c r="AL79" s="107"/>
+      <c r="AM79" s="108"/>
+      <c r="AN79" s="109"/>
     </row>
     <row r="80" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="88"/>
-      <c r="C80" s="91"/>
-      <c r="D80" s="92"/>
+      <c r="B80" s="85"/>
+      <c r="C80" s="105"/>
+      <c r="D80" s="106"/>
       <c r="E80" s="48" t="s">
         <v>9</v>
       </c>
@@ -6049,14 +6049,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL80" s="94"/>
-      <c r="AM80" s="96"/>
+      <c r="AL80" s="92"/>
+      <c r="AM80" s="95"/>
       <c r="AN80" s="98"/>
     </row>
     <row r="81" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="87"/>
-      <c r="C81" s="89"/>
-      <c r="D81" s="90"/>
+      <c r="B81" s="102"/>
+      <c r="C81" s="103"/>
+      <c r="D81" s="104"/>
       <c r="E81" s="47" t="s">
         <v>8</v>
       </c>
@@ -6095,14 +6095,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL81" s="93"/>
-      <c r="AM81" s="95"/>
-      <c r="AN81" s="97"/>
+      <c r="AL81" s="107"/>
+      <c r="AM81" s="108"/>
+      <c r="AN81" s="109"/>
     </row>
     <row r="82" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="88"/>
-      <c r="C82" s="91"/>
-      <c r="D82" s="92"/>
+      <c r="B82" s="85"/>
+      <c r="C82" s="105"/>
+      <c r="D82" s="106"/>
       <c r="E82" s="48" t="s">
         <v>9</v>
       </c>
@@ -6141,14 +6141,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL82" s="94"/>
-      <c r="AM82" s="96"/>
+      <c r="AL82" s="92"/>
+      <c r="AM82" s="95"/>
       <c r="AN82" s="98"/>
     </row>
     <row r="83" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="87"/>
-      <c r="C83" s="89"/>
-      <c r="D83" s="90"/>
+      <c r="B83" s="102"/>
+      <c r="C83" s="103"/>
+      <c r="D83" s="104"/>
       <c r="E83" s="47" t="s">
         <v>8</v>
       </c>
@@ -6187,14 +6187,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL83" s="93"/>
-      <c r="AM83" s="95"/>
-      <c r="AN83" s="97"/>
+      <c r="AL83" s="107"/>
+      <c r="AM83" s="108"/>
+      <c r="AN83" s="109"/>
     </row>
     <row r="84" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="88"/>
-      <c r="C84" s="91"/>
-      <c r="D84" s="92"/>
+      <c r="B84" s="85"/>
+      <c r="C84" s="105"/>
+      <c r="D84" s="106"/>
       <c r="E84" s="48" t="s">
         <v>9</v>
       </c>
@@ -6233,14 +6233,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL84" s="94"/>
-      <c r="AM84" s="96"/>
+      <c r="AL84" s="92"/>
+      <c r="AM84" s="95"/>
       <c r="AN84" s="98"/>
     </row>
     <row r="85" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="87"/>
-      <c r="C85" s="89"/>
-      <c r="D85" s="90"/>
+      <c r="B85" s="102"/>
+      <c r="C85" s="103"/>
+      <c r="D85" s="104"/>
       <c r="E85" s="47" t="s">
         <v>8</v>
       </c>
@@ -6279,14 +6279,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL85" s="93"/>
-      <c r="AM85" s="95"/>
-      <c r="AN85" s="97"/>
+      <c r="AL85" s="107"/>
+      <c r="AM85" s="108"/>
+      <c r="AN85" s="109"/>
     </row>
     <row r="86" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="88"/>
-      <c r="C86" s="91"/>
-      <c r="D86" s="92"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="105"/>
+      <c r="D86" s="106"/>
       <c r="E86" s="48" t="s">
         <v>9</v>
       </c>
@@ -6325,14 +6325,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL86" s="94"/>
-      <c r="AM86" s="96"/>
+      <c r="AL86" s="92"/>
+      <c r="AM86" s="95"/>
       <c r="AN86" s="98"/>
     </row>
     <row r="87" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="87"/>
-      <c r="C87" s="89"/>
-      <c r="D87" s="90"/>
+      <c r="B87" s="102"/>
+      <c r="C87" s="103"/>
+      <c r="D87" s="104"/>
       <c r="E87" s="47" t="s">
         <v>8</v>
       </c>
@@ -6371,14 +6371,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL87" s="93"/>
-      <c r="AM87" s="95"/>
-      <c r="AN87" s="97"/>
+      <c r="AL87" s="107"/>
+      <c r="AM87" s="108"/>
+      <c r="AN87" s="109"/>
     </row>
     <row r="88" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="88"/>
-      <c r="C88" s="91"/>
-      <c r="D88" s="92"/>
+      <c r="B88" s="85"/>
+      <c r="C88" s="105"/>
+      <c r="D88" s="106"/>
       <c r="E88" s="48" t="s">
         <v>9</v>
       </c>
@@ -6417,14 +6417,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL88" s="94"/>
-      <c r="AM88" s="96"/>
+      <c r="AL88" s="92"/>
+      <c r="AM88" s="95"/>
       <c r="AN88" s="98"/>
     </row>
     <row r="89" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="87"/>
-      <c r="C89" s="89"/>
-      <c r="D89" s="90"/>
+      <c r="B89" s="102"/>
+      <c r="C89" s="103"/>
+      <c r="D89" s="104"/>
       <c r="E89" s="47" t="s">
         <v>8</v>
       </c>
@@ -6463,14 +6463,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL89" s="93"/>
-      <c r="AM89" s="95"/>
-      <c r="AN89" s="97"/>
+      <c r="AL89" s="107"/>
+      <c r="AM89" s="108"/>
+      <c r="AN89" s="109"/>
     </row>
     <row r="90" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="88"/>
-      <c r="C90" s="91"/>
-      <c r="D90" s="92"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="105"/>
+      <c r="D90" s="106"/>
       <c r="E90" s="48" t="s">
         <v>9</v>
       </c>
@@ -6509,14 +6509,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL90" s="94"/>
-      <c r="AM90" s="96"/>
+      <c r="AL90" s="92"/>
+      <c r="AM90" s="95"/>
       <c r="AN90" s="98"/>
     </row>
     <row r="91" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="87"/>
-      <c r="C91" s="89"/>
-      <c r="D91" s="90"/>
+      <c r="B91" s="102"/>
+      <c r="C91" s="103"/>
+      <c r="D91" s="104"/>
       <c r="E91" s="47" t="s">
         <v>8</v>
       </c>
@@ -6555,14 +6555,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL91" s="93"/>
-      <c r="AM91" s="95"/>
-      <c r="AN91" s="97"/>
+      <c r="AL91" s="107"/>
+      <c r="AM91" s="108"/>
+      <c r="AN91" s="109"/>
     </row>
     <row r="92" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="88"/>
-      <c r="C92" s="91"/>
-      <c r="D92" s="92"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="105"/>
+      <c r="D92" s="106"/>
       <c r="E92" s="48" t="s">
         <v>9</v>
       </c>
@@ -6601,14 +6601,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL92" s="94"/>
-      <c r="AM92" s="96"/>
+      <c r="AL92" s="92"/>
+      <c r="AM92" s="95"/>
       <c r="AN92" s="98"/>
     </row>
     <row r="93" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="87"/>
-      <c r="C93" s="89"/>
-      <c r="D93" s="90"/>
+      <c r="B93" s="102"/>
+      <c r="C93" s="103"/>
+      <c r="D93" s="104"/>
       <c r="E93" s="47" t="s">
         <v>8</v>
       </c>
@@ -6647,14 +6647,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL93" s="93"/>
-      <c r="AM93" s="95"/>
-      <c r="AN93" s="97"/>
+      <c r="AL93" s="107"/>
+      <c r="AM93" s="108"/>
+      <c r="AN93" s="109"/>
     </row>
     <row r="94" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="88"/>
-      <c r="C94" s="91"/>
-      <c r="D94" s="92"/>
+      <c r="B94" s="85"/>
+      <c r="C94" s="105"/>
+      <c r="D94" s="106"/>
       <c r="E94" s="48" t="s">
         <v>9</v>
       </c>
@@ -6693,14 +6693,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL94" s="94"/>
-      <c r="AM94" s="96"/>
+      <c r="AL94" s="92"/>
+      <c r="AM94" s="95"/>
       <c r="AN94" s="98"/>
     </row>
     <row r="95" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="87"/>
-      <c r="C95" s="89"/>
-      <c r="D95" s="90"/>
+      <c r="B95" s="102"/>
+      <c r="C95" s="103"/>
+      <c r="D95" s="104"/>
       <c r="E95" s="47" t="s">
         <v>8</v>
       </c>
@@ -6739,14 +6739,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL95" s="93"/>
-      <c r="AM95" s="95"/>
-      <c r="AN95" s="97"/>
+      <c r="AL95" s="107"/>
+      <c r="AM95" s="108"/>
+      <c r="AN95" s="109"/>
     </row>
     <row r="96" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="88"/>
-      <c r="C96" s="91"/>
-      <c r="D96" s="92"/>
+      <c r="B96" s="85"/>
+      <c r="C96" s="105"/>
+      <c r="D96" s="106"/>
       <c r="E96" s="48" t="s">
         <v>9</v>
       </c>
@@ -6785,14 +6785,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL96" s="94"/>
-      <c r="AM96" s="96"/>
+      <c r="AL96" s="92"/>
+      <c r="AM96" s="95"/>
       <c r="AN96" s="98"/>
     </row>
     <row r="97" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="87"/>
-      <c r="C97" s="89"/>
-      <c r="D97" s="90"/>
+      <c r="B97" s="102"/>
+      <c r="C97" s="103"/>
+      <c r="D97" s="104"/>
       <c r="E97" s="47" t="s">
         <v>8</v>
       </c>
@@ -6831,14 +6831,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL97" s="93"/>
-      <c r="AM97" s="95"/>
-      <c r="AN97" s="97"/>
+      <c r="AL97" s="107"/>
+      <c r="AM97" s="108"/>
+      <c r="AN97" s="109"/>
     </row>
     <row r="98" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="88"/>
-      <c r="C98" s="91"/>
-      <c r="D98" s="92"/>
+      <c r="B98" s="85"/>
+      <c r="C98" s="105"/>
+      <c r="D98" s="106"/>
       <c r="E98" s="48" t="s">
         <v>9</v>
       </c>
@@ -6877,14 +6877,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL98" s="94"/>
-      <c r="AM98" s="96"/>
+      <c r="AL98" s="92"/>
+      <c r="AM98" s="95"/>
       <c r="AN98" s="98"/>
     </row>
     <row r="99" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="87"/>
-      <c r="C99" s="89"/>
-      <c r="D99" s="90"/>
+      <c r="B99" s="102"/>
+      <c r="C99" s="103"/>
+      <c r="D99" s="104"/>
       <c r="E99" s="47" t="s">
         <v>8</v>
       </c>
@@ -6923,14 +6923,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL99" s="93"/>
-      <c r="AM99" s="95"/>
-      <c r="AN99" s="97"/>
+      <c r="AL99" s="107"/>
+      <c r="AM99" s="108"/>
+      <c r="AN99" s="109"/>
     </row>
     <row r="100" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="88"/>
-      <c r="C100" s="91"/>
-      <c r="D100" s="92"/>
+      <c r="B100" s="85"/>
+      <c r="C100" s="105"/>
+      <c r="D100" s="106"/>
       <c r="E100" s="48" t="s">
         <v>9</v>
       </c>
@@ -6969,14 +6969,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL100" s="94"/>
-      <c r="AM100" s="96"/>
+      <c r="AL100" s="92"/>
+      <c r="AM100" s="95"/>
       <c r="AN100" s="98"/>
     </row>
     <row r="101" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="87"/>
-      <c r="C101" s="89"/>
-      <c r="D101" s="90"/>
+      <c r="B101" s="102"/>
+      <c r="C101" s="103"/>
+      <c r="D101" s="104"/>
       <c r="E101" s="47" t="s">
         <v>8</v>
       </c>
@@ -7015,14 +7015,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL101" s="93"/>
-      <c r="AM101" s="95"/>
-      <c r="AN101" s="97"/>
+      <c r="AL101" s="107"/>
+      <c r="AM101" s="108"/>
+      <c r="AN101" s="109"/>
     </row>
     <row r="102" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="88"/>
-      <c r="C102" s="91"/>
-      <c r="D102" s="92"/>
+      <c r="B102" s="85"/>
+      <c r="C102" s="105"/>
+      <c r="D102" s="106"/>
       <c r="E102" s="48" t="s">
         <v>9</v>
       </c>
@@ -7061,14 +7061,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL102" s="94"/>
-      <c r="AM102" s="96"/>
+      <c r="AL102" s="92"/>
+      <c r="AM102" s="95"/>
       <c r="AN102" s="98"/>
     </row>
     <row r="103" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="87"/>
-      <c r="C103" s="89"/>
-      <c r="D103" s="90"/>
+      <c r="B103" s="102"/>
+      <c r="C103" s="103"/>
+      <c r="D103" s="104"/>
       <c r="E103" s="47" t="s">
         <v>8</v>
       </c>
@@ -7107,14 +7107,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL103" s="93"/>
-      <c r="AM103" s="95"/>
-      <c r="AN103" s="97"/>
+      <c r="AL103" s="107"/>
+      <c r="AM103" s="108"/>
+      <c r="AN103" s="109"/>
     </row>
     <row r="104" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="88"/>
-      <c r="C104" s="91"/>
-      <c r="D104" s="92"/>
+      <c r="B104" s="85"/>
+      <c r="C104" s="105"/>
+      <c r="D104" s="106"/>
       <c r="E104" s="48" t="s">
         <v>9</v>
       </c>
@@ -7153,14 +7153,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL104" s="94"/>
-      <c r="AM104" s="96"/>
+      <c r="AL104" s="92"/>
+      <c r="AM104" s="95"/>
       <c r="AN104" s="98"/>
     </row>
     <row r="105" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="87"/>
-      <c r="C105" s="89"/>
-      <c r="D105" s="90"/>
+      <c r="B105" s="102"/>
+      <c r="C105" s="103"/>
+      <c r="D105" s="104"/>
       <c r="E105" s="47" t="s">
         <v>8</v>
       </c>
@@ -7199,14 +7199,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL105" s="93"/>
-      <c r="AM105" s="95"/>
-      <c r="AN105" s="97"/>
+      <c r="AL105" s="107"/>
+      <c r="AM105" s="108"/>
+      <c r="AN105" s="109"/>
     </row>
     <row r="106" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="88"/>
-      <c r="C106" s="91"/>
-      <c r="D106" s="92"/>
+      <c r="B106" s="85"/>
+      <c r="C106" s="105"/>
+      <c r="D106" s="106"/>
       <c r="E106" s="48" t="s">
         <v>9</v>
       </c>
@@ -7245,14 +7245,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL106" s="94"/>
-      <c r="AM106" s="96"/>
+      <c r="AL106" s="92"/>
+      <c r="AM106" s="95"/>
       <c r="AN106" s="98"/>
     </row>
     <row r="107" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="87"/>
-      <c r="C107" s="89"/>
-      <c r="D107" s="90"/>
+      <c r="B107" s="102"/>
+      <c r="C107" s="103"/>
+      <c r="D107" s="104"/>
       <c r="E107" s="47" t="s">
         <v>8</v>
       </c>
@@ -7291,14 +7291,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL107" s="93"/>
-      <c r="AM107" s="95"/>
-      <c r="AN107" s="97"/>
+      <c r="AL107" s="107"/>
+      <c r="AM107" s="108"/>
+      <c r="AN107" s="109"/>
     </row>
     <row r="108" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="88"/>
-      <c r="C108" s="91"/>
-      <c r="D108" s="92"/>
+      <c r="B108" s="85"/>
+      <c r="C108" s="105"/>
+      <c r="D108" s="106"/>
       <c r="E108" s="48" t="s">
         <v>9</v>
       </c>
@@ -7337,14 +7337,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL108" s="94"/>
-      <c r="AM108" s="96"/>
+      <c r="AL108" s="92"/>
+      <c r="AM108" s="95"/>
       <c r="AN108" s="98"/>
     </row>
     <row r="109" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="87"/>
-      <c r="C109" s="89"/>
-      <c r="D109" s="90"/>
+      <c r="B109" s="102"/>
+      <c r="C109" s="103"/>
+      <c r="D109" s="104"/>
       <c r="E109" s="47" t="s">
         <v>8</v>
       </c>
@@ -7383,14 +7383,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL109" s="93"/>
-      <c r="AM109" s="95"/>
-      <c r="AN109" s="97"/>
+      <c r="AL109" s="107"/>
+      <c r="AM109" s="108"/>
+      <c r="AN109" s="109"/>
     </row>
     <row r="110" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="88"/>
-      <c r="C110" s="91"/>
-      <c r="D110" s="92"/>
+      <c r="B110" s="85"/>
+      <c r="C110" s="105"/>
+      <c r="D110" s="106"/>
       <c r="E110" s="48" t="s">
         <v>9</v>
       </c>
@@ -7429,14 +7429,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL110" s="94"/>
-      <c r="AM110" s="96"/>
+      <c r="AL110" s="92"/>
+      <c r="AM110" s="95"/>
       <c r="AN110" s="98"/>
     </row>
     <row r="111" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="87"/>
-      <c r="C111" s="89"/>
-      <c r="D111" s="90"/>
+      <c r="B111" s="102"/>
+      <c r="C111" s="103"/>
+      <c r="D111" s="104"/>
       <c r="E111" s="47" t="s">
         <v>8</v>
       </c>
@@ -7475,14 +7475,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL111" s="93"/>
-      <c r="AM111" s="95"/>
-      <c r="AN111" s="97"/>
+      <c r="AL111" s="107"/>
+      <c r="AM111" s="108"/>
+      <c r="AN111" s="109"/>
     </row>
     <row r="112" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="88"/>
-      <c r="C112" s="91"/>
-      <c r="D112" s="92"/>
+      <c r="B112" s="85"/>
+      <c r="C112" s="105"/>
+      <c r="D112" s="106"/>
       <c r="E112" s="48" t="s">
         <v>9</v>
       </c>
@@ -7521,14 +7521,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL112" s="94"/>
-      <c r="AM112" s="96"/>
+      <c r="AL112" s="92"/>
+      <c r="AM112" s="95"/>
       <c r="AN112" s="98"/>
     </row>
     <row r="113" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="87"/>
-      <c r="C113" s="89"/>
-      <c r="D113" s="90"/>
+      <c r="B113" s="102"/>
+      <c r="C113" s="103"/>
+      <c r="D113" s="104"/>
       <c r="E113" s="47" t="s">
         <v>8</v>
       </c>
@@ -7567,14 +7567,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL113" s="93"/>
-      <c r="AM113" s="95"/>
-      <c r="AN113" s="97"/>
+      <c r="AL113" s="107"/>
+      <c r="AM113" s="108"/>
+      <c r="AN113" s="109"/>
     </row>
     <row r="114" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="88"/>
-      <c r="C114" s="91"/>
-      <c r="D114" s="92"/>
+      <c r="B114" s="85"/>
+      <c r="C114" s="105"/>
+      <c r="D114" s="106"/>
       <c r="E114" s="48" t="s">
         <v>9</v>
       </c>
@@ -7613,14 +7613,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL114" s="94"/>
-      <c r="AM114" s="96"/>
+      <c r="AL114" s="92"/>
+      <c r="AM114" s="95"/>
       <c r="AN114" s="98"/>
     </row>
     <row r="115" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="87"/>
-      <c r="C115" s="89"/>
-      <c r="D115" s="90"/>
+      <c r="B115" s="102"/>
+      <c r="C115" s="103"/>
+      <c r="D115" s="104"/>
       <c r="E115" s="47" t="s">
         <v>8</v>
       </c>
@@ -7659,14 +7659,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL115" s="93"/>
-      <c r="AM115" s="95"/>
-      <c r="AN115" s="97"/>
+      <c r="AL115" s="107"/>
+      <c r="AM115" s="108"/>
+      <c r="AN115" s="109"/>
     </row>
     <row r="116" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="88"/>
-      <c r="C116" s="91"/>
-      <c r="D116" s="92"/>
+      <c r="B116" s="85"/>
+      <c r="C116" s="105"/>
+      <c r="D116" s="106"/>
       <c r="E116" s="48" t="s">
         <v>9</v>
       </c>
@@ -7705,14 +7705,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL116" s="94"/>
-      <c r="AM116" s="96"/>
+      <c r="AL116" s="92"/>
+      <c r="AM116" s="95"/>
       <c r="AN116" s="98"/>
     </row>
     <row r="117" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="87"/>
-      <c r="C117" s="89"/>
-      <c r="D117" s="90"/>
+      <c r="B117" s="102"/>
+      <c r="C117" s="103"/>
+      <c r="D117" s="104"/>
       <c r="E117" s="47" t="s">
         <v>8</v>
       </c>
@@ -7751,14 +7751,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL117" s="93"/>
-      <c r="AM117" s="95"/>
-      <c r="AN117" s="97"/>
+      <c r="AL117" s="107"/>
+      <c r="AM117" s="108"/>
+      <c r="AN117" s="109"/>
     </row>
     <row r="118" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="88"/>
-      <c r="C118" s="91"/>
-      <c r="D118" s="92"/>
+      <c r="B118" s="85"/>
+      <c r="C118" s="105"/>
+      <c r="D118" s="106"/>
       <c r="E118" s="48" t="s">
         <v>9</v>
       </c>
@@ -7797,14 +7797,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL118" s="94"/>
-      <c r="AM118" s="96"/>
+      <c r="AL118" s="92"/>
+      <c r="AM118" s="95"/>
       <c r="AN118" s="98"/>
     </row>
     <row r="119" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="87"/>
-      <c r="C119" s="89"/>
-      <c r="D119" s="90"/>
+      <c r="B119" s="102"/>
+      <c r="C119" s="103"/>
+      <c r="D119" s="104"/>
       <c r="E119" s="47" t="s">
         <v>8</v>
       </c>
@@ -7843,14 +7843,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL119" s="93"/>
-      <c r="AM119" s="95"/>
-      <c r="AN119" s="97"/>
+      <c r="AL119" s="107"/>
+      <c r="AM119" s="108"/>
+      <c r="AN119" s="109"/>
     </row>
     <row r="120" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="88"/>
-      <c r="C120" s="91"/>
-      <c r="D120" s="92"/>
+      <c r="B120" s="85"/>
+      <c r="C120" s="105"/>
+      <c r="D120" s="106"/>
       <c r="E120" s="48" t="s">
         <v>9</v>
       </c>
@@ -7889,14 +7889,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL120" s="94"/>
-      <c r="AM120" s="96"/>
+      <c r="AL120" s="92"/>
+      <c r="AM120" s="95"/>
       <c r="AN120" s="98"/>
     </row>
     <row r="121" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="87"/>
-      <c r="C121" s="89"/>
-      <c r="D121" s="90"/>
+      <c r="B121" s="102"/>
+      <c r="C121" s="103"/>
+      <c r="D121" s="104"/>
       <c r="E121" s="47" t="s">
         <v>8</v>
       </c>
@@ -7935,14 +7935,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL121" s="93"/>
-      <c r="AM121" s="95"/>
-      <c r="AN121" s="97"/>
+      <c r="AL121" s="107"/>
+      <c r="AM121" s="108"/>
+      <c r="AN121" s="109"/>
     </row>
     <row r="122" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="88"/>
-      <c r="C122" s="91"/>
-      <c r="D122" s="92"/>
+      <c r="B122" s="85"/>
+      <c r="C122" s="105"/>
+      <c r="D122" s="106"/>
       <c r="E122" s="48" t="s">
         <v>9</v>
       </c>
@@ -7981,14 +7981,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL122" s="94"/>
-      <c r="AM122" s="96"/>
+      <c r="AL122" s="92"/>
+      <c r="AM122" s="95"/>
       <c r="AN122" s="98"/>
     </row>
     <row r="123" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="87"/>
-      <c r="C123" s="89"/>
-      <c r="D123" s="90"/>
+      <c r="B123" s="102"/>
+      <c r="C123" s="103"/>
+      <c r="D123" s="104"/>
       <c r="E123" s="47" t="s">
         <v>8</v>
       </c>
@@ -8027,14 +8027,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL123" s="93"/>
-      <c r="AM123" s="95"/>
-      <c r="AN123" s="97"/>
+      <c r="AL123" s="107"/>
+      <c r="AM123" s="108"/>
+      <c r="AN123" s="109"/>
     </row>
     <row r="124" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="88"/>
-      <c r="C124" s="91"/>
-      <c r="D124" s="92"/>
+      <c r="B124" s="85"/>
+      <c r="C124" s="105"/>
+      <c r="D124" s="106"/>
       <c r="E124" s="48" t="s">
         <v>9</v>
       </c>
@@ -8073,14 +8073,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL124" s="94"/>
-      <c r="AM124" s="96"/>
+      <c r="AL124" s="92"/>
+      <c r="AM124" s="95"/>
       <c r="AN124" s="98"/>
     </row>
     <row r="125" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="87"/>
-      <c r="C125" s="89"/>
-      <c r="D125" s="90"/>
+      <c r="B125" s="102"/>
+      <c r="C125" s="103"/>
+      <c r="D125" s="104"/>
       <c r="E125" s="47" t="s">
         <v>8</v>
       </c>
@@ -8119,14 +8119,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL125" s="93"/>
-      <c r="AM125" s="95"/>
-      <c r="AN125" s="97"/>
+      <c r="AL125" s="107"/>
+      <c r="AM125" s="108"/>
+      <c r="AN125" s="109"/>
     </row>
     <row r="126" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="88"/>
-      <c r="C126" s="91"/>
-      <c r="D126" s="92"/>
+      <c r="B126" s="85"/>
+      <c r="C126" s="105"/>
+      <c r="D126" s="106"/>
       <c r="E126" s="48" t="s">
         <v>9</v>
       </c>
@@ -8165,14 +8165,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL126" s="94"/>
-      <c r="AM126" s="96"/>
+      <c r="AL126" s="92"/>
+      <c r="AM126" s="95"/>
       <c r="AN126" s="98"/>
     </row>
     <row r="127" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="87"/>
-      <c r="C127" s="89"/>
-      <c r="D127" s="90"/>
+      <c r="B127" s="102"/>
+      <c r="C127" s="103"/>
+      <c r="D127" s="104"/>
       <c r="E127" s="47" t="s">
         <v>8</v>
       </c>
@@ -8211,14 +8211,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL127" s="93"/>
-      <c r="AM127" s="95"/>
-      <c r="AN127" s="97"/>
+      <c r="AL127" s="107"/>
+      <c r="AM127" s="108"/>
+      <c r="AN127" s="109"/>
     </row>
     <row r="128" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="88"/>
-      <c r="C128" s="91"/>
-      <c r="D128" s="92"/>
+      <c r="B128" s="85"/>
+      <c r="C128" s="105"/>
+      <c r="D128" s="106"/>
       <c r="E128" s="48" t="s">
         <v>9</v>
       </c>
@@ -8257,14 +8257,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL128" s="94"/>
-      <c r="AM128" s="96"/>
+      <c r="AL128" s="92"/>
+      <c r="AM128" s="95"/>
       <c r="AN128" s="98"/>
     </row>
     <row r="129" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="87"/>
-      <c r="C129" s="89"/>
-      <c r="D129" s="90"/>
+      <c r="B129" s="102"/>
+      <c r="C129" s="103"/>
+      <c r="D129" s="104"/>
       <c r="E129" s="47" t="s">
         <v>8</v>
       </c>
@@ -8303,14 +8303,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL129" s="93"/>
-      <c r="AM129" s="95"/>
-      <c r="AN129" s="97"/>
+      <c r="AL129" s="107"/>
+      <c r="AM129" s="108"/>
+      <c r="AN129" s="109"/>
     </row>
     <row r="130" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="88"/>
-      <c r="C130" s="91"/>
-      <c r="D130" s="92"/>
+      <c r="B130" s="85"/>
+      <c r="C130" s="105"/>
+      <c r="D130" s="106"/>
       <c r="E130" s="48" t="s">
         <v>9</v>
       </c>
@@ -8349,14 +8349,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL130" s="94"/>
-      <c r="AM130" s="96"/>
+      <c r="AL130" s="92"/>
+      <c r="AM130" s="95"/>
       <c r="AN130" s="98"/>
     </row>
     <row r="131" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="87"/>
-      <c r="C131" s="89"/>
-      <c r="D131" s="90"/>
+      <c r="B131" s="102"/>
+      <c r="C131" s="103"/>
+      <c r="D131" s="104"/>
       <c r="E131" s="47" t="s">
         <v>8</v>
       </c>
@@ -8395,14 +8395,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL131" s="93"/>
-      <c r="AM131" s="95"/>
-      <c r="AN131" s="97"/>
+      <c r="AL131" s="107"/>
+      <c r="AM131" s="108"/>
+      <c r="AN131" s="109"/>
     </row>
     <row r="132" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="88"/>
-      <c r="C132" s="91"/>
-      <c r="D132" s="92"/>
+      <c r="B132" s="85"/>
+      <c r="C132" s="105"/>
+      <c r="D132" s="106"/>
       <c r="E132" s="48" t="s">
         <v>9</v>
       </c>
@@ -8441,14 +8441,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL132" s="94"/>
-      <c r="AM132" s="96"/>
+      <c r="AL132" s="92"/>
+      <c r="AM132" s="95"/>
       <c r="AN132" s="98"/>
     </row>
     <row r="133" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="87"/>
-      <c r="C133" s="89"/>
-      <c r="D133" s="90"/>
+      <c r="B133" s="102"/>
+      <c r="C133" s="103"/>
+      <c r="D133" s="104"/>
       <c r="E133" s="47" t="s">
         <v>8</v>
       </c>
@@ -8487,14 +8487,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL133" s="93"/>
-      <c r="AM133" s="95"/>
-      <c r="AN133" s="97"/>
+      <c r="AL133" s="107"/>
+      <c r="AM133" s="108"/>
+      <c r="AN133" s="109"/>
     </row>
     <row r="134" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="88"/>
-      <c r="C134" s="91"/>
-      <c r="D134" s="92"/>
+      <c r="B134" s="85"/>
+      <c r="C134" s="105"/>
+      <c r="D134" s="106"/>
       <c r="E134" s="48" t="s">
         <v>9</v>
       </c>
@@ -8533,14 +8533,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL134" s="94"/>
-      <c r="AM134" s="96"/>
+      <c r="AL134" s="92"/>
+      <c r="AM134" s="95"/>
       <c r="AN134" s="98"/>
     </row>
     <row r="135" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="87"/>
-      <c r="C135" s="89"/>
-      <c r="D135" s="90"/>
+      <c r="B135" s="102"/>
+      <c r="C135" s="103"/>
+      <c r="D135" s="104"/>
       <c r="E135" s="47" t="s">
         <v>8</v>
       </c>
@@ -8579,14 +8579,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL135" s="93"/>
-      <c r="AM135" s="95"/>
-      <c r="AN135" s="97"/>
+      <c r="AL135" s="107"/>
+      <c r="AM135" s="108"/>
+      <c r="AN135" s="109"/>
     </row>
     <row r="136" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="88"/>
-      <c r="C136" s="91"/>
-      <c r="D136" s="92"/>
+      <c r="B136" s="85"/>
+      <c r="C136" s="105"/>
+      <c r="D136" s="106"/>
       <c r="E136" s="48" t="s">
         <v>9</v>
       </c>
@@ -8625,14 +8625,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL136" s="94"/>
-      <c r="AM136" s="96"/>
+      <c r="AL136" s="92"/>
+      <c r="AM136" s="95"/>
       <c r="AN136" s="98"/>
     </row>
     <row r="137" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="87"/>
-      <c r="C137" s="89"/>
-      <c r="D137" s="90"/>
+      <c r="B137" s="102"/>
+      <c r="C137" s="103"/>
+      <c r="D137" s="104"/>
       <c r="E137" s="47" t="s">
         <v>8</v>
       </c>
@@ -8671,14 +8671,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL137" s="93"/>
-      <c r="AM137" s="95"/>
-      <c r="AN137" s="97"/>
+      <c r="AL137" s="107"/>
+      <c r="AM137" s="108"/>
+      <c r="AN137" s="109"/>
     </row>
     <row r="138" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="88"/>
-      <c r="C138" s="91"/>
-      <c r="D138" s="92"/>
+      <c r="B138" s="85"/>
+      <c r="C138" s="105"/>
+      <c r="D138" s="106"/>
       <c r="E138" s="48" t="s">
         <v>9</v>
       </c>
@@ -8717,14 +8717,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL138" s="94"/>
-      <c r="AM138" s="96"/>
+      <c r="AL138" s="92"/>
+      <c r="AM138" s="95"/>
       <c r="AN138" s="98"/>
     </row>
     <row r="139" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="99"/>
-      <c r="C139" s="101"/>
-      <c r="D139" s="102"/>
+      <c r="B139" s="83"/>
+      <c r="C139" s="113"/>
+      <c r="D139" s="114"/>
       <c r="E139" s="49" t="s">
         <v>8</v>
       </c>
@@ -8763,14 +8763,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL139" s="103"/>
-      <c r="AM139" s="105"/>
-      <c r="AN139" s="107"/>
+      <c r="AL139" s="90"/>
+      <c r="AM139" s="93"/>
+      <c r="AN139" s="96"/>
     </row>
     <row r="140" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="100"/>
-      <c r="C140" s="101"/>
-      <c r="D140" s="102"/>
+      <c r="B140" s="112"/>
+      <c r="C140" s="113"/>
+      <c r="D140" s="114"/>
       <c r="E140" s="50" t="s">
         <v>9</v>
       </c>
@@ -8809,14 +8809,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL140" s="104"/>
-      <c r="AM140" s="106"/>
-      <c r="AN140" s="108"/>
+      <c r="AL140" s="115"/>
+      <c r="AM140" s="116"/>
+      <c r="AN140" s="117"/>
     </row>
     <row r="141" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="87"/>
-      <c r="C141" s="89"/>
-      <c r="D141" s="90"/>
+      <c r="B141" s="102"/>
+      <c r="C141" s="103"/>
+      <c r="D141" s="104"/>
       <c r="E141" s="47" t="s">
         <v>8</v>
       </c>
@@ -8855,14 +8855,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL141" s="93"/>
-      <c r="AM141" s="95"/>
-      <c r="AN141" s="97"/>
+      <c r="AL141" s="107"/>
+      <c r="AM141" s="108"/>
+      <c r="AN141" s="109"/>
     </row>
     <row r="142" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="88"/>
-      <c r="C142" s="91"/>
-      <c r="D142" s="92"/>
+      <c r="B142" s="85"/>
+      <c r="C142" s="105"/>
+      <c r="D142" s="106"/>
       <c r="E142" s="48" t="s">
         <v>9</v>
       </c>
@@ -8901,14 +8901,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL142" s="94"/>
-      <c r="AM142" s="96"/>
+      <c r="AL142" s="92"/>
+      <c r="AM142" s="95"/>
       <c r="AN142" s="98"/>
     </row>
     <row r="143" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="87"/>
-      <c r="C143" s="89"/>
-      <c r="D143" s="90"/>
+      <c r="B143" s="102"/>
+      <c r="C143" s="103"/>
+      <c r="D143" s="104"/>
       <c r="E143" s="47" t="s">
         <v>8</v>
       </c>
@@ -8947,14 +8947,14 @@
         <f t="shared" ref="AK143:AK206" si="2">COUNTIFS(F143:AJ143,"x")</f>
         <v>0</v>
       </c>
-      <c r="AL143" s="93"/>
-      <c r="AM143" s="95"/>
-      <c r="AN143" s="97"/>
+      <c r="AL143" s="107"/>
+      <c r="AM143" s="108"/>
+      <c r="AN143" s="109"/>
     </row>
     <row r="144" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="88"/>
-      <c r="C144" s="91"/>
-      <c r="D144" s="92"/>
+      <c r="B144" s="85"/>
+      <c r="C144" s="105"/>
+      <c r="D144" s="106"/>
       <c r="E144" s="48" t="s">
         <v>9</v>
       </c>
@@ -8993,14 +8993,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL144" s="94"/>
-      <c r="AM144" s="96"/>
+      <c r="AL144" s="92"/>
+      <c r="AM144" s="95"/>
       <c r="AN144" s="98"/>
     </row>
     <row r="145" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="87"/>
-      <c r="C145" s="89"/>
-      <c r="D145" s="90"/>
+      <c r="B145" s="102"/>
+      <c r="C145" s="103"/>
+      <c r="D145" s="104"/>
       <c r="E145" s="47" t="s">
         <v>8</v>
       </c>
@@ -9039,14 +9039,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL145" s="93"/>
-      <c r="AM145" s="95"/>
-      <c r="AN145" s="97"/>
+      <c r="AL145" s="107"/>
+      <c r="AM145" s="108"/>
+      <c r="AN145" s="109"/>
     </row>
     <row r="146" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="88"/>
-      <c r="C146" s="91"/>
-      <c r="D146" s="92"/>
+      <c r="B146" s="85"/>
+      <c r="C146" s="105"/>
+      <c r="D146" s="106"/>
       <c r="E146" s="48" t="s">
         <v>9</v>
       </c>
@@ -9085,14 +9085,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL146" s="94"/>
-      <c r="AM146" s="96"/>
+      <c r="AL146" s="92"/>
+      <c r="AM146" s="95"/>
       <c r="AN146" s="98"/>
     </row>
     <row r="147" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="87"/>
-      <c r="C147" s="89"/>
-      <c r="D147" s="90"/>
+      <c r="B147" s="102"/>
+      <c r="C147" s="103"/>
+      <c r="D147" s="104"/>
       <c r="E147" s="47" t="s">
         <v>8</v>
       </c>
@@ -9131,14 +9131,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL147" s="93"/>
-      <c r="AM147" s="95"/>
-      <c r="AN147" s="97"/>
+      <c r="AL147" s="107"/>
+      <c r="AM147" s="108"/>
+      <c r="AN147" s="109"/>
     </row>
     <row r="148" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="88"/>
-      <c r="C148" s="91"/>
-      <c r="D148" s="92"/>
+      <c r="B148" s="85"/>
+      <c r="C148" s="105"/>
+      <c r="D148" s="106"/>
       <c r="E148" s="48" t="s">
         <v>9</v>
       </c>
@@ -9177,14 +9177,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL148" s="94"/>
-      <c r="AM148" s="96"/>
+      <c r="AL148" s="92"/>
+      <c r="AM148" s="95"/>
       <c r="AN148" s="98"/>
     </row>
     <row r="149" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="87"/>
-      <c r="C149" s="89"/>
-      <c r="D149" s="90"/>
+      <c r="B149" s="102"/>
+      <c r="C149" s="103"/>
+      <c r="D149" s="104"/>
       <c r="E149" s="47" t="s">
         <v>8</v>
       </c>
@@ -9223,14 +9223,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL149" s="93"/>
-      <c r="AM149" s="95"/>
-      <c r="AN149" s="97"/>
+      <c r="AL149" s="107"/>
+      <c r="AM149" s="108"/>
+      <c r="AN149" s="109"/>
     </row>
     <row r="150" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="88"/>
-      <c r="C150" s="91"/>
-      <c r="D150" s="92"/>
+      <c r="B150" s="85"/>
+      <c r="C150" s="105"/>
+      <c r="D150" s="106"/>
       <c r="E150" s="48" t="s">
         <v>9</v>
       </c>
@@ -9269,14 +9269,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL150" s="94"/>
-      <c r="AM150" s="96"/>
+      <c r="AL150" s="92"/>
+      <c r="AM150" s="95"/>
       <c r="AN150" s="98"/>
     </row>
     <row r="151" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="87"/>
-      <c r="C151" s="89"/>
-      <c r="D151" s="90"/>
+      <c r="B151" s="102"/>
+      <c r="C151" s="103"/>
+      <c r="D151" s="104"/>
       <c r="E151" s="47" t="s">
         <v>8</v>
       </c>
@@ -9315,14 +9315,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL151" s="93"/>
-      <c r="AM151" s="95"/>
-      <c r="AN151" s="97"/>
+      <c r="AL151" s="107"/>
+      <c r="AM151" s="108"/>
+      <c r="AN151" s="109"/>
     </row>
     <row r="152" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="88"/>
-      <c r="C152" s="91"/>
-      <c r="D152" s="92"/>
+      <c r="B152" s="85"/>
+      <c r="C152" s="105"/>
+      <c r="D152" s="106"/>
       <c r="E152" s="48" t="s">
         <v>9</v>
       </c>
@@ -9361,14 +9361,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL152" s="94"/>
-      <c r="AM152" s="96"/>
+      <c r="AL152" s="92"/>
+      <c r="AM152" s="95"/>
       <c r="AN152" s="98"/>
     </row>
     <row r="153" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="87"/>
-      <c r="C153" s="89"/>
-      <c r="D153" s="90"/>
+      <c r="B153" s="102"/>
+      <c r="C153" s="103"/>
+      <c r="D153" s="104"/>
       <c r="E153" s="47" t="s">
         <v>8</v>
       </c>
@@ -9407,14 +9407,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL153" s="93"/>
-      <c r="AM153" s="95"/>
-      <c r="AN153" s="97"/>
+      <c r="AL153" s="107"/>
+      <c r="AM153" s="108"/>
+      <c r="AN153" s="109"/>
     </row>
     <row r="154" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="88"/>
-      <c r="C154" s="91"/>
-      <c r="D154" s="92"/>
+      <c r="B154" s="85"/>
+      <c r="C154" s="105"/>
+      <c r="D154" s="106"/>
       <c r="E154" s="48" t="s">
         <v>9</v>
       </c>
@@ -9453,14 +9453,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL154" s="94"/>
-      <c r="AM154" s="96"/>
+      <c r="AL154" s="92"/>
+      <c r="AM154" s="95"/>
       <c r="AN154" s="98"/>
     </row>
     <row r="155" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="87"/>
-      <c r="C155" s="89"/>
-      <c r="D155" s="90"/>
+      <c r="B155" s="102"/>
+      <c r="C155" s="103"/>
+      <c r="D155" s="104"/>
       <c r="E155" s="47" t="s">
         <v>8</v>
       </c>
@@ -9499,14 +9499,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL155" s="93"/>
-      <c r="AM155" s="95"/>
-      <c r="AN155" s="97"/>
+      <c r="AL155" s="107"/>
+      <c r="AM155" s="108"/>
+      <c r="AN155" s="109"/>
     </row>
     <row r="156" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="88"/>
-      <c r="C156" s="91"/>
-      <c r="D156" s="92"/>
+      <c r="B156" s="85"/>
+      <c r="C156" s="105"/>
+      <c r="D156" s="106"/>
       <c r="E156" s="48" t="s">
         <v>9</v>
       </c>
@@ -9545,14 +9545,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL156" s="94"/>
-      <c r="AM156" s="96"/>
+      <c r="AL156" s="92"/>
+      <c r="AM156" s="95"/>
       <c r="AN156" s="98"/>
     </row>
     <row r="157" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="87"/>
-      <c r="C157" s="89"/>
-      <c r="D157" s="90"/>
+      <c r="B157" s="102"/>
+      <c r="C157" s="103"/>
+      <c r="D157" s="104"/>
       <c r="E157" s="47" t="s">
         <v>8</v>
       </c>
@@ -9591,14 +9591,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL157" s="93"/>
-      <c r="AM157" s="95"/>
-      <c r="AN157" s="97"/>
+      <c r="AL157" s="107"/>
+      <c r="AM157" s="108"/>
+      <c r="AN157" s="109"/>
     </row>
     <row r="158" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="88"/>
-      <c r="C158" s="91"/>
-      <c r="D158" s="92"/>
+      <c r="B158" s="85"/>
+      <c r="C158" s="105"/>
+      <c r="D158" s="106"/>
       <c r="E158" s="48" t="s">
         <v>9</v>
       </c>
@@ -9637,14 +9637,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL158" s="94"/>
-      <c r="AM158" s="96"/>
+      <c r="AL158" s="92"/>
+      <c r="AM158" s="95"/>
       <c r="AN158" s="98"/>
     </row>
     <row r="159" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="87"/>
-      <c r="C159" s="89"/>
-      <c r="D159" s="90"/>
+      <c r="B159" s="102"/>
+      <c r="C159" s="103"/>
+      <c r="D159" s="104"/>
       <c r="E159" s="47" t="s">
         <v>8</v>
       </c>
@@ -9683,14 +9683,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL159" s="93"/>
-      <c r="AM159" s="95"/>
-      <c r="AN159" s="97"/>
+      <c r="AL159" s="107"/>
+      <c r="AM159" s="108"/>
+      <c r="AN159" s="109"/>
     </row>
     <row r="160" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="88"/>
-      <c r="C160" s="91"/>
-      <c r="D160" s="92"/>
+      <c r="B160" s="85"/>
+      <c r="C160" s="105"/>
+      <c r="D160" s="106"/>
       <c r="E160" s="48" t="s">
         <v>9</v>
       </c>
@@ -9729,14 +9729,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL160" s="94"/>
-      <c r="AM160" s="96"/>
+      <c r="AL160" s="92"/>
+      <c r="AM160" s="95"/>
       <c r="AN160" s="98"/>
     </row>
     <row r="161" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="87"/>
-      <c r="C161" s="89"/>
-      <c r="D161" s="90"/>
+      <c r="B161" s="102"/>
+      <c r="C161" s="103"/>
+      <c r="D161" s="104"/>
       <c r="E161" s="47" t="s">
         <v>8</v>
       </c>
@@ -9775,14 +9775,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL161" s="93"/>
-      <c r="AM161" s="95"/>
-      <c r="AN161" s="97"/>
+      <c r="AL161" s="107"/>
+      <c r="AM161" s="108"/>
+      <c r="AN161" s="109"/>
     </row>
     <row r="162" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="88"/>
-      <c r="C162" s="91"/>
-      <c r="D162" s="92"/>
+      <c r="B162" s="85"/>
+      <c r="C162" s="105"/>
+      <c r="D162" s="106"/>
       <c r="E162" s="48" t="s">
         <v>9</v>
       </c>
@@ -9821,14 +9821,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL162" s="94"/>
-      <c r="AM162" s="96"/>
+      <c r="AL162" s="92"/>
+      <c r="AM162" s="95"/>
       <c r="AN162" s="98"/>
     </row>
     <row r="163" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="87"/>
-      <c r="C163" s="89"/>
-      <c r="D163" s="90"/>
+      <c r="B163" s="102"/>
+      <c r="C163" s="103"/>
+      <c r="D163" s="104"/>
       <c r="E163" s="47" t="s">
         <v>8</v>
       </c>
@@ -9867,14 +9867,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL163" s="93"/>
-      <c r="AM163" s="95"/>
-      <c r="AN163" s="97"/>
+      <c r="AL163" s="107"/>
+      <c r="AM163" s="108"/>
+      <c r="AN163" s="109"/>
     </row>
     <row r="164" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="88"/>
-      <c r="C164" s="91"/>
-      <c r="D164" s="92"/>
+      <c r="B164" s="85"/>
+      <c r="C164" s="105"/>
+      <c r="D164" s="106"/>
       <c r="E164" s="48" t="s">
         <v>9</v>
       </c>
@@ -9913,14 +9913,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL164" s="94"/>
-      <c r="AM164" s="96"/>
+      <c r="AL164" s="92"/>
+      <c r="AM164" s="95"/>
       <c r="AN164" s="98"/>
     </row>
     <row r="165" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="87"/>
-      <c r="C165" s="89"/>
-      <c r="D165" s="90"/>
+      <c r="B165" s="102"/>
+      <c r="C165" s="103"/>
+      <c r="D165" s="104"/>
       <c r="E165" s="47" t="s">
         <v>8</v>
       </c>
@@ -9959,14 +9959,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL165" s="93"/>
-      <c r="AM165" s="95"/>
-      <c r="AN165" s="97"/>
+      <c r="AL165" s="107"/>
+      <c r="AM165" s="108"/>
+      <c r="AN165" s="109"/>
     </row>
     <row r="166" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="88"/>
-      <c r="C166" s="91"/>
-      <c r="D166" s="92"/>
+      <c r="B166" s="85"/>
+      <c r="C166" s="105"/>
+      <c r="D166" s="106"/>
       <c r="E166" s="48" t="s">
         <v>9</v>
       </c>
@@ -10005,14 +10005,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL166" s="94"/>
-      <c r="AM166" s="96"/>
+      <c r="AL166" s="92"/>
+      <c r="AM166" s="95"/>
       <c r="AN166" s="98"/>
     </row>
     <row r="167" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="87"/>
-      <c r="C167" s="89"/>
-      <c r="D167" s="90"/>
+      <c r="B167" s="102"/>
+      <c r="C167" s="103"/>
+      <c r="D167" s="104"/>
       <c r="E167" s="47" t="s">
         <v>8</v>
       </c>
@@ -10051,14 +10051,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL167" s="93"/>
-      <c r="AM167" s="95"/>
-      <c r="AN167" s="97"/>
+      <c r="AL167" s="107"/>
+      <c r="AM167" s="108"/>
+      <c r="AN167" s="109"/>
     </row>
     <row r="168" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="88"/>
-      <c r="C168" s="91"/>
-      <c r="D168" s="92"/>
+      <c r="B168" s="85"/>
+      <c r="C168" s="105"/>
+      <c r="D168" s="106"/>
       <c r="E168" s="48" t="s">
         <v>9</v>
       </c>
@@ -10097,14 +10097,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL168" s="94"/>
-      <c r="AM168" s="96"/>
+      <c r="AL168" s="92"/>
+      <c r="AM168" s="95"/>
       <c r="AN168" s="98"/>
     </row>
     <row r="169" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="87"/>
-      <c r="C169" s="89"/>
-      <c r="D169" s="90"/>
+      <c r="B169" s="102"/>
+      <c r="C169" s="103"/>
+      <c r="D169" s="104"/>
       <c r="E169" s="47" t="s">
         <v>8</v>
       </c>
@@ -10143,14 +10143,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL169" s="93"/>
-      <c r="AM169" s="95"/>
-      <c r="AN169" s="97"/>
+      <c r="AL169" s="107"/>
+      <c r="AM169" s="108"/>
+      <c r="AN169" s="109"/>
     </row>
     <row r="170" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="88"/>
-      <c r="C170" s="91"/>
-      <c r="D170" s="92"/>
+      <c r="B170" s="85"/>
+      <c r="C170" s="105"/>
+      <c r="D170" s="106"/>
       <c r="E170" s="48" t="s">
         <v>9</v>
       </c>
@@ -10189,14 +10189,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL170" s="94"/>
-      <c r="AM170" s="96"/>
+      <c r="AL170" s="92"/>
+      <c r="AM170" s="95"/>
       <c r="AN170" s="98"/>
     </row>
     <row r="171" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="87"/>
-      <c r="C171" s="89"/>
-      <c r="D171" s="90"/>
+      <c r="B171" s="102"/>
+      <c r="C171" s="103"/>
+      <c r="D171" s="104"/>
       <c r="E171" s="47" t="s">
         <v>8</v>
       </c>
@@ -10235,14 +10235,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL171" s="93"/>
-      <c r="AM171" s="95"/>
-      <c r="AN171" s="97"/>
+      <c r="AL171" s="107"/>
+      <c r="AM171" s="108"/>
+      <c r="AN171" s="109"/>
     </row>
     <row r="172" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="88"/>
-      <c r="C172" s="91"/>
-      <c r="D172" s="92"/>
+      <c r="B172" s="85"/>
+      <c r="C172" s="105"/>
+      <c r="D172" s="106"/>
       <c r="E172" s="48" t="s">
         <v>9</v>
       </c>
@@ -10281,14 +10281,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL172" s="94"/>
-      <c r="AM172" s="96"/>
+      <c r="AL172" s="92"/>
+      <c r="AM172" s="95"/>
       <c r="AN172" s="98"/>
     </row>
     <row r="173" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="87"/>
-      <c r="C173" s="89"/>
-      <c r="D173" s="90"/>
+      <c r="B173" s="102"/>
+      <c r="C173" s="103"/>
+      <c r="D173" s="104"/>
       <c r="E173" s="47" t="s">
         <v>8</v>
       </c>
@@ -10327,14 +10327,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL173" s="93"/>
-      <c r="AM173" s="95"/>
-      <c r="AN173" s="97"/>
+      <c r="AL173" s="107"/>
+      <c r="AM173" s="108"/>
+      <c r="AN173" s="109"/>
     </row>
     <row r="174" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="88"/>
-      <c r="C174" s="91"/>
-      <c r="D174" s="92"/>
+      <c r="B174" s="85"/>
+      <c r="C174" s="105"/>
+      <c r="D174" s="106"/>
       <c r="E174" s="48" t="s">
         <v>9</v>
       </c>
@@ -10373,14 +10373,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL174" s="94"/>
-      <c r="AM174" s="96"/>
+      <c r="AL174" s="92"/>
+      <c r="AM174" s="95"/>
       <c r="AN174" s="98"/>
     </row>
     <row r="175" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="87"/>
-      <c r="C175" s="89"/>
-      <c r="D175" s="90"/>
+      <c r="B175" s="102"/>
+      <c r="C175" s="103"/>
+      <c r="D175" s="104"/>
       <c r="E175" s="47" t="s">
         <v>8</v>
       </c>
@@ -10419,14 +10419,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL175" s="93"/>
-      <c r="AM175" s="95"/>
-      <c r="AN175" s="97"/>
+      <c r="AL175" s="107"/>
+      <c r="AM175" s="108"/>
+      <c r="AN175" s="109"/>
     </row>
     <row r="176" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="88"/>
-      <c r="C176" s="91"/>
-      <c r="D176" s="92"/>
+      <c r="B176" s="85"/>
+      <c r="C176" s="105"/>
+      <c r="D176" s="106"/>
       <c r="E176" s="48" t="s">
         <v>9</v>
       </c>
@@ -10465,14 +10465,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL176" s="94"/>
-      <c r="AM176" s="96"/>
+      <c r="AL176" s="92"/>
+      <c r="AM176" s="95"/>
       <c r="AN176" s="98"/>
     </row>
     <row r="177" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="87"/>
-      <c r="C177" s="89"/>
-      <c r="D177" s="90"/>
+      <c r="B177" s="102"/>
+      <c r="C177" s="103"/>
+      <c r="D177" s="104"/>
       <c r="E177" s="47" t="s">
         <v>8</v>
       </c>
@@ -10511,14 +10511,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL177" s="93"/>
-      <c r="AM177" s="95"/>
-      <c r="AN177" s="97"/>
+      <c r="AL177" s="107"/>
+      <c r="AM177" s="108"/>
+      <c r="AN177" s="109"/>
     </row>
     <row r="178" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="88"/>
-      <c r="C178" s="91"/>
-      <c r="D178" s="92"/>
+      <c r="B178" s="85"/>
+      <c r="C178" s="105"/>
+      <c r="D178" s="106"/>
       <c r="E178" s="48" t="s">
         <v>9</v>
       </c>
@@ -10557,14 +10557,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL178" s="94"/>
-      <c r="AM178" s="96"/>
+      <c r="AL178" s="92"/>
+      <c r="AM178" s="95"/>
       <c r="AN178" s="98"/>
     </row>
     <row r="179" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="87"/>
-      <c r="C179" s="89"/>
-      <c r="D179" s="90"/>
+      <c r="B179" s="102"/>
+      <c r="C179" s="103"/>
+      <c r="D179" s="104"/>
       <c r="E179" s="47" t="s">
         <v>8</v>
       </c>
@@ -10603,14 +10603,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL179" s="93"/>
-      <c r="AM179" s="95"/>
-      <c r="AN179" s="97"/>
+      <c r="AL179" s="107"/>
+      <c r="AM179" s="108"/>
+      <c r="AN179" s="109"/>
     </row>
     <row r="180" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="88"/>
-      <c r="C180" s="91"/>
-      <c r="D180" s="92"/>
+      <c r="B180" s="85"/>
+      <c r="C180" s="105"/>
+      <c r="D180" s="106"/>
       <c r="E180" s="48" t="s">
         <v>9</v>
       </c>
@@ -10649,14 +10649,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL180" s="94"/>
-      <c r="AM180" s="96"/>
+      <c r="AL180" s="92"/>
+      <c r="AM180" s="95"/>
       <c r="AN180" s="98"/>
     </row>
     <row r="181" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="87"/>
-      <c r="C181" s="89"/>
-      <c r="D181" s="90"/>
+      <c r="B181" s="102"/>
+      <c r="C181" s="103"/>
+      <c r="D181" s="104"/>
       <c r="E181" s="47" t="s">
         <v>8</v>
       </c>
@@ -10695,14 +10695,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL181" s="93"/>
-      <c r="AM181" s="95"/>
-      <c r="AN181" s="97"/>
+      <c r="AL181" s="107"/>
+      <c r="AM181" s="108"/>
+      <c r="AN181" s="109"/>
     </row>
     <row r="182" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="88"/>
-      <c r="C182" s="91"/>
-      <c r="D182" s="92"/>
+      <c r="B182" s="85"/>
+      <c r="C182" s="105"/>
+      <c r="D182" s="106"/>
       <c r="E182" s="48" t="s">
         <v>9</v>
       </c>
@@ -10741,14 +10741,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL182" s="94"/>
-      <c r="AM182" s="96"/>
+      <c r="AL182" s="92"/>
+      <c r="AM182" s="95"/>
       <c r="AN182" s="98"/>
     </row>
     <row r="183" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="87"/>
-      <c r="C183" s="89"/>
-      <c r="D183" s="90"/>
+      <c r="B183" s="102"/>
+      <c r="C183" s="103"/>
+      <c r="D183" s="104"/>
       <c r="E183" s="47" t="s">
         <v>8</v>
       </c>
@@ -10787,14 +10787,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL183" s="93"/>
-      <c r="AM183" s="95"/>
-      <c r="AN183" s="97"/>
+      <c r="AL183" s="107"/>
+      <c r="AM183" s="108"/>
+      <c r="AN183" s="109"/>
     </row>
     <row r="184" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="88"/>
-      <c r="C184" s="91"/>
-      <c r="D184" s="92"/>
+      <c r="B184" s="85"/>
+      <c r="C184" s="105"/>
+      <c r="D184" s="106"/>
       <c r="E184" s="48" t="s">
         <v>9</v>
       </c>
@@ -10833,14 +10833,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL184" s="94"/>
-      <c r="AM184" s="96"/>
+      <c r="AL184" s="92"/>
+      <c r="AM184" s="95"/>
       <c r="AN184" s="98"/>
     </row>
     <row r="185" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="87"/>
-      <c r="C185" s="89"/>
-      <c r="D185" s="90"/>
+      <c r="B185" s="102"/>
+      <c r="C185" s="103"/>
+      <c r="D185" s="104"/>
       <c r="E185" s="47" t="s">
         <v>8</v>
       </c>
@@ -10879,14 +10879,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL185" s="93"/>
-      <c r="AM185" s="95"/>
-      <c r="AN185" s="97"/>
+      <c r="AL185" s="107"/>
+      <c r="AM185" s="108"/>
+      <c r="AN185" s="109"/>
     </row>
     <row r="186" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="88"/>
-      <c r="C186" s="91"/>
-      <c r="D186" s="92"/>
+      <c r="B186" s="85"/>
+      <c r="C186" s="105"/>
+      <c r="D186" s="106"/>
       <c r="E186" s="48" t="s">
         <v>9</v>
       </c>
@@ -10925,14 +10925,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL186" s="94"/>
-      <c r="AM186" s="96"/>
+      <c r="AL186" s="92"/>
+      <c r="AM186" s="95"/>
       <c r="AN186" s="98"/>
     </row>
     <row r="187" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="87"/>
-      <c r="C187" s="89"/>
-      <c r="D187" s="90"/>
+      <c r="B187" s="102"/>
+      <c r="C187" s="103"/>
+      <c r="D187" s="104"/>
       <c r="E187" s="47" t="s">
         <v>8</v>
       </c>
@@ -10971,14 +10971,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL187" s="93"/>
-      <c r="AM187" s="95"/>
-      <c r="AN187" s="97"/>
+      <c r="AL187" s="107"/>
+      <c r="AM187" s="108"/>
+      <c r="AN187" s="109"/>
     </row>
     <row r="188" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="88"/>
-      <c r="C188" s="91"/>
-      <c r="D188" s="92"/>
+      <c r="B188" s="85"/>
+      <c r="C188" s="105"/>
+      <c r="D188" s="106"/>
       <c r="E188" s="48" t="s">
         <v>9</v>
       </c>
@@ -11017,14 +11017,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL188" s="94"/>
-      <c r="AM188" s="96"/>
+      <c r="AL188" s="92"/>
+      <c r="AM188" s="95"/>
       <c r="AN188" s="98"/>
     </row>
     <row r="189" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="87"/>
-      <c r="C189" s="89"/>
-      <c r="D189" s="90"/>
+      <c r="B189" s="102"/>
+      <c r="C189" s="103"/>
+      <c r="D189" s="104"/>
       <c r="E189" s="47" t="s">
         <v>8</v>
       </c>
@@ -11063,14 +11063,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL189" s="93"/>
-      <c r="AM189" s="95"/>
-      <c r="AN189" s="97"/>
+      <c r="AL189" s="107"/>
+      <c r="AM189" s="108"/>
+      <c r="AN189" s="109"/>
     </row>
     <row r="190" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="88"/>
-      <c r="C190" s="91"/>
-      <c r="D190" s="92"/>
+      <c r="B190" s="85"/>
+      <c r="C190" s="105"/>
+      <c r="D190" s="106"/>
       <c r="E190" s="48" t="s">
         <v>9</v>
       </c>
@@ -11109,14 +11109,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL190" s="94"/>
-      <c r="AM190" s="96"/>
+      <c r="AL190" s="92"/>
+      <c r="AM190" s="95"/>
       <c r="AN190" s="98"/>
     </row>
     <row r="191" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="87"/>
-      <c r="C191" s="89"/>
-      <c r="D191" s="90"/>
+      <c r="B191" s="102"/>
+      <c r="C191" s="103"/>
+      <c r="D191" s="104"/>
       <c r="E191" s="47" t="s">
         <v>8</v>
       </c>
@@ -11155,14 +11155,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL191" s="93"/>
-      <c r="AM191" s="95"/>
-      <c r="AN191" s="97"/>
+      <c r="AL191" s="107"/>
+      <c r="AM191" s="108"/>
+      <c r="AN191" s="109"/>
     </row>
     <row r="192" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="88"/>
-      <c r="C192" s="91"/>
-      <c r="D192" s="92"/>
+      <c r="B192" s="85"/>
+      <c r="C192" s="105"/>
+      <c r="D192" s="106"/>
       <c r="E192" s="48" t="s">
         <v>9</v>
       </c>
@@ -11201,14 +11201,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL192" s="94"/>
-      <c r="AM192" s="96"/>
+      <c r="AL192" s="92"/>
+      <c r="AM192" s="95"/>
       <c r="AN192" s="98"/>
     </row>
     <row r="193" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="87"/>
-      <c r="C193" s="89"/>
-      <c r="D193" s="90"/>
+      <c r="B193" s="102"/>
+      <c r="C193" s="103"/>
+      <c r="D193" s="104"/>
       <c r="E193" s="47" t="s">
         <v>8</v>
       </c>
@@ -11247,14 +11247,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL193" s="93"/>
-      <c r="AM193" s="95"/>
-      <c r="AN193" s="97"/>
+      <c r="AL193" s="107"/>
+      <c r="AM193" s="108"/>
+      <c r="AN193" s="109"/>
     </row>
     <row r="194" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="88"/>
-      <c r="C194" s="91"/>
-      <c r="D194" s="92"/>
+      <c r="B194" s="85"/>
+      <c r="C194" s="105"/>
+      <c r="D194" s="106"/>
       <c r="E194" s="48" t="s">
         <v>9</v>
       </c>
@@ -11293,14 +11293,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL194" s="94"/>
-      <c r="AM194" s="96"/>
+      <c r="AL194" s="92"/>
+      <c r="AM194" s="95"/>
       <c r="AN194" s="98"/>
     </row>
     <row r="195" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="87"/>
-      <c r="C195" s="89"/>
-      <c r="D195" s="90"/>
+      <c r="B195" s="102"/>
+      <c r="C195" s="103"/>
+      <c r="D195" s="104"/>
       <c r="E195" s="47" t="s">
         <v>8</v>
       </c>
@@ -11339,14 +11339,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL195" s="93"/>
-      <c r="AM195" s="95"/>
-      <c r="AN195" s="97"/>
+      <c r="AL195" s="107"/>
+      <c r="AM195" s="108"/>
+      <c r="AN195" s="109"/>
     </row>
     <row r="196" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="88"/>
-      <c r="C196" s="91"/>
-      <c r="D196" s="92"/>
+      <c r="B196" s="85"/>
+      <c r="C196" s="105"/>
+      <c r="D196" s="106"/>
       <c r="E196" s="48" t="s">
         <v>9</v>
       </c>
@@ -11385,14 +11385,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL196" s="94"/>
-      <c r="AM196" s="96"/>
+      <c r="AL196" s="92"/>
+      <c r="AM196" s="95"/>
       <c r="AN196" s="98"/>
     </row>
     <row r="197" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="87"/>
-      <c r="C197" s="89"/>
-      <c r="D197" s="90"/>
+      <c r="B197" s="102"/>
+      <c r="C197" s="103"/>
+      <c r="D197" s="104"/>
       <c r="E197" s="47" t="s">
         <v>8</v>
       </c>
@@ -11431,14 +11431,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL197" s="93"/>
-      <c r="AM197" s="95"/>
-      <c r="AN197" s="97"/>
+      <c r="AL197" s="107"/>
+      <c r="AM197" s="108"/>
+      <c r="AN197" s="109"/>
     </row>
     <row r="198" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="88"/>
-      <c r="C198" s="91"/>
-      <c r="D198" s="92"/>
+      <c r="B198" s="85"/>
+      <c r="C198" s="105"/>
+      <c r="D198" s="106"/>
       <c r="E198" s="48" t="s">
         <v>9</v>
       </c>
@@ -11477,14 +11477,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL198" s="94"/>
-      <c r="AM198" s="96"/>
+      <c r="AL198" s="92"/>
+      <c r="AM198" s="95"/>
       <c r="AN198" s="98"/>
     </row>
     <row r="199" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="87"/>
-      <c r="C199" s="89"/>
-      <c r="D199" s="90"/>
+      <c r="B199" s="102"/>
+      <c r="C199" s="103"/>
+      <c r="D199" s="104"/>
       <c r="E199" s="47" t="s">
         <v>8</v>
       </c>
@@ -11523,14 +11523,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL199" s="93"/>
-      <c r="AM199" s="95"/>
-      <c r="AN199" s="97"/>
+      <c r="AL199" s="107"/>
+      <c r="AM199" s="108"/>
+      <c r="AN199" s="109"/>
     </row>
     <row r="200" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="88"/>
-      <c r="C200" s="91"/>
-      <c r="D200" s="92"/>
+      <c r="B200" s="85"/>
+      <c r="C200" s="105"/>
+      <c r="D200" s="106"/>
       <c r="E200" s="48" t="s">
         <v>9</v>
       </c>
@@ -11569,14 +11569,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL200" s="94"/>
-      <c r="AM200" s="96"/>
+      <c r="AL200" s="92"/>
+      <c r="AM200" s="95"/>
       <c r="AN200" s="98"/>
     </row>
     <row r="201" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="99"/>
-      <c r="C201" s="101"/>
-      <c r="D201" s="102"/>
+      <c r="B201" s="83"/>
+      <c r="C201" s="113"/>
+      <c r="D201" s="114"/>
       <c r="E201" s="49" t="s">
         <v>8</v>
       </c>
@@ -11615,14 +11615,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL201" s="103"/>
-      <c r="AM201" s="105"/>
-      <c r="AN201" s="107"/>
+      <c r="AL201" s="90"/>
+      <c r="AM201" s="93"/>
+      <c r="AN201" s="96"/>
     </row>
     <row r="202" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="100"/>
-      <c r="C202" s="101"/>
-      <c r="D202" s="102"/>
+      <c r="B202" s="112"/>
+      <c r="C202" s="113"/>
+      <c r="D202" s="114"/>
       <c r="E202" s="50" t="s">
         <v>9</v>
       </c>
@@ -11661,14 +11661,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL202" s="104"/>
-      <c r="AM202" s="106"/>
-      <c r="AN202" s="108"/>
+      <c r="AL202" s="115"/>
+      <c r="AM202" s="116"/>
+      <c r="AN202" s="117"/>
     </row>
     <row r="203" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="87"/>
-      <c r="C203" s="89"/>
-      <c r="D203" s="90"/>
+      <c r="B203" s="102"/>
+      <c r="C203" s="103"/>
+      <c r="D203" s="104"/>
       <c r="E203" s="47" t="s">
         <v>8</v>
       </c>
@@ -11707,14 +11707,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL203" s="93"/>
-      <c r="AM203" s="95"/>
-      <c r="AN203" s="97"/>
+      <c r="AL203" s="107"/>
+      <c r="AM203" s="108"/>
+      <c r="AN203" s="109"/>
     </row>
     <row r="204" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="88"/>
-      <c r="C204" s="91"/>
-      <c r="D204" s="92"/>
+      <c r="B204" s="85"/>
+      <c r="C204" s="105"/>
+      <c r="D204" s="106"/>
       <c r="E204" s="48" t="s">
         <v>9</v>
       </c>
@@ -11753,14 +11753,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL204" s="94"/>
-      <c r="AM204" s="96"/>
+      <c r="AL204" s="92"/>
+      <c r="AM204" s="95"/>
       <c r="AN204" s="98"/>
     </row>
     <row r="205" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="87"/>
-      <c r="C205" s="89"/>
-      <c r="D205" s="90"/>
+      <c r="B205" s="102"/>
+      <c r="C205" s="103"/>
+      <c r="D205" s="104"/>
       <c r="E205" s="47" t="s">
         <v>8</v>
       </c>
@@ -11799,14 +11799,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL205" s="93"/>
-      <c r="AM205" s="95"/>
-      <c r="AN205" s="97"/>
+      <c r="AL205" s="107"/>
+      <c r="AM205" s="108"/>
+      <c r="AN205" s="109"/>
     </row>
     <row r="206" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="88"/>
-      <c r="C206" s="91"/>
-      <c r="D206" s="92"/>
+      <c r="B206" s="85"/>
+      <c r="C206" s="105"/>
+      <c r="D206" s="106"/>
       <c r="E206" s="48" t="s">
         <v>9</v>
       </c>
@@ -11845,14 +11845,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL206" s="94"/>
-      <c r="AM206" s="96"/>
+      <c r="AL206" s="92"/>
+      <c r="AM206" s="95"/>
       <c r="AN206" s="98"/>
     </row>
     <row r="207" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B207" s="87"/>
-      <c r="C207" s="89"/>
-      <c r="D207" s="90"/>
+      <c r="B207" s="102"/>
+      <c r="C207" s="103"/>
+      <c r="D207" s="104"/>
       <c r="E207" s="47" t="s">
         <v>8</v>
       </c>
@@ -11891,14 +11891,14 @@
         <f>COUNTIFS(F207:AJ207,"x")</f>
         <v>0</v>
       </c>
-      <c r="AL207" s="93"/>
-      <c r="AM207" s="95"/>
-      <c r="AN207" s="97"/>
+      <c r="AL207" s="107"/>
+      <c r="AM207" s="108"/>
+      <c r="AN207" s="109"/>
     </row>
     <row r="208" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="88"/>
-      <c r="C208" s="91"/>
-      <c r="D208" s="92"/>
+      <c r="B208" s="85"/>
+      <c r="C208" s="105"/>
+      <c r="D208" s="106"/>
       <c r="E208" s="48" t="s">
         <v>9</v>
       </c>
@@ -11937,14 +11937,14 @@
         <f>COUNTIFS(F208:AJ208,"x")</f>
         <v>0</v>
       </c>
-      <c r="AL208" s="94"/>
-      <c r="AM208" s="96"/>
+      <c r="AL208" s="92"/>
+      <c r="AM208" s="95"/>
       <c r="AN208" s="98"/>
     </row>
     <row r="209" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="87"/>
-      <c r="C209" s="89"/>
-      <c r="D209" s="90"/>
+      <c r="B209" s="102"/>
+      <c r="C209" s="103"/>
+      <c r="D209" s="104"/>
       <c r="E209" s="47" t="s">
         <v>8</v>
       </c>
@@ -11983,14 +11983,14 @@
         <f>COUNTIFS(F209:AJ209,"x")</f>
         <v>0</v>
       </c>
-      <c r="AL209" s="93"/>
-      <c r="AM209" s="95"/>
-      <c r="AN209" s="97"/>
+      <c r="AL209" s="107"/>
+      <c r="AM209" s="108"/>
+      <c r="AN209" s="109"/>
     </row>
     <row r="210" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="88"/>
-      <c r="C210" s="91"/>
-      <c r="D210" s="92"/>
+      <c r="B210" s="85"/>
+      <c r="C210" s="105"/>
+      <c r="D210" s="106"/>
       <c r="E210" s="48" t="s">
         <v>9</v>
       </c>
@@ -12029,14 +12029,14 @@
         <f>COUNTIFS(F210:AJ210,"x")</f>
         <v>0</v>
       </c>
-      <c r="AL210" s="94"/>
-      <c r="AM210" s="96"/>
+      <c r="AL210" s="92"/>
+      <c r="AM210" s="95"/>
       <c r="AN210" s="98"/>
     </row>
     <row r="211" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="87"/>
-      <c r="C211" s="89"/>
-      <c r="D211" s="90"/>
+      <c r="B211" s="102"/>
+      <c r="C211" s="103"/>
+      <c r="D211" s="104"/>
       <c r="E211" s="47" t="s">
         <v>8</v>
       </c>
@@ -12075,14 +12075,14 @@
         <f t="shared" ref="AK211:AK222" si="3">COUNTIFS(F211:AJ211,"x")</f>
         <v>0</v>
       </c>
-      <c r="AL211" s="93"/>
-      <c r="AM211" s="95"/>
-      <c r="AN211" s="97"/>
+      <c r="AL211" s="107"/>
+      <c r="AM211" s="108"/>
+      <c r="AN211" s="109"/>
     </row>
     <row r="212" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="88"/>
-      <c r="C212" s="91"/>
-      <c r="D212" s="92"/>
+      <c r="B212" s="85"/>
+      <c r="C212" s="105"/>
+      <c r="D212" s="106"/>
       <c r="E212" s="48" t="s">
         <v>9</v>
       </c>
@@ -12121,14 +12121,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL212" s="94"/>
-      <c r="AM212" s="96"/>
+      <c r="AL212" s="92"/>
+      <c r="AM212" s="95"/>
       <c r="AN212" s="98"/>
     </row>
     <row r="213" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="87"/>
-      <c r="C213" s="89"/>
-      <c r="D213" s="90"/>
+      <c r="B213" s="102"/>
+      <c r="C213" s="103"/>
+      <c r="D213" s="104"/>
       <c r="E213" s="47" t="s">
         <v>8</v>
       </c>
@@ -12167,14 +12167,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL213" s="93"/>
-      <c r="AM213" s="95"/>
-      <c r="AN213" s="97"/>
+      <c r="AL213" s="107"/>
+      <c r="AM213" s="108"/>
+      <c r="AN213" s="109"/>
     </row>
     <row r="214" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="88"/>
-      <c r="C214" s="91"/>
-      <c r="D214" s="92"/>
+      <c r="B214" s="85"/>
+      <c r="C214" s="105"/>
+      <c r="D214" s="106"/>
       <c r="E214" s="48" t="s">
         <v>9</v>
       </c>
@@ -12213,14 +12213,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL214" s="94"/>
-      <c r="AM214" s="96"/>
+      <c r="AL214" s="92"/>
+      <c r="AM214" s="95"/>
       <c r="AN214" s="98"/>
     </row>
     <row r="215" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="87"/>
-      <c r="C215" s="127"/>
-      <c r="D215" s="128"/>
+      <c r="B215" s="102"/>
+      <c r="C215" s="110"/>
+      <c r="D215" s="111"/>
       <c r="E215" s="47" t="s">
         <v>8</v>
       </c>
@@ -12259,14 +12259,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL215" s="93"/>
-      <c r="AM215" s="95"/>
-      <c r="AN215" s="97"/>
+      <c r="AL215" s="107"/>
+      <c r="AM215" s="108"/>
+      <c r="AN215" s="109"/>
     </row>
     <row r="216" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="116"/>
-      <c r="C216" s="117"/>
-      <c r="D216" s="118"/>
+      <c r="B216" s="84"/>
+      <c r="C216" s="86"/>
+      <c r="D216" s="87"/>
       <c r="E216" s="51" t="s">
         <v>8</v>
       </c>
@@ -12305,14 +12305,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL216" s="121"/>
-      <c r="AM216" s="122"/>
-      <c r="AN216" s="123"/>
+      <c r="AL216" s="91"/>
+      <c r="AM216" s="94"/>
+      <c r="AN216" s="97"/>
     </row>
     <row r="217" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="116"/>
-      <c r="C217" s="117"/>
-      <c r="D217" s="118"/>
+      <c r="B217" s="84"/>
+      <c r="C217" s="86"/>
+      <c r="D217" s="87"/>
       <c r="E217" s="51" t="s">
         <v>8</v>
       </c>
@@ -12351,14 +12351,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL217" s="121"/>
-      <c r="AM217" s="122"/>
-      <c r="AN217" s="123"/>
+      <c r="AL217" s="91"/>
+      <c r="AM217" s="94"/>
+      <c r="AN217" s="97"/>
     </row>
     <row r="218" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="88"/>
-      <c r="C218" s="119"/>
-      <c r="D218" s="120"/>
+      <c r="B218" s="85"/>
+      <c r="C218" s="88"/>
+      <c r="D218" s="89"/>
       <c r="E218" s="48" t="s">
         <v>8</v>
       </c>
@@ -12397,14 +12397,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL218" s="94"/>
-      <c r="AM218" s="96"/>
+      <c r="AL218" s="92"/>
+      <c r="AM218" s="95"/>
       <c r="AN218" s="98"/>
     </row>
     <row r="219" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B219" s="99"/>
-      <c r="C219" s="117"/>
-      <c r="D219" s="118"/>
+      <c r="B219" s="83"/>
+      <c r="C219" s="86"/>
+      <c r="D219" s="87"/>
       <c r="E219" s="49" t="s">
         <v>9</v>
       </c>
@@ -12443,14 +12443,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL219" s="103"/>
-      <c r="AM219" s="105"/>
-      <c r="AN219" s="107"/>
+      <c r="AL219" s="90"/>
+      <c r="AM219" s="93"/>
+      <c r="AN219" s="96"/>
     </row>
     <row r="220" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="116"/>
-      <c r="C220" s="117"/>
-      <c r="D220" s="118"/>
+      <c r="B220" s="84"/>
+      <c r="C220" s="86"/>
+      <c r="D220" s="87"/>
       <c r="E220" s="51" t="s">
         <v>9</v>
       </c>
@@ -12489,14 +12489,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL220" s="121"/>
-      <c r="AM220" s="122"/>
-      <c r="AN220" s="123"/>
+      <c r="AL220" s="91"/>
+      <c r="AM220" s="94"/>
+      <c r="AN220" s="97"/>
     </row>
     <row r="221" spans="2:40" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="116"/>
-      <c r="C221" s="117"/>
-      <c r="D221" s="118"/>
+      <c r="B221" s="84"/>
+      <c r="C221" s="86"/>
+      <c r="D221" s="87"/>
       <c r="E221" s="51" t="s">
         <v>9</v>
       </c>
@@ -12535,14 +12535,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL221" s="121"/>
-      <c r="AM221" s="122"/>
-      <c r="AN221" s="123"/>
+      <c r="AL221" s="91"/>
+      <c r="AM221" s="94"/>
+      <c r="AN221" s="97"/>
     </row>
     <row r="222" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="88"/>
-      <c r="C222" s="119"/>
-      <c r="D222" s="120"/>
+      <c r="B222" s="85"/>
+      <c r="C222" s="88"/>
+      <c r="D222" s="89"/>
       <c r="E222" s="48" t="s">
         <v>9</v>
       </c>
@@ -12581,8 +12581,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL222" s="94"/>
-      <c r="AM222" s="96"/>
+      <c r="AL222" s="92"/>
+      <c r="AM222" s="95"/>
       <c r="AN222" s="98"/>
     </row>
     <row r="223" spans="2:40" ht="17.25" x14ac:dyDescent="0.35">
@@ -12790,14 +12790,14 @@
       <c r="AB225" s="18"/>
       <c r="AC225" s="18"/>
       <c r="AD225" s="18"/>
-      <c r="AE225" s="124" t="s">
+      <c r="AE225" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="AF225" s="125"/>
-      <c r="AG225" s="125"/>
-      <c r="AH225" s="125"/>
-      <c r="AI225" s="125"/>
-      <c r="AJ225" s="126"/>
+      <c r="AF225" s="100"/>
+      <c r="AG225" s="100"/>
+      <c r="AH225" s="100"/>
+      <c r="AI225" s="100"/>
+      <c r="AJ225" s="101"/>
       <c r="AK225" s="20">
         <f>SUM(AK11:AK212)</f>
         <v>0</v>
@@ -12886,14 +12886,14 @@
       <c r="AB227" s="17"/>
       <c r="AC227" s="17"/>
       <c r="AD227" s="17"/>
-      <c r="AE227" s="109" t="s">
+      <c r="AE227" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="AF227" s="110"/>
-      <c r="AG227" s="110"/>
-      <c r="AH227" s="110"/>
-      <c r="AI227" s="110"/>
-      <c r="AJ227" s="111"/>
+      <c r="AF227" s="77"/>
+      <c r="AG227" s="77"/>
+      <c r="AH227" s="77"/>
+      <c r="AI227" s="77"/>
+      <c r="AJ227" s="78"/>
       <c r="AK227" s="20">
         <f>SUM(AK215:AK222)</f>
         <v>0</v>
@@ -12917,14 +12917,14 @@
       <c r="AN228" s="24"/>
     </row>
     <row r="229" spans="2:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE229" s="112" t="s">
+      <c r="AE229" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="AF229" s="113"/>
-      <c r="AG229" s="113"/>
-      <c r="AH229" s="113"/>
-      <c r="AI229" s="113"/>
-      <c r="AJ229" s="114"/>
+      <c r="AF229" s="80"/>
+      <c r="AG229" s="80"/>
+      <c r="AH229" s="80"/>
+      <c r="AI229" s="80"/>
+      <c r="AJ229" s="81"/>
       <c r="AK229" s="20">
         <f>SUM(AK225,AK227)</f>
         <v>0</v>
@@ -12959,6 +12959,510 @@
     </row>
   </sheetData>
   <mergeCells count="528">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="AK9:AN9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="AL11:AL12"/>
+    <mergeCell ref="AM11:AM12"/>
+    <mergeCell ref="AN11:AN12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="AL13:AL14"/>
+    <mergeCell ref="AM13:AM14"/>
+    <mergeCell ref="AN13:AN14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="AL15:AL16"/>
+    <mergeCell ref="AM15:AM16"/>
+    <mergeCell ref="AN15:AN16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="AL17:AL18"/>
+    <mergeCell ref="AM17:AM18"/>
+    <mergeCell ref="AN17:AN18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="AL19:AL20"/>
+    <mergeCell ref="AM19:AM20"/>
+    <mergeCell ref="AN19:AN20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="AL21:AL22"/>
+    <mergeCell ref="AM21:AM22"/>
+    <mergeCell ref="AN21:AN22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="AL23:AL24"/>
+    <mergeCell ref="AM23:AM24"/>
+    <mergeCell ref="AN23:AN24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="AL25:AL26"/>
+    <mergeCell ref="AM25:AM26"/>
+    <mergeCell ref="AN25:AN26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="AL27:AL28"/>
+    <mergeCell ref="AM27:AM28"/>
+    <mergeCell ref="AN27:AN28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="AL29:AL30"/>
+    <mergeCell ref="AM29:AM30"/>
+    <mergeCell ref="AN29:AN30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="AL31:AL32"/>
+    <mergeCell ref="AM31:AM32"/>
+    <mergeCell ref="AN31:AN32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="AL33:AL34"/>
+    <mergeCell ref="AM33:AM34"/>
+    <mergeCell ref="AN33:AN34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="AL35:AL36"/>
+    <mergeCell ref="AM35:AM36"/>
+    <mergeCell ref="AN35:AN36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="AL37:AL38"/>
+    <mergeCell ref="AM37:AM38"/>
+    <mergeCell ref="AN37:AN38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="AL39:AL40"/>
+    <mergeCell ref="AM39:AM40"/>
+    <mergeCell ref="AN39:AN40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="AL41:AL42"/>
+    <mergeCell ref="AM41:AM42"/>
+    <mergeCell ref="AN41:AN42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="AL43:AL44"/>
+    <mergeCell ref="AM43:AM44"/>
+    <mergeCell ref="AN43:AN44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="AL45:AL46"/>
+    <mergeCell ref="AM45:AM46"/>
+    <mergeCell ref="AN45:AN46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="AL47:AL48"/>
+    <mergeCell ref="AM47:AM48"/>
+    <mergeCell ref="AN47:AN48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="AL49:AL50"/>
+    <mergeCell ref="AM49:AM50"/>
+    <mergeCell ref="AN49:AN50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="AL51:AL52"/>
+    <mergeCell ref="AM51:AM52"/>
+    <mergeCell ref="AN51:AN52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="AL53:AL54"/>
+    <mergeCell ref="AM53:AM54"/>
+    <mergeCell ref="AN53:AN54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="AL55:AL56"/>
+    <mergeCell ref="AM55:AM56"/>
+    <mergeCell ref="AN55:AN56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="AL57:AL58"/>
+    <mergeCell ref="AM57:AM58"/>
+    <mergeCell ref="AN57:AN58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="AL59:AL60"/>
+    <mergeCell ref="AM59:AM60"/>
+    <mergeCell ref="AN59:AN60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="AL61:AL62"/>
+    <mergeCell ref="AM61:AM62"/>
+    <mergeCell ref="AN61:AN62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="AL63:AL64"/>
+    <mergeCell ref="AM63:AM64"/>
+    <mergeCell ref="AN63:AN64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="AL65:AL66"/>
+    <mergeCell ref="AM65:AM66"/>
+    <mergeCell ref="AN65:AN66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="AL67:AL68"/>
+    <mergeCell ref="AM67:AM68"/>
+    <mergeCell ref="AN67:AN68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="AL69:AL70"/>
+    <mergeCell ref="AM69:AM70"/>
+    <mergeCell ref="AN69:AN70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="AL71:AL72"/>
+    <mergeCell ref="AM71:AM72"/>
+    <mergeCell ref="AN71:AN72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="AL73:AL74"/>
+    <mergeCell ref="AM73:AM74"/>
+    <mergeCell ref="AN73:AN74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="AL75:AL76"/>
+    <mergeCell ref="AM75:AM76"/>
+    <mergeCell ref="AN75:AN76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="AL77:AL78"/>
+    <mergeCell ref="AM77:AM78"/>
+    <mergeCell ref="AN77:AN78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="AL79:AL80"/>
+    <mergeCell ref="AM79:AM80"/>
+    <mergeCell ref="AN79:AN80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="AL81:AL82"/>
+    <mergeCell ref="AM81:AM82"/>
+    <mergeCell ref="AN81:AN82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="AL83:AL84"/>
+    <mergeCell ref="AM83:AM84"/>
+    <mergeCell ref="AN83:AN84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="AL85:AL86"/>
+    <mergeCell ref="AM85:AM86"/>
+    <mergeCell ref="AN85:AN86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="AL87:AL88"/>
+    <mergeCell ref="AM87:AM88"/>
+    <mergeCell ref="AN87:AN88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="AL89:AL90"/>
+    <mergeCell ref="AM89:AM90"/>
+    <mergeCell ref="AN89:AN90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="AL91:AL92"/>
+    <mergeCell ref="AM91:AM92"/>
+    <mergeCell ref="AN91:AN92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="AL93:AL94"/>
+    <mergeCell ref="AM93:AM94"/>
+    <mergeCell ref="AN93:AN94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="AL95:AL96"/>
+    <mergeCell ref="AM95:AM96"/>
+    <mergeCell ref="AN95:AN96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="AL97:AL98"/>
+    <mergeCell ref="AM97:AM98"/>
+    <mergeCell ref="AN97:AN98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="AL99:AL100"/>
+    <mergeCell ref="AM99:AM100"/>
+    <mergeCell ref="AN99:AN100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:D102"/>
+    <mergeCell ref="AL101:AL102"/>
+    <mergeCell ref="AM101:AM102"/>
+    <mergeCell ref="AN101:AN102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="AL103:AL104"/>
+    <mergeCell ref="AM103:AM104"/>
+    <mergeCell ref="AN103:AN104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="AL105:AL106"/>
+    <mergeCell ref="AM105:AM106"/>
+    <mergeCell ref="AN105:AN106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="AL107:AL108"/>
+    <mergeCell ref="AM107:AM108"/>
+    <mergeCell ref="AN107:AN108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="AL109:AL110"/>
+    <mergeCell ref="AM109:AM110"/>
+    <mergeCell ref="AN109:AN110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="AL111:AL112"/>
+    <mergeCell ref="AM111:AM112"/>
+    <mergeCell ref="AN111:AN112"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="AL113:AL114"/>
+    <mergeCell ref="AM113:AM114"/>
+    <mergeCell ref="AN113:AN114"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:D116"/>
+    <mergeCell ref="AL115:AL116"/>
+    <mergeCell ref="AM115:AM116"/>
+    <mergeCell ref="AN115:AN116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:D118"/>
+    <mergeCell ref="AL117:AL118"/>
+    <mergeCell ref="AM117:AM118"/>
+    <mergeCell ref="AN117:AN118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:D120"/>
+    <mergeCell ref="AL119:AL120"/>
+    <mergeCell ref="AM119:AM120"/>
+    <mergeCell ref="AN119:AN120"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:D122"/>
+    <mergeCell ref="AL121:AL122"/>
+    <mergeCell ref="AM121:AM122"/>
+    <mergeCell ref="AN121:AN122"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:D124"/>
+    <mergeCell ref="AL123:AL124"/>
+    <mergeCell ref="AM123:AM124"/>
+    <mergeCell ref="AN123:AN124"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:D126"/>
+    <mergeCell ref="AL125:AL126"/>
+    <mergeCell ref="AM125:AM126"/>
+    <mergeCell ref="AN125:AN126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:D128"/>
+    <mergeCell ref="AL127:AL128"/>
+    <mergeCell ref="AM127:AM128"/>
+    <mergeCell ref="AN127:AN128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:D130"/>
+    <mergeCell ref="AL129:AL130"/>
+    <mergeCell ref="AM129:AM130"/>
+    <mergeCell ref="AN129:AN130"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:D132"/>
+    <mergeCell ref="AL131:AL132"/>
+    <mergeCell ref="AM131:AM132"/>
+    <mergeCell ref="AN131:AN132"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:D134"/>
+    <mergeCell ref="AL133:AL134"/>
+    <mergeCell ref="AM133:AM134"/>
+    <mergeCell ref="AN133:AN134"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:D136"/>
+    <mergeCell ref="AL135:AL136"/>
+    <mergeCell ref="AM135:AM136"/>
+    <mergeCell ref="AN135:AN136"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:D138"/>
+    <mergeCell ref="AL137:AL138"/>
+    <mergeCell ref="AM137:AM138"/>
+    <mergeCell ref="AN137:AN138"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:D140"/>
+    <mergeCell ref="AL139:AL140"/>
+    <mergeCell ref="AM139:AM140"/>
+    <mergeCell ref="AN139:AN140"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:D142"/>
+    <mergeCell ref="AL141:AL142"/>
+    <mergeCell ref="AM141:AM142"/>
+    <mergeCell ref="AN141:AN142"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:D144"/>
+    <mergeCell ref="AL143:AL144"/>
+    <mergeCell ref="AM143:AM144"/>
+    <mergeCell ref="AN143:AN144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:D146"/>
+    <mergeCell ref="AL145:AL146"/>
+    <mergeCell ref="AM145:AM146"/>
+    <mergeCell ref="AN145:AN146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:D148"/>
+    <mergeCell ref="AL147:AL148"/>
+    <mergeCell ref="AM147:AM148"/>
+    <mergeCell ref="AN147:AN148"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:D150"/>
+    <mergeCell ref="AL149:AL150"/>
+    <mergeCell ref="AM149:AM150"/>
+    <mergeCell ref="AN149:AN150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:D152"/>
+    <mergeCell ref="AL151:AL152"/>
+    <mergeCell ref="AM151:AM152"/>
+    <mergeCell ref="AN151:AN152"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="C153:D154"/>
+    <mergeCell ref="AL153:AL154"/>
+    <mergeCell ref="AM153:AM154"/>
+    <mergeCell ref="AN153:AN154"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="C155:D156"/>
+    <mergeCell ref="AL155:AL156"/>
+    <mergeCell ref="AM155:AM156"/>
+    <mergeCell ref="AN155:AN156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:D158"/>
+    <mergeCell ref="AL157:AL158"/>
+    <mergeCell ref="AM157:AM158"/>
+    <mergeCell ref="AN157:AN158"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="C159:D160"/>
+    <mergeCell ref="AL159:AL160"/>
+    <mergeCell ref="AM159:AM160"/>
+    <mergeCell ref="AN159:AN160"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="C161:D162"/>
+    <mergeCell ref="AL161:AL162"/>
+    <mergeCell ref="AM161:AM162"/>
+    <mergeCell ref="AN161:AN162"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:D164"/>
+    <mergeCell ref="AL163:AL164"/>
+    <mergeCell ref="AM163:AM164"/>
+    <mergeCell ref="AN163:AN164"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="C165:D166"/>
+    <mergeCell ref="AL165:AL166"/>
+    <mergeCell ref="AM165:AM166"/>
+    <mergeCell ref="AN165:AN166"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:D168"/>
+    <mergeCell ref="AL167:AL168"/>
+    <mergeCell ref="AM167:AM168"/>
+    <mergeCell ref="AN167:AN168"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:D170"/>
+    <mergeCell ref="AL169:AL170"/>
+    <mergeCell ref="AM169:AM170"/>
+    <mergeCell ref="AN169:AN170"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:D172"/>
+    <mergeCell ref="AL171:AL172"/>
+    <mergeCell ref="AM171:AM172"/>
+    <mergeCell ref="AN171:AN172"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:D174"/>
+    <mergeCell ref="AL173:AL174"/>
+    <mergeCell ref="AM173:AM174"/>
+    <mergeCell ref="AN173:AN174"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="C175:D176"/>
+    <mergeCell ref="AL175:AL176"/>
+    <mergeCell ref="AM175:AM176"/>
+    <mergeCell ref="AN175:AN176"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="C177:D178"/>
+    <mergeCell ref="AL177:AL178"/>
+    <mergeCell ref="AM177:AM178"/>
+    <mergeCell ref="AN177:AN178"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="C179:D180"/>
+    <mergeCell ref="AL179:AL180"/>
+    <mergeCell ref="AM179:AM180"/>
+    <mergeCell ref="AN179:AN180"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="C181:D182"/>
+    <mergeCell ref="AL181:AL182"/>
+    <mergeCell ref="AM181:AM182"/>
+    <mergeCell ref="AN181:AN182"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:D184"/>
+    <mergeCell ref="AL183:AL184"/>
+    <mergeCell ref="AM183:AM184"/>
+    <mergeCell ref="AN183:AN184"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="C185:D186"/>
+    <mergeCell ref="AL185:AL186"/>
+    <mergeCell ref="AM185:AM186"/>
+    <mergeCell ref="AN185:AN186"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:D188"/>
+    <mergeCell ref="AL187:AL188"/>
+    <mergeCell ref="AM187:AM188"/>
+    <mergeCell ref="AN187:AN188"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="C189:D190"/>
+    <mergeCell ref="AL189:AL190"/>
+    <mergeCell ref="AM189:AM190"/>
+    <mergeCell ref="AN189:AN190"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="C191:D192"/>
+    <mergeCell ref="AL191:AL192"/>
+    <mergeCell ref="AM191:AM192"/>
+    <mergeCell ref="AN191:AN192"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="C193:D194"/>
+    <mergeCell ref="AL193:AL194"/>
+    <mergeCell ref="AM193:AM194"/>
+    <mergeCell ref="AN193:AN194"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="C195:D196"/>
+    <mergeCell ref="AL195:AL196"/>
+    <mergeCell ref="AM195:AM196"/>
+    <mergeCell ref="AN195:AN196"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="C197:D198"/>
+    <mergeCell ref="AL197:AL198"/>
+    <mergeCell ref="AM197:AM198"/>
+    <mergeCell ref="AN197:AN198"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="C199:D200"/>
+    <mergeCell ref="AL199:AL200"/>
+    <mergeCell ref="AM199:AM200"/>
+    <mergeCell ref="AN199:AN200"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="C201:D202"/>
+    <mergeCell ref="AL201:AL202"/>
+    <mergeCell ref="AM201:AM202"/>
+    <mergeCell ref="AN201:AN202"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="C203:D204"/>
+    <mergeCell ref="AL203:AL204"/>
+    <mergeCell ref="AM203:AM204"/>
+    <mergeCell ref="AN203:AN204"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="C211:D212"/>
+    <mergeCell ref="AL211:AL212"/>
+    <mergeCell ref="AM211:AM212"/>
+    <mergeCell ref="AN211:AN212"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="C205:D206"/>
+    <mergeCell ref="AL205:AL206"/>
+    <mergeCell ref="AM205:AM206"/>
+    <mergeCell ref="AN205:AN206"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="C207:D208"/>
+    <mergeCell ref="AL207:AL208"/>
+    <mergeCell ref="AM207:AM208"/>
+    <mergeCell ref="AN207:AN208"/>
     <mergeCell ref="AE227:AJ227"/>
     <mergeCell ref="AE229:AJ229"/>
     <mergeCell ref="B7:AN7"/>
@@ -12983,510 +13487,6 @@
     <mergeCell ref="AL209:AL210"/>
     <mergeCell ref="AM209:AM210"/>
     <mergeCell ref="AN209:AN210"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="C211:D212"/>
-    <mergeCell ref="AL211:AL212"/>
-    <mergeCell ref="AM211:AM212"/>
-    <mergeCell ref="AN211:AN212"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="C205:D206"/>
-    <mergeCell ref="AL205:AL206"/>
-    <mergeCell ref="AM205:AM206"/>
-    <mergeCell ref="AN205:AN206"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="C207:D208"/>
-    <mergeCell ref="AL207:AL208"/>
-    <mergeCell ref="AM207:AM208"/>
-    <mergeCell ref="AN207:AN208"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="C201:D202"/>
-    <mergeCell ref="AL201:AL202"/>
-    <mergeCell ref="AM201:AM202"/>
-    <mergeCell ref="AN201:AN202"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="C203:D204"/>
-    <mergeCell ref="AL203:AL204"/>
-    <mergeCell ref="AM203:AM204"/>
-    <mergeCell ref="AN203:AN204"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="C197:D198"/>
-    <mergeCell ref="AL197:AL198"/>
-    <mergeCell ref="AM197:AM198"/>
-    <mergeCell ref="AN197:AN198"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="C199:D200"/>
-    <mergeCell ref="AL199:AL200"/>
-    <mergeCell ref="AM199:AM200"/>
-    <mergeCell ref="AN199:AN200"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="C193:D194"/>
-    <mergeCell ref="AL193:AL194"/>
-    <mergeCell ref="AM193:AM194"/>
-    <mergeCell ref="AN193:AN194"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="C195:D196"/>
-    <mergeCell ref="AL195:AL196"/>
-    <mergeCell ref="AM195:AM196"/>
-    <mergeCell ref="AN195:AN196"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="C189:D190"/>
-    <mergeCell ref="AL189:AL190"/>
-    <mergeCell ref="AM189:AM190"/>
-    <mergeCell ref="AN189:AN190"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="C191:D192"/>
-    <mergeCell ref="AL191:AL192"/>
-    <mergeCell ref="AM191:AM192"/>
-    <mergeCell ref="AN191:AN192"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="C185:D186"/>
-    <mergeCell ref="AL185:AL186"/>
-    <mergeCell ref="AM185:AM186"/>
-    <mergeCell ref="AN185:AN186"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:D188"/>
-    <mergeCell ref="AL187:AL188"/>
-    <mergeCell ref="AM187:AM188"/>
-    <mergeCell ref="AN187:AN188"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="C181:D182"/>
-    <mergeCell ref="AL181:AL182"/>
-    <mergeCell ref="AM181:AM182"/>
-    <mergeCell ref="AN181:AN182"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:D184"/>
-    <mergeCell ref="AL183:AL184"/>
-    <mergeCell ref="AM183:AM184"/>
-    <mergeCell ref="AN183:AN184"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="C177:D178"/>
-    <mergeCell ref="AL177:AL178"/>
-    <mergeCell ref="AM177:AM178"/>
-    <mergeCell ref="AN177:AN178"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="C179:D180"/>
-    <mergeCell ref="AL179:AL180"/>
-    <mergeCell ref="AM179:AM180"/>
-    <mergeCell ref="AN179:AN180"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="C173:D174"/>
-    <mergeCell ref="AL173:AL174"/>
-    <mergeCell ref="AM173:AM174"/>
-    <mergeCell ref="AN173:AN174"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="C175:D176"/>
-    <mergeCell ref="AL175:AL176"/>
-    <mergeCell ref="AM175:AM176"/>
-    <mergeCell ref="AN175:AN176"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="C169:D170"/>
-    <mergeCell ref="AL169:AL170"/>
-    <mergeCell ref="AM169:AM170"/>
-    <mergeCell ref="AN169:AN170"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="C171:D172"/>
-    <mergeCell ref="AL171:AL172"/>
-    <mergeCell ref="AM171:AM172"/>
-    <mergeCell ref="AN171:AN172"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="C165:D166"/>
-    <mergeCell ref="AL165:AL166"/>
-    <mergeCell ref="AM165:AM166"/>
-    <mergeCell ref="AN165:AN166"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="C167:D168"/>
-    <mergeCell ref="AL167:AL168"/>
-    <mergeCell ref="AM167:AM168"/>
-    <mergeCell ref="AN167:AN168"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="C161:D162"/>
-    <mergeCell ref="AL161:AL162"/>
-    <mergeCell ref="AM161:AM162"/>
-    <mergeCell ref="AN161:AN162"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:D164"/>
-    <mergeCell ref="AL163:AL164"/>
-    <mergeCell ref="AM163:AM164"/>
-    <mergeCell ref="AN163:AN164"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:D158"/>
-    <mergeCell ref="AL157:AL158"/>
-    <mergeCell ref="AM157:AM158"/>
-    <mergeCell ref="AN157:AN158"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="C159:D160"/>
-    <mergeCell ref="AL159:AL160"/>
-    <mergeCell ref="AM159:AM160"/>
-    <mergeCell ref="AN159:AN160"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="C153:D154"/>
-    <mergeCell ref="AL153:AL154"/>
-    <mergeCell ref="AM153:AM154"/>
-    <mergeCell ref="AN153:AN154"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="C155:D156"/>
-    <mergeCell ref="AL155:AL156"/>
-    <mergeCell ref="AM155:AM156"/>
-    <mergeCell ref="AN155:AN156"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:D150"/>
-    <mergeCell ref="AL149:AL150"/>
-    <mergeCell ref="AM149:AM150"/>
-    <mergeCell ref="AN149:AN150"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:D152"/>
-    <mergeCell ref="AL151:AL152"/>
-    <mergeCell ref="AM151:AM152"/>
-    <mergeCell ref="AN151:AN152"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:D146"/>
-    <mergeCell ref="AL145:AL146"/>
-    <mergeCell ref="AM145:AM146"/>
-    <mergeCell ref="AN145:AN146"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:D148"/>
-    <mergeCell ref="AL147:AL148"/>
-    <mergeCell ref="AM147:AM148"/>
-    <mergeCell ref="AN147:AN148"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:D142"/>
-    <mergeCell ref="AL141:AL142"/>
-    <mergeCell ref="AM141:AM142"/>
-    <mergeCell ref="AN141:AN142"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:D144"/>
-    <mergeCell ref="AL143:AL144"/>
-    <mergeCell ref="AM143:AM144"/>
-    <mergeCell ref="AN143:AN144"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:D138"/>
-    <mergeCell ref="AL137:AL138"/>
-    <mergeCell ref="AM137:AM138"/>
-    <mergeCell ref="AN137:AN138"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:D140"/>
-    <mergeCell ref="AL139:AL140"/>
-    <mergeCell ref="AM139:AM140"/>
-    <mergeCell ref="AN139:AN140"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:D134"/>
-    <mergeCell ref="AL133:AL134"/>
-    <mergeCell ref="AM133:AM134"/>
-    <mergeCell ref="AN133:AN134"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:D136"/>
-    <mergeCell ref="AL135:AL136"/>
-    <mergeCell ref="AM135:AM136"/>
-    <mergeCell ref="AN135:AN136"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:D130"/>
-    <mergeCell ref="AL129:AL130"/>
-    <mergeCell ref="AM129:AM130"/>
-    <mergeCell ref="AN129:AN130"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:D132"/>
-    <mergeCell ref="AL131:AL132"/>
-    <mergeCell ref="AM131:AM132"/>
-    <mergeCell ref="AN131:AN132"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:D126"/>
-    <mergeCell ref="AL125:AL126"/>
-    <mergeCell ref="AM125:AM126"/>
-    <mergeCell ref="AN125:AN126"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:D128"/>
-    <mergeCell ref="AL127:AL128"/>
-    <mergeCell ref="AM127:AM128"/>
-    <mergeCell ref="AN127:AN128"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:D122"/>
-    <mergeCell ref="AL121:AL122"/>
-    <mergeCell ref="AM121:AM122"/>
-    <mergeCell ref="AN121:AN122"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:D124"/>
-    <mergeCell ref="AL123:AL124"/>
-    <mergeCell ref="AM123:AM124"/>
-    <mergeCell ref="AN123:AN124"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:D118"/>
-    <mergeCell ref="AL117:AL118"/>
-    <mergeCell ref="AM117:AM118"/>
-    <mergeCell ref="AN117:AN118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:D120"/>
-    <mergeCell ref="AL119:AL120"/>
-    <mergeCell ref="AM119:AM120"/>
-    <mergeCell ref="AN119:AN120"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="AL113:AL114"/>
-    <mergeCell ref="AM113:AM114"/>
-    <mergeCell ref="AN113:AN114"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:D116"/>
-    <mergeCell ref="AL115:AL116"/>
-    <mergeCell ref="AM115:AM116"/>
-    <mergeCell ref="AN115:AN116"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="AL109:AL110"/>
-    <mergeCell ref="AM109:AM110"/>
-    <mergeCell ref="AN109:AN110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="AL111:AL112"/>
-    <mergeCell ref="AM111:AM112"/>
-    <mergeCell ref="AN111:AN112"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="AL105:AL106"/>
-    <mergeCell ref="AM105:AM106"/>
-    <mergeCell ref="AN105:AN106"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="AL107:AL108"/>
-    <mergeCell ref="AM107:AM108"/>
-    <mergeCell ref="AN107:AN108"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:D102"/>
-    <mergeCell ref="AL101:AL102"/>
-    <mergeCell ref="AM101:AM102"/>
-    <mergeCell ref="AN101:AN102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="AL103:AL104"/>
-    <mergeCell ref="AM103:AM104"/>
-    <mergeCell ref="AN103:AN104"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="AL97:AL98"/>
-    <mergeCell ref="AM97:AM98"/>
-    <mergeCell ref="AN97:AN98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="AL99:AL100"/>
-    <mergeCell ref="AM99:AM100"/>
-    <mergeCell ref="AN99:AN100"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="AL93:AL94"/>
-    <mergeCell ref="AM93:AM94"/>
-    <mergeCell ref="AN93:AN94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="AL95:AL96"/>
-    <mergeCell ref="AM95:AM96"/>
-    <mergeCell ref="AN95:AN96"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="AL89:AL90"/>
-    <mergeCell ref="AM89:AM90"/>
-    <mergeCell ref="AN89:AN90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="AL91:AL92"/>
-    <mergeCell ref="AM91:AM92"/>
-    <mergeCell ref="AN91:AN92"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="AL85:AL86"/>
-    <mergeCell ref="AM85:AM86"/>
-    <mergeCell ref="AN85:AN86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:D88"/>
-    <mergeCell ref="AL87:AL88"/>
-    <mergeCell ref="AM87:AM88"/>
-    <mergeCell ref="AN87:AN88"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="AL81:AL82"/>
-    <mergeCell ref="AM81:AM82"/>
-    <mergeCell ref="AN81:AN82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="AL83:AL84"/>
-    <mergeCell ref="AM83:AM84"/>
-    <mergeCell ref="AN83:AN84"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="AL77:AL78"/>
-    <mergeCell ref="AM77:AM78"/>
-    <mergeCell ref="AN77:AN78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="AL79:AL80"/>
-    <mergeCell ref="AM79:AM80"/>
-    <mergeCell ref="AN79:AN80"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="AL73:AL74"/>
-    <mergeCell ref="AM73:AM74"/>
-    <mergeCell ref="AN73:AN74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="AL75:AL76"/>
-    <mergeCell ref="AM75:AM76"/>
-    <mergeCell ref="AN75:AN76"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="AL69:AL70"/>
-    <mergeCell ref="AM69:AM70"/>
-    <mergeCell ref="AN69:AN70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="AL71:AL72"/>
-    <mergeCell ref="AM71:AM72"/>
-    <mergeCell ref="AN71:AN72"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="AL65:AL66"/>
-    <mergeCell ref="AM65:AM66"/>
-    <mergeCell ref="AN65:AN66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="AL67:AL68"/>
-    <mergeCell ref="AM67:AM68"/>
-    <mergeCell ref="AN67:AN68"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="AL61:AL62"/>
-    <mergeCell ref="AM61:AM62"/>
-    <mergeCell ref="AN61:AN62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="AL63:AL64"/>
-    <mergeCell ref="AM63:AM64"/>
-    <mergeCell ref="AN63:AN64"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="AL57:AL58"/>
-    <mergeCell ref="AM57:AM58"/>
-    <mergeCell ref="AN57:AN58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="AL59:AL60"/>
-    <mergeCell ref="AM59:AM60"/>
-    <mergeCell ref="AN59:AN60"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="AL53:AL54"/>
-    <mergeCell ref="AM53:AM54"/>
-    <mergeCell ref="AN53:AN54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="AL55:AL56"/>
-    <mergeCell ref="AM55:AM56"/>
-    <mergeCell ref="AN55:AN56"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="AL49:AL50"/>
-    <mergeCell ref="AM49:AM50"/>
-    <mergeCell ref="AN49:AN50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="AL51:AL52"/>
-    <mergeCell ref="AM51:AM52"/>
-    <mergeCell ref="AN51:AN52"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="AL45:AL46"/>
-    <mergeCell ref="AM45:AM46"/>
-    <mergeCell ref="AN45:AN46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="AL47:AL48"/>
-    <mergeCell ref="AM47:AM48"/>
-    <mergeCell ref="AN47:AN48"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="AL41:AL42"/>
-    <mergeCell ref="AM41:AM42"/>
-    <mergeCell ref="AN41:AN42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="AL43:AL44"/>
-    <mergeCell ref="AM43:AM44"/>
-    <mergeCell ref="AN43:AN44"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="AL37:AL38"/>
-    <mergeCell ref="AM37:AM38"/>
-    <mergeCell ref="AN37:AN38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="AL39:AL40"/>
-    <mergeCell ref="AM39:AM40"/>
-    <mergeCell ref="AN39:AN40"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="AL33:AL34"/>
-    <mergeCell ref="AM33:AM34"/>
-    <mergeCell ref="AN33:AN34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="AL35:AL36"/>
-    <mergeCell ref="AM35:AM36"/>
-    <mergeCell ref="AN35:AN36"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="AL29:AL30"/>
-    <mergeCell ref="AM29:AM30"/>
-    <mergeCell ref="AN29:AN30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="AL31:AL32"/>
-    <mergeCell ref="AM31:AM32"/>
-    <mergeCell ref="AN31:AN32"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="AL25:AL26"/>
-    <mergeCell ref="AM25:AM26"/>
-    <mergeCell ref="AN25:AN26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="AL27:AL28"/>
-    <mergeCell ref="AM27:AM28"/>
-    <mergeCell ref="AN27:AN28"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="AL21:AL22"/>
-    <mergeCell ref="AM21:AM22"/>
-    <mergeCell ref="AN21:AN22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="AL23:AL24"/>
-    <mergeCell ref="AM23:AM24"/>
-    <mergeCell ref="AN23:AN24"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="AL17:AL18"/>
-    <mergeCell ref="AM17:AM18"/>
-    <mergeCell ref="AN17:AN18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="AL19:AL20"/>
-    <mergeCell ref="AM19:AM20"/>
-    <mergeCell ref="AN19:AN20"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="AL13:AL14"/>
-    <mergeCell ref="AM13:AM14"/>
-    <mergeCell ref="AN13:AN14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="AL15:AL16"/>
-    <mergeCell ref="AM15:AM16"/>
-    <mergeCell ref="AN15:AN16"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="AK9:AN9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="AL11:AL12"/>
-    <mergeCell ref="AM11:AM12"/>
-    <mergeCell ref="AN11:AN12"/>
   </mergeCells>
   <conditionalFormatting sqref="F9:F214">
     <cfRule type="expression" dxfId="61" priority="62">
